--- a/src/Gabriel/Convert_Time_Series_To_Supervised/EEG_Shifted_Correlation_Matrix.xlsx
+++ b/src/Gabriel/Convert_Time_Series_To_Supervised/EEG_Shifted_Correlation_Matrix.xlsx
@@ -14,7 +14,175 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+  <si>
+    <t>var1(t-4)</t>
+  </si>
+  <si>
+    <t>var2(t-4)</t>
+  </si>
+  <si>
+    <t>var3(t-4)</t>
+  </si>
+  <si>
+    <t>var4(t-4)</t>
+  </si>
+  <si>
+    <t>var5(t-4)</t>
+  </si>
+  <si>
+    <t>var6(t-4)</t>
+  </si>
+  <si>
+    <t>var7(t-4)</t>
+  </si>
+  <si>
+    <t>var8(t-4)</t>
+  </si>
+  <si>
+    <t>var9(t-4)</t>
+  </si>
+  <si>
+    <t>var10(t-4)</t>
+  </si>
+  <si>
+    <t>var11(t-4)</t>
+  </si>
+  <si>
+    <t>var12(t-4)</t>
+  </si>
+  <si>
+    <t>var13(t-4)</t>
+  </si>
+  <si>
+    <t>var14(t-4)</t>
+  </si>
+  <si>
+    <t>var1(t-3)</t>
+  </si>
+  <si>
+    <t>var2(t-3)</t>
+  </si>
+  <si>
+    <t>var3(t-3)</t>
+  </si>
+  <si>
+    <t>var4(t-3)</t>
+  </si>
+  <si>
+    <t>var5(t-3)</t>
+  </si>
+  <si>
+    <t>var6(t-3)</t>
+  </si>
+  <si>
+    <t>var7(t-3)</t>
+  </si>
+  <si>
+    <t>var8(t-3)</t>
+  </si>
+  <si>
+    <t>var9(t-3)</t>
+  </si>
+  <si>
+    <t>var10(t-3)</t>
+  </si>
+  <si>
+    <t>var11(t-3)</t>
+  </si>
+  <si>
+    <t>var12(t-3)</t>
+  </si>
+  <si>
+    <t>var13(t-3)</t>
+  </si>
+  <si>
+    <t>var14(t-3)</t>
+  </si>
+  <si>
+    <t>var1(t-2)</t>
+  </si>
+  <si>
+    <t>var2(t-2)</t>
+  </si>
+  <si>
+    <t>var3(t-2)</t>
+  </si>
+  <si>
+    <t>var4(t-2)</t>
+  </si>
+  <si>
+    <t>var5(t-2)</t>
+  </si>
+  <si>
+    <t>var6(t-2)</t>
+  </si>
+  <si>
+    <t>var7(t-2)</t>
+  </si>
+  <si>
+    <t>var8(t-2)</t>
+  </si>
+  <si>
+    <t>var9(t-2)</t>
+  </si>
+  <si>
+    <t>var10(t-2)</t>
+  </si>
+  <si>
+    <t>var11(t-2)</t>
+  </si>
+  <si>
+    <t>var12(t-2)</t>
+  </si>
+  <si>
+    <t>var13(t-2)</t>
+  </si>
+  <si>
+    <t>var14(t-2)</t>
+  </si>
+  <si>
+    <t>var1(t-1)</t>
+  </si>
+  <si>
+    <t>var2(t-1)</t>
+  </si>
+  <si>
+    <t>var3(t-1)</t>
+  </si>
+  <si>
+    <t>var4(t-1)</t>
+  </si>
+  <si>
+    <t>var5(t-1)</t>
+  </si>
+  <si>
+    <t>var6(t-1)</t>
+  </si>
+  <si>
+    <t>var7(t-1)</t>
+  </si>
+  <si>
+    <t>var8(t-1)</t>
+  </si>
+  <si>
+    <t>var9(t-1)</t>
+  </si>
+  <si>
+    <t>var10(t-1)</t>
+  </si>
+  <si>
+    <t>var11(t-1)</t>
+  </si>
+  <si>
+    <t>var12(t-1)</t>
+  </si>
+  <si>
+    <t>var13(t-1)</t>
+  </si>
+  <si>
+    <t>var14(t-1)</t>
+  </si>
   <si>
     <t>var1(t)</t>
   </si>
@@ -413,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:BS71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:71">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +630,176 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:71">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,46 +807,214 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.907364119119736</v>
+        <v>0.7347843386144156</v>
       </c>
       <c r="D2">
-        <v>0.8632113603971697</v>
+        <v>0.7363668762120709</v>
       </c>
       <c r="E2">
-        <v>0.7971478152794388</v>
+        <v>0.8116819279035008</v>
       </c>
       <c r="F2">
-        <v>0.6319032316368973</v>
+        <v>0.4030060038855461</v>
       </c>
       <c r="G2">
-        <v>-0.08087454834380854</v>
+        <v>-0.06448001911337849</v>
       </c>
       <c r="H2">
-        <v>0.4622707198110106</v>
+        <v>0.1853537281770802</v>
       </c>
       <c r="I2">
-        <v>0.4490209330158989</v>
+        <v>0.2951429640140788</v>
       </c>
       <c r="J2">
-        <v>0.4346675835001371</v>
+        <v>0.3703431511335928</v>
       </c>
       <c r="K2">
-        <v>0.5367472754472857</v>
+        <v>0.6205361684045007</v>
       </c>
       <c r="L2">
-        <v>0.7858426549927404</v>
+        <v>0.5690810693975363</v>
       </c>
       <c r="M2">
-        <v>0.7892444750735987</v>
+        <v>0.6184124344904309</v>
       </c>
       <c r="N2">
-        <v>0.9019986411291486</v>
+        <v>0.7986641172301794</v>
       </c>
       <c r="O2">
-        <v>0.8355112824094574</v>
+        <v>0.8595714092685296</v>
+      </c>
+      <c r="P2">
+        <v>0.7929971950431345</v>
+      </c>
+      <c r="Q2">
+        <v>0.4953562963996433</v>
+      </c>
+      <c r="R2">
+        <v>0.573842872690554</v>
+      </c>
+      <c r="S2">
+        <v>0.6754410938496105</v>
+      </c>
+      <c r="T2">
+        <v>0.1780985930690455</v>
+      </c>
+      <c r="U2">
+        <v>0.04247912198142699</v>
+      </c>
+      <c r="V2">
+        <v>0.2302201468773849</v>
+      </c>
+      <c r="W2">
+        <v>0.3103806550060824</v>
+      </c>
+      <c r="X2">
+        <v>0.3135624216388759</v>
+      </c>
+      <c r="Y2">
+        <v>0.5264270453390029</v>
+      </c>
+      <c r="Z2">
+        <v>0.4031228586936594</v>
+      </c>
+      <c r="AA2">
+        <v>0.4016439203061627</v>
+      </c>
+      <c r="AB2">
+        <v>0.6421931564371511</v>
+      </c>
+      <c r="AC2">
+        <v>0.6382561959765954</v>
+      </c>
+      <c r="AD2">
+        <v>0.4033354332168875</v>
+      </c>
+      <c r="AE2">
+        <v>0.09942415916330581</v>
+      </c>
+      <c r="AF2">
+        <v>0.3258750507467567</v>
+      </c>
+      <c r="AG2">
+        <v>0.4437395654826193</v>
+      </c>
+      <c r="AH2">
+        <v>0.02015857949305115</v>
+      </c>
+      <c r="AI2">
+        <v>0.09348278841642285</v>
+      </c>
+      <c r="AJ2">
+        <v>0.1643744062116035</v>
+      </c>
+      <c r="AK2">
+        <v>0.2245817006726397</v>
+      </c>
+      <c r="AL2">
+        <v>0.2625918054652221</v>
+      </c>
+      <c r="AM2">
+        <v>0.3014711655705839</v>
+      </c>
+      <c r="AN2">
+        <v>0.1492343438031534</v>
+      </c>
+      <c r="AO2">
+        <v>0.1295967536135465</v>
+      </c>
+      <c r="AP2">
+        <v>0.3292862616674707</v>
+      </c>
+      <c r="AQ2">
+        <v>0.3140311279145152</v>
+      </c>
+      <c r="AR2">
+        <v>0.1282313043041075</v>
+      </c>
+      <c r="AS2">
+        <v>-0.1265778991017489</v>
+      </c>
+      <c r="AT2">
+        <v>0.1261710866905177</v>
+      </c>
+      <c r="AU2">
+        <v>0.2920327389910169</v>
+      </c>
+      <c r="AV2">
+        <v>0.1076872908835998</v>
+      </c>
+      <c r="AW2">
+        <v>0.1381796141414462</v>
+      </c>
+      <c r="AX2">
+        <v>0.1187071507636832</v>
+      </c>
+      <c r="AY2">
+        <v>0.2271271130895189</v>
+      </c>
+      <c r="AZ2">
+        <v>0.2238514710477135</v>
+      </c>
+      <c r="BA2">
+        <v>0.124747585240347</v>
+      </c>
+      <c r="BB2">
+        <v>-0.0669267996284708</v>
+      </c>
+      <c r="BC2">
+        <v>-0.04715898904077351</v>
+      </c>
+      <c r="BD2">
+        <v>0.05225337496116711</v>
+      </c>
+      <c r="BE2">
+        <v>0.07142102587687796</v>
+      </c>
+      <c r="BF2">
+        <v>-0.03758885121576724</v>
+      </c>
+      <c r="BG2">
+        <v>-0.2199731173633723</v>
+      </c>
+      <c r="BH2">
+        <v>-0.009314508126620293</v>
+      </c>
+      <c r="BI2">
+        <v>0.1892255040204865</v>
+      </c>
+      <c r="BJ2">
+        <v>0.2786738855881274</v>
+      </c>
+      <c r="BK2">
+        <v>0.1649242283947674</v>
+      </c>
+      <c r="BL2">
+        <v>0.1492819069745622</v>
+      </c>
+      <c r="BM2">
+        <v>0.2119124465652384</v>
+      </c>
+      <c r="BN2">
+        <v>0.07625784421201363</v>
+      </c>
+      <c r="BO2">
+        <v>-0.03710567962749008</v>
+      </c>
+      <c r="BP2">
+        <v>-0.2324032455039921</v>
+      </c>
+      <c r="BQ2">
+        <v>-0.1442001595427713</v>
+      </c>
+      <c r="BR2">
+        <v>-0.1476402053937462</v>
+      </c>
+      <c r="BS2">
+        <v>-0.06346134770478919</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:71">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -518,43 +1022,211 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.696062341265078</v>
+        <v>0.5850935365056924</v>
       </c>
       <c r="E3">
-        <v>0.611270800210685</v>
+        <v>0.5335114365550582</v>
       </c>
       <c r="F3">
-        <v>0.666176411059808</v>
+        <v>0.2969083938237365</v>
       </c>
       <c r="G3">
-        <v>-0.1930096522240388</v>
+        <v>0.1957036882806999</v>
       </c>
       <c r="H3">
-        <v>0.3635042490009036</v>
+        <v>0.08970821567123018</v>
       </c>
       <c r="I3">
-        <v>0.257667324230936</v>
+        <v>0.1754579839186607</v>
       </c>
       <c r="J3">
-        <v>0.2985334096273355</v>
+        <v>0.2711528400243878</v>
       </c>
       <c r="K3">
-        <v>0.6468769961254642</v>
+        <v>0.6067970764071979</v>
       </c>
       <c r="L3">
-        <v>0.8123326829599973</v>
+        <v>0.6533424261792981</v>
       </c>
       <c r="M3">
-        <v>0.7721408905122444</v>
+        <v>0.6456501271921402</v>
       </c>
       <c r="N3">
-        <v>0.8553819603072312</v>
+        <v>0.6624715824575994</v>
       </c>
       <c r="O3">
-        <v>0.8510273903674616</v>
+        <v>0.6577536586810204</v>
+      </c>
+      <c r="P3">
+        <v>0.5747978914202779</v>
+      </c>
+      <c r="Q3">
+        <v>0.6365255102402745</v>
+      </c>
+      <c r="R3">
+        <v>0.435142702378318</v>
+      </c>
+      <c r="S3">
+        <v>0.4162420200355104</v>
+      </c>
+      <c r="T3">
+        <v>-0.02548564984707235</v>
+      </c>
+      <c r="U3">
+        <v>0.3440384289042168</v>
+      </c>
+      <c r="V3">
+        <v>0.2299179976392047</v>
+      </c>
+      <c r="W3">
+        <v>0.2572517708391371</v>
+      </c>
+      <c r="X3">
+        <v>0.251451275279889</v>
+      </c>
+      <c r="Y3">
+        <v>0.4848217916704203</v>
+      </c>
+      <c r="Z3">
+        <v>0.4829297642623031</v>
+      </c>
+      <c r="AA3">
+        <v>0.4187369219171104</v>
+      </c>
+      <c r="AB3">
+        <v>0.497043114234402</v>
+      </c>
+      <c r="AC3">
+        <v>0.3952504668182572</v>
+      </c>
+      <c r="AD3">
+        <v>0.2213850694855111</v>
+      </c>
+      <c r="AE3">
+        <v>0.1070638834748972</v>
+      </c>
+      <c r="AF3">
+        <v>0.2415399801565198</v>
+      </c>
+      <c r="AG3">
+        <v>0.2027179044768819</v>
+      </c>
+      <c r="AH3">
+        <v>-0.259182110955152</v>
+      </c>
+      <c r="AI3">
+        <v>0.3921048515389018</v>
+      </c>
+      <c r="AJ3">
+        <v>0.2759256786465337</v>
+      </c>
+      <c r="AK3">
+        <v>0.2870293181106945</v>
+      </c>
+      <c r="AL3">
+        <v>0.2904771152980958</v>
+      </c>
+      <c r="AM3">
+        <v>0.2967054401983765</v>
+      </c>
+      <c r="AN3">
+        <v>0.2668657743260727</v>
+      </c>
+      <c r="AO3">
+        <v>0.1863249290858398</v>
+      </c>
+      <c r="AP3">
+        <v>0.2105143647590246</v>
+      </c>
+      <c r="AQ3">
+        <v>0.08253302827832036</v>
+      </c>
+      <c r="AR3">
+        <v>0.01755047591636321</v>
+      </c>
+      <c r="AS3">
+        <v>0.004790642459805714</v>
+      </c>
+      <c r="AT3">
+        <v>0.1659977515350146</v>
+      </c>
+      <c r="AU3">
+        <v>0.09461175440604674</v>
+      </c>
+      <c r="AV3">
+        <v>-0.08718059271944723</v>
+      </c>
+      <c r="AW3">
+        <v>0.4105207849546529</v>
+      </c>
+      <c r="AX3">
+        <v>0.2592490194008379</v>
+      </c>
+      <c r="AY3">
+        <v>0.4016713604415899</v>
+      </c>
+      <c r="AZ3">
+        <v>0.3477639295826957</v>
+      </c>
+      <c r="BA3">
+        <v>0.2432207105224611</v>
+      </c>
+      <c r="BB3">
+        <v>0.1627152933085902</v>
+      </c>
+      <c r="BC3">
+        <v>0.1584658658812332</v>
+      </c>
+      <c r="BD3">
+        <v>0.07061324807652483</v>
+      </c>
+      <c r="BE3">
+        <v>-0.01305197123305393</v>
+      </c>
+      <c r="BF3">
+        <v>-0.06933914101696745</v>
+      </c>
+      <c r="BG3">
+        <v>0.03731780053275775</v>
+      </c>
+      <c r="BH3">
+        <v>0.1083055532926071</v>
+      </c>
+      <c r="BI3">
+        <v>0.02407870061024921</v>
+      </c>
+      <c r="BJ3">
+        <v>0.1508257891381731</v>
+      </c>
+      <c r="BK3">
+        <v>0.4827290093037561</v>
+      </c>
+      <c r="BL3">
+        <v>0.320919996518881</v>
+      </c>
+      <c r="BM3">
+        <v>0.4491784598822928</v>
+      </c>
+      <c r="BN3">
+        <v>0.2373404574429389</v>
+      </c>
+      <c r="BO3">
+        <v>0.1643404459638354</v>
+      </c>
+      <c r="BP3">
+        <v>0.06605405620811862</v>
+      </c>
+      <c r="BQ3">
+        <v>0.1760687149822125</v>
+      </c>
+      <c r="BR3">
+        <v>-0.04421579264707985</v>
+      </c>
+      <c r="BS3">
+        <v>-0.05994685200015318</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:71">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -562,40 +1234,208 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9410070661639017</v>
+        <v>0.8741964444716118</v>
       </c>
       <c r="F4">
-        <v>0.5500392532888608</v>
+        <v>0.4799139787012812</v>
       </c>
       <c r="G4">
-        <v>0.2829683567993684</v>
+        <v>0.1408008189987667</v>
       </c>
       <c r="H4">
-        <v>0.7266737856557104</v>
+        <v>0.3263352589688084</v>
       </c>
       <c r="I4">
-        <v>0.6736131233080109</v>
+        <v>0.278665358130153</v>
       </c>
       <c r="J4">
-        <v>0.6345664773964209</v>
+        <v>0.2384995094351743</v>
       </c>
       <c r="K4">
-        <v>0.5460092807074539</v>
+        <v>0.3932532002983579</v>
       </c>
       <c r="L4">
-        <v>0.7732699989036407</v>
+        <v>0.522389825161976</v>
       </c>
       <c r="M4">
-        <v>0.9105615699245379</v>
+        <v>0.7604978312412195</v>
       </c>
       <c r="N4">
-        <v>0.848905764281757</v>
+        <v>0.6043118402993334</v>
       </c>
       <c r="O4">
-        <v>0.8329350598052981</v>
+        <v>0.6458477975487968</v>
+      </c>
+      <c r="P4">
+        <v>0.6937021340039635</v>
+      </c>
+      <c r="Q4">
+        <v>0.4895320033446288</v>
+      </c>
+      <c r="R4">
+        <v>0.9049855973348774</v>
+      </c>
+      <c r="S4">
+        <v>0.8403278125417309</v>
+      </c>
+      <c r="T4">
+        <v>0.3313700760603311</v>
+      </c>
+      <c r="U4">
+        <v>0.2279031636540903</v>
+      </c>
+      <c r="V4">
+        <v>0.3486686184873229</v>
+      </c>
+      <c r="W4">
+        <v>0.280152370750419</v>
+      </c>
+      <c r="X4">
+        <v>0.2199353449917659</v>
+      </c>
+      <c r="Y4">
+        <v>0.3730447564393171</v>
+      </c>
+      <c r="Z4">
+        <v>0.4602736794908705</v>
+      </c>
+      <c r="AA4">
+        <v>0.6367211012284031</v>
+      </c>
+      <c r="AB4">
+        <v>0.5463903624141941</v>
+      </c>
+      <c r="AC4">
+        <v>0.5497341660230806</v>
+      </c>
+      <c r="AD4">
+        <v>0.4987505476197464</v>
+      </c>
+      <c r="AE4">
+        <v>0.2605193700092615</v>
+      </c>
+      <c r="AF4">
+        <v>0.7231898937469795</v>
+      </c>
+      <c r="AG4">
+        <v>0.7096487464483994</v>
+      </c>
+      <c r="AH4">
+        <v>0.2049603293505721</v>
+      </c>
+      <c r="AI4">
+        <v>0.2882696279903391</v>
+      </c>
+      <c r="AJ4">
+        <v>0.3508086031548161</v>
+      </c>
+      <c r="AK4">
+        <v>0.2120679231994407</v>
+      </c>
+      <c r="AL4">
+        <v>0.20269468550677</v>
+      </c>
+      <c r="AM4">
+        <v>0.294975673378739</v>
+      </c>
+      <c r="AN4">
+        <v>0.3234871244340174</v>
+      </c>
+      <c r="AO4">
+        <v>0.4521000053052712</v>
+      </c>
+      <c r="AP4">
+        <v>0.3886439227016399</v>
+      </c>
+      <c r="AQ4">
+        <v>0.3528866263584648</v>
+      </c>
+      <c r="AR4">
+        <v>0.3161400432019355</v>
+      </c>
+      <c r="AS4">
+        <v>0.1070065612193952</v>
+      </c>
+      <c r="AT4">
+        <v>0.5871174753998712</v>
+      </c>
+      <c r="AU4">
+        <v>0.6110131826324989</v>
+      </c>
+      <c r="AV4">
+        <v>0.243729733101037</v>
+      </c>
+      <c r="AW4">
+        <v>0.2933743455949843</v>
+      </c>
+      <c r="AX4">
+        <v>0.2982609842647946</v>
+      </c>
+      <c r="AY4">
+        <v>0.1685024815427726</v>
+      </c>
+      <c r="AZ4">
+        <v>0.1832634644046602</v>
+      </c>
+      <c r="BA4">
+        <v>0.2332784423420949</v>
+      </c>
+      <c r="BB4">
+        <v>0.1895389013879534</v>
+      </c>
+      <c r="BC4">
+        <v>0.3366973912915685</v>
+      </c>
+      <c r="BD4">
+        <v>0.2490258219415708</v>
+      </c>
+      <c r="BE4">
+        <v>0.206864885689227</v>
+      </c>
+      <c r="BF4">
+        <v>0.20467082016585</v>
+      </c>
+      <c r="BG4">
+        <v>0.01375752843778821</v>
+      </c>
+      <c r="BH4">
+        <v>0.4809031553607846</v>
+      </c>
+      <c r="BI4">
+        <v>0.5395733406859282</v>
+      </c>
+      <c r="BJ4">
+        <v>0.3247236126058269</v>
+      </c>
+      <c r="BK4">
+        <v>0.285673681501924</v>
+      </c>
+      <c r="BL4">
+        <v>0.2527431838575954</v>
+      </c>
+      <c r="BM4">
+        <v>0.1343297322526827</v>
+      </c>
+      <c r="BN4">
+        <v>0.08985227839101582</v>
+      </c>
+      <c r="BO4">
+        <v>0.1255315499232921</v>
+      </c>
+      <c r="BP4">
+        <v>0.0591600517587867</v>
+      </c>
+      <c r="BQ4">
+        <v>0.2545063447177178</v>
+      </c>
+      <c r="BR4">
+        <v>0.1085062749292865</v>
+      </c>
+      <c r="BS4">
+        <v>0.1019304840544138</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:71">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,37 +1443,205 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.4905789713192609</v>
+        <v>0.5127405568372908</v>
       </c>
       <c r="G5">
-        <v>0.1842458812228449</v>
+        <v>-0.09363321887474035</v>
       </c>
       <c r="H5">
-        <v>0.5625075837515674</v>
+        <v>0.1778140379563707</v>
       </c>
       <c r="I5">
-        <v>0.5369553590929688</v>
+        <v>0.2475960495828612</v>
       </c>
       <c r="J5">
-        <v>0.5920746166403615</v>
+        <v>0.2506911048288375</v>
       </c>
       <c r="K5">
-        <v>0.4589516584726009</v>
+        <v>0.3598680829157913</v>
       </c>
       <c r="L5">
-        <v>0.7385477464069597</v>
+        <v>0.3614060833319861</v>
       </c>
       <c r="M5">
-        <v>0.8335209119435129</v>
+        <v>0.5672906134643466</v>
       </c>
       <c r="N5">
-        <v>0.7772745168631342</v>
+        <v>0.5644956197537881</v>
       </c>
       <c r="O5">
-        <v>0.7399393507570238</v>
+        <v>0.6842151097007626</v>
+      </c>
+      <c r="P5">
+        <v>0.7211966361693485</v>
+      </c>
+      <c r="Q5">
+        <v>0.3901795841238311</v>
+      </c>
+      <c r="R5">
+        <v>0.7479749676845351</v>
+      </c>
+      <c r="S5">
+        <v>0.8796852203382727</v>
+      </c>
+      <c r="T5">
+        <v>0.3498318834277453</v>
+      </c>
+      <c r="U5">
+        <v>-0.0196678321162582</v>
+      </c>
+      <c r="V5">
+        <v>0.1907114411519865</v>
+      </c>
+      <c r="W5">
+        <v>0.2289213069442091</v>
+      </c>
+      <c r="X5">
+        <v>0.2233758959711031</v>
+      </c>
+      <c r="Y5">
+        <v>0.3596022018055104</v>
+      </c>
+      <c r="Z5">
+        <v>0.2832175767569735</v>
+      </c>
+      <c r="AA5">
+        <v>0.4262432616280718</v>
+      </c>
+      <c r="AB5">
+        <v>0.4972147998281491</v>
+      </c>
+      <c r="AC5">
+        <v>0.5692136355009764</v>
+      </c>
+      <c r="AD5">
+        <v>0.5211374014630118</v>
+      </c>
+      <c r="AE5">
+        <v>0.1469956077076693</v>
+      </c>
+      <c r="AF5">
+        <v>0.5709264845974928</v>
+      </c>
+      <c r="AG5">
+        <v>0.6813151635654989</v>
+      </c>
+      <c r="AH5">
+        <v>0.19773378902572</v>
+      </c>
+      <c r="AI5">
+        <v>0.03692452016482732</v>
+      </c>
+      <c r="AJ5">
+        <v>0.2021400527863277</v>
+      </c>
+      <c r="AK5">
+        <v>0.1694079932315476</v>
+      </c>
+      <c r="AL5">
+        <v>0.2067475013990896</v>
+      </c>
+      <c r="AM5">
+        <v>0.3009457918995572</v>
+      </c>
+      <c r="AN5">
+        <v>0.1871753500779756</v>
+      </c>
+      <c r="AO5">
+        <v>0.28572506074298</v>
+      </c>
+      <c r="AP5">
+        <v>0.3582861096585916</v>
+      </c>
+      <c r="AQ5">
+        <v>0.4163229321778886</v>
+      </c>
+      <c r="AR5">
+        <v>0.3726967805211672</v>
+      </c>
+      <c r="AS5">
+        <v>0.0247875168605251</v>
+      </c>
+      <c r="AT5">
+        <v>0.4508085702524677</v>
+      </c>
+      <c r="AU5">
+        <v>0.586025790842653</v>
+      </c>
+      <c r="AV5">
+        <v>0.2397231089771862</v>
+      </c>
+      <c r="AW5">
+        <v>0.05317915613584286</v>
+      </c>
+      <c r="AX5">
+        <v>0.1800293633624631</v>
+      </c>
+      <c r="AY5">
+        <v>0.1540721782625188</v>
+      </c>
+      <c r="AZ5">
+        <v>0.1713541367642483</v>
+      </c>
+      <c r="BA5">
+        <v>0.2375765069496717</v>
+      </c>
+      <c r="BB5">
+        <v>0.1065047938610761</v>
+      </c>
+      <c r="BC5">
+        <v>0.2111996172890544</v>
+      </c>
+      <c r="BD5">
+        <v>0.255693334743359</v>
+      </c>
+      <c r="BE5">
+        <v>0.3275308167660263</v>
+      </c>
+      <c r="BF5">
+        <v>0.2740019269180169</v>
+      </c>
+      <c r="BG5">
+        <v>-0.0419516146794055</v>
+      </c>
+      <c r="BH5">
+        <v>0.3373364443771224</v>
+      </c>
+      <c r="BI5">
+        <v>0.5085137660755652</v>
+      </c>
+      <c r="BJ5">
+        <v>0.3422488761315125</v>
+      </c>
+      <c r="BK5">
+        <v>0.0682972527715527</v>
+      </c>
+      <c r="BL5">
+        <v>0.1591429741419241</v>
+      </c>
+      <c r="BM5">
+        <v>0.1149328566359434</v>
+      </c>
+      <c r="BN5">
+        <v>0.05238805775064164</v>
+      </c>
+      <c r="BO5">
+        <v>0.1034535938053919</v>
+      </c>
+      <c r="BP5">
+        <v>-0.005901017839017773</v>
+      </c>
+      <c r="BQ5">
+        <v>0.1315909657020138</v>
+      </c>
+      <c r="BR5">
+        <v>0.1338267605069575</v>
+      </c>
+      <c r="BS5">
+        <v>0.2197682826440834</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:71">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -641,34 +1649,202 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3276608030405265</v>
+        <v>0.2104732121928226</v>
       </c>
       <c r="H6">
-        <v>0.2910509185636553</v>
+        <v>0.2495314524581412</v>
       </c>
       <c r="I6">
-        <v>0.2892285605953796</v>
+        <v>0.1520746947493648</v>
       </c>
       <c r="J6">
-        <v>0.4332033174585224</v>
+        <v>0.1709062783609547</v>
       </c>
       <c r="K6">
-        <v>0.8662118599525868</v>
+        <v>0.1839055024516238</v>
       </c>
       <c r="L6">
-        <v>0.6314906101002717</v>
+        <v>0.1621080799779454</v>
       </c>
       <c r="M6">
-        <v>0.5853152056223617</v>
+        <v>0.3280999404743793</v>
       </c>
       <c r="N6">
-        <v>0.6986836639521413</v>
+        <v>0.2605983061694523</v>
       </c>
       <c r="O6">
-        <v>0.6994791651749129</v>
+        <v>0.4265034175975209</v>
+      </c>
+      <c r="P6">
+        <v>0.4372752449264943</v>
+      </c>
+      <c r="Q6">
+        <v>0.240068083472801</v>
+      </c>
+      <c r="R6">
+        <v>0.4219466719214639</v>
+      </c>
+      <c r="S6">
+        <v>0.5005302683718437</v>
+      </c>
+      <c r="T6">
+        <v>0.5539001184731444</v>
+      </c>
+      <c r="U6">
+        <v>0.1652491912087743</v>
+      </c>
+      <c r="V6">
+        <v>0.1581888862085498</v>
+      </c>
+      <c r="W6">
+        <v>0.05060829213383596</v>
+      </c>
+      <c r="X6">
+        <v>0.02615209842054504</v>
+      </c>
+      <c r="Y6">
+        <v>0.118438068473773</v>
+      </c>
+      <c r="Z6">
+        <v>0.1254794842718085</v>
+      </c>
+      <c r="AA6">
+        <v>0.2295133288281042</v>
+      </c>
+      <c r="AB6">
+        <v>0.2220217872719107</v>
+      </c>
+      <c r="AC6">
+        <v>0.3410456725131845</v>
+      </c>
+      <c r="AD6">
+        <v>0.4184200089016146</v>
+      </c>
+      <c r="AE6">
+        <v>0.1197846787196335</v>
+      </c>
+      <c r="AF6">
+        <v>0.359693962982033</v>
+      </c>
+      <c r="AG6">
+        <v>0.5049386793340974</v>
+      </c>
+      <c r="AH6">
+        <v>0.05204092917198805</v>
+      </c>
+      <c r="AI6">
+        <v>-0.07408437180107273</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.07234112551618152</v>
+      </c>
+      <c r="AK6">
+        <v>-0.1640504012769138</v>
+      </c>
+      <c r="AL6">
+        <v>-0.1088907549651407</v>
+      </c>
+      <c r="AM6">
+        <v>0.0097729833749781</v>
+      </c>
+      <c r="AN6">
+        <v>-0.01009865070983973</v>
+      </c>
+      <c r="AO6">
+        <v>0.02250367412848428</v>
+      </c>
+      <c r="AP6">
+        <v>0.1292162342648667</v>
+      </c>
+      <c r="AQ6">
+        <v>0.209388160238441</v>
+      </c>
+      <c r="AR6">
+        <v>0.4038535454837791</v>
+      </c>
+      <c r="AS6">
+        <v>0.2171470814927028</v>
+      </c>
+      <c r="AT6">
+        <v>0.3836231766459253</v>
+      </c>
+      <c r="AU6">
+        <v>0.5183546955226835</v>
+      </c>
+      <c r="AV6">
+        <v>0.2612958092887293</v>
+      </c>
+      <c r="AW6">
+        <v>-0.1174916295067793</v>
+      </c>
+      <c r="AX6">
+        <v>-0.1312612438655185</v>
+      </c>
+      <c r="AY6">
+        <v>-0.1501763613388384</v>
+      </c>
+      <c r="AZ6">
+        <v>-0.05280324589215181</v>
+      </c>
+      <c r="BA6">
+        <v>0.1161310935978277</v>
+      </c>
+      <c r="BB6">
+        <v>0.01275892802974114</v>
+      </c>
+      <c r="BC6">
+        <v>0.04914769188716387</v>
+      </c>
+      <c r="BD6">
+        <v>0.1892390775644852</v>
+      </c>
+      <c r="BE6">
+        <v>0.3289629035598571</v>
+      </c>
+      <c r="BF6">
+        <v>0.4371504499544054</v>
+      </c>
+      <c r="BG6">
+        <v>0.3498225330295988</v>
+      </c>
+      <c r="BH6">
+        <v>0.3720554161256254</v>
+      </c>
+      <c r="BI6">
+        <v>0.5021183943138408</v>
+      </c>
+      <c r="BJ6">
+        <v>0.5311915990714272</v>
+      </c>
+      <c r="BK6">
+        <v>0.09230870604158289</v>
+      </c>
+      <c r="BL6">
+        <v>0.0856306032876073</v>
+      </c>
+      <c r="BM6">
+        <v>0.08225278298624822</v>
+      </c>
+      <c r="BN6">
+        <v>0.116105617458882</v>
+      </c>
+      <c r="BO6">
+        <v>0.2230100265664435</v>
+      </c>
+      <c r="BP6">
+        <v>0.1533390627063489</v>
+      </c>
+      <c r="BQ6">
+        <v>0.2124366600594084</v>
+      </c>
+      <c r="BR6">
+        <v>0.2593682678979857</v>
+      </c>
+      <c r="BS6">
+        <v>0.444332260752638</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:71">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -676,31 +1852,199 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5544165556872049</v>
+        <v>0.5359237831081082</v>
       </c>
       <c r="I7">
-        <v>0.4061763123597242</v>
+        <v>0.2918591051159976</v>
       </c>
       <c r="J7">
-        <v>0.2295953642909399</v>
+        <v>0.1938209187442094</v>
       </c>
       <c r="K7">
-        <v>0.3620462351093615</v>
+        <v>0.1770914923183636</v>
       </c>
       <c r="L7">
-        <v>0.09058505012700065</v>
+        <v>0.2995103556418637</v>
       </c>
       <c r="M7">
-        <v>0.2922826328438206</v>
+        <v>0.3000711327784608</v>
       </c>
       <c r="N7">
-        <v>0.08820407294403472</v>
+        <v>-0.02171849603282103</v>
       </c>
       <c r="O7">
-        <v>0.2422734361113175</v>
+        <v>-0.1174317103580051</v>
+      </c>
+      <c r="P7">
+        <v>-0.09542030023432033</v>
+      </c>
+      <c r="Q7">
+        <v>0.1612843170241473</v>
+      </c>
+      <c r="R7">
+        <v>0.1845292903910387</v>
+      </c>
+      <c r="S7">
+        <v>-0.06112995633361218</v>
+      </c>
+      <c r="T7">
+        <v>0.01311195832119939</v>
+      </c>
+      <c r="U7">
+        <v>0.7966697293754373</v>
+      </c>
+      <c r="V7">
+        <v>0.4054169801646826</v>
+      </c>
+      <c r="W7">
+        <v>0.2431954344094796</v>
+      </c>
+      <c r="X7">
+        <v>0.1318270849800079</v>
+      </c>
+      <c r="Y7">
+        <v>0.1173098253097356</v>
+      </c>
+      <c r="Z7">
+        <v>0.2680706118240231</v>
+      </c>
+      <c r="AA7">
+        <v>0.3152692691075504</v>
+      </c>
+      <c r="AB7">
+        <v>-0.04177298327666044</v>
+      </c>
+      <c r="AC7">
+        <v>-0.1731707088926358</v>
+      </c>
+      <c r="AD7">
+        <v>-0.07502052846440742</v>
+      </c>
+      <c r="AE7">
+        <v>0.2110512379065738</v>
+      </c>
+      <c r="AF7">
+        <v>0.2903840613909611</v>
+      </c>
+      <c r="AG7">
+        <v>0.03186438515988094</v>
+      </c>
+      <c r="AH7">
+        <v>0.05748438942145567</v>
+      </c>
+      <c r="AI7">
+        <v>0.5511717815074973</v>
+      </c>
+      <c r="AJ7">
+        <v>0.1409051293018214</v>
+      </c>
+      <c r="AK7">
+        <v>0.1013680526204942</v>
+      </c>
+      <c r="AL7">
+        <v>0.006102093119687129</v>
+      </c>
+      <c r="AM7">
+        <v>0.05856427659230703</v>
+      </c>
+      <c r="AN7">
+        <v>0.1967630140241949</v>
+      </c>
+      <c r="AO7">
+        <v>0.2995376184837136</v>
+      </c>
+      <c r="AP7">
+        <v>-0.05039110110611549</v>
+      </c>
+      <c r="AQ7">
+        <v>-0.1033705223973365</v>
+      </c>
+      <c r="AR7">
+        <v>0.01580840010721778</v>
+      </c>
+      <c r="AS7">
+        <v>0.3148840430157992</v>
+      </c>
+      <c r="AT7">
+        <v>0.3629398807146959</v>
+      </c>
+      <c r="AU7">
+        <v>0.165724977856209</v>
+      </c>
+      <c r="AV7">
+        <v>0.2290017890805385</v>
+      </c>
+      <c r="AW7">
+        <v>0.5463097467544302</v>
+      </c>
+      <c r="AX7">
+        <v>0.08367251883662785</v>
+      </c>
+      <c r="AY7">
+        <v>0.08022239013822692</v>
+      </c>
+      <c r="AZ7">
+        <v>-0.04189729211666075</v>
+      </c>
+      <c r="BA7">
+        <v>0.06990237287666233</v>
+      </c>
+      <c r="BB7">
+        <v>0.1758807633792916</v>
+      </c>
+      <c r="BC7">
+        <v>0.3165587030569915</v>
+      </c>
+      <c r="BD7">
+        <v>-0.05978758701208598</v>
+      </c>
+      <c r="BE7">
+        <v>-0.01561512312517327</v>
+      </c>
+      <c r="BF7">
+        <v>0.07791280757194281</v>
+      </c>
+      <c r="BG7">
+        <v>0.3841911474310399</v>
+      </c>
+      <c r="BH7">
+        <v>0.3852909362382634</v>
+      </c>
+      <c r="BI7">
+        <v>0.216746070475654</v>
+      </c>
+      <c r="BJ7">
+        <v>0.1590425389441858</v>
+      </c>
+      <c r="BK7">
+        <v>0.5761612527733991</v>
+      </c>
+      <c r="BL7">
+        <v>0.1519974327978567</v>
+      </c>
+      <c r="BM7">
+        <v>0.1243207445602033</v>
+      </c>
+      <c r="BN7">
+        <v>-0.01826241540135688</v>
+      </c>
+      <c r="BO7">
+        <v>0.05064774073999692</v>
+      </c>
+      <c r="BP7">
+        <v>0.1999326539108846</v>
+      </c>
+      <c r="BQ7">
+        <v>0.3473505041340827</v>
+      </c>
+      <c r="BR7">
+        <v>-0.05576682868881127</v>
+      </c>
+      <c r="BS7">
+        <v>-0.07900435306622479</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:71">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -708,28 +2052,196 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.7730637251278651</v>
+        <v>0.6086883273469708</v>
       </c>
       <c r="J8">
-        <v>0.5371727862791819</v>
+        <v>0.5060107202516982</v>
       </c>
       <c r="K8">
-        <v>0.4376987983051611</v>
+        <v>0.3458159040278902</v>
       </c>
       <c r="L8">
-        <v>0.619317504039072</v>
+        <v>0.4134069669222358</v>
       </c>
       <c r="M8">
-        <v>0.8030085564624206</v>
+        <v>0.3649449394594406</v>
       </c>
       <c r="N8">
-        <v>0.5865855047353835</v>
+        <v>0.2523137499993275</v>
       </c>
       <c r="O8">
-        <v>0.7106522998761761</v>
+        <v>0.2257158179504071</v>
+      </c>
+      <c r="P8">
+        <v>0.1651459054804714</v>
+      </c>
+      <c r="Q8">
+        <v>0.115497330504066</v>
+      </c>
+      <c r="R8">
+        <v>0.3506131449330852</v>
+      </c>
+      <c r="S8">
+        <v>0.2161880515331438</v>
+      </c>
+      <c r="T8">
+        <v>0.04590810369865812</v>
+      </c>
+      <c r="U8">
+        <v>0.3506250679983119</v>
+      </c>
+      <c r="V8">
+        <v>0.5869463835123598</v>
+      </c>
+      <c r="W8">
+        <v>0.4713032834291835</v>
+      </c>
+      <c r="X8">
+        <v>0.4192542497593812</v>
+      </c>
+      <c r="Y8">
+        <v>0.3872398841331213</v>
+      </c>
+      <c r="Z8">
+        <v>0.4063157210506602</v>
+      </c>
+      <c r="AA8">
+        <v>0.3942479486278272</v>
+      </c>
+      <c r="AB8">
+        <v>0.3116489337161207</v>
+      </c>
+      <c r="AC8">
+        <v>0.2203973989600594</v>
+      </c>
+      <c r="AD8">
+        <v>0.1614406498969416</v>
+      </c>
+      <c r="AE8">
+        <v>0.1682298171869873</v>
+      </c>
+      <c r="AF8">
+        <v>0.343576950330165</v>
+      </c>
+      <c r="AG8">
+        <v>0.261133207562444</v>
+      </c>
+      <c r="AH8">
+        <v>0.05917007252895578</v>
+      </c>
+      <c r="AI8">
+        <v>0.1619301832702736</v>
+      </c>
+      <c r="AJ8">
+        <v>0.03290033033888803</v>
+      </c>
+      <c r="AK8">
+        <v>0.1225222054584559</v>
+      </c>
+      <c r="AL8">
+        <v>0.1066247772683953</v>
+      </c>
+      <c r="AM8">
+        <v>0.2466098119047663</v>
+      </c>
+      <c r="AN8">
+        <v>0.2538130526663748</v>
+      </c>
+      <c r="AO8">
+        <v>0.3016892717913431</v>
+      </c>
+      <c r="AP8">
+        <v>0.2846613327327654</v>
+      </c>
+      <c r="AQ8">
+        <v>0.1621062743832889</v>
+      </c>
+      <c r="AR8">
+        <v>0.08024464333056809</v>
+      </c>
+      <c r="AS8">
+        <v>0.1061948163387976</v>
+      </c>
+      <c r="AT8">
+        <v>0.2598069490513293</v>
+      </c>
+      <c r="AU8">
+        <v>0.2528844518265022</v>
+      </c>
+      <c r="AV8">
+        <v>0.2659930236895129</v>
+      </c>
+      <c r="AW8">
+        <v>0.2168939387859053</v>
+      </c>
+      <c r="AX8">
+        <v>-0.0676614269407876</v>
+      </c>
+      <c r="AY8">
+        <v>-0.03996212909579059</v>
+      </c>
+      <c r="AZ8">
+        <v>-0.04387788788004909</v>
+      </c>
+      <c r="BA8">
+        <v>0.07307271045173759</v>
+      </c>
+      <c r="BB8">
+        <v>0.07671308528886463</v>
+      </c>
+      <c r="BC8">
+        <v>0.1418837549038496</v>
+      </c>
+      <c r="BD8">
+        <v>0.1403265353960489</v>
+      </c>
+      <c r="BE8">
+        <v>0.04851055724760591</v>
+      </c>
+      <c r="BF8">
+        <v>-0.0519728055711776</v>
+      </c>
+      <c r="BG8">
+        <v>-0.01770206346542234</v>
+      </c>
+      <c r="BH8">
+        <v>0.173819306930892</v>
+      </c>
+      <c r="BI8">
+        <v>0.1318918975100299</v>
+      </c>
+      <c r="BJ8">
+        <v>0.3028930199589659</v>
+      </c>
+      <c r="BK8">
+        <v>0.2672386375396177</v>
+      </c>
+      <c r="BL8">
+        <v>-0.005831266814465039</v>
+      </c>
+      <c r="BM8">
+        <v>-0.08727474855719645</v>
+      </c>
+      <c r="BN8">
+        <v>-0.07661620763384069</v>
+      </c>
+      <c r="BO8">
+        <v>-0.08798861550465269</v>
+      </c>
+      <c r="BP8">
+        <v>-0.04344647589070582</v>
+      </c>
+      <c r="BQ8">
+        <v>0.01957002862951695</v>
+      </c>
+      <c r="BR8">
+        <v>-0.03898632988570284</v>
+      </c>
+      <c r="BS8">
+        <v>-0.09047896075517334</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:71">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -737,25 +2249,193 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8144799011215121</v>
+        <v>0.8455793640188005</v>
       </c>
       <c r="K9">
-        <v>0.3966730703975568</v>
+        <v>0.5616981127297758</v>
       </c>
       <c r="L9">
-        <v>0.4750134174613725</v>
+        <v>0.4505088919339158</v>
       </c>
       <c r="M9">
-        <v>0.6048543539252832</v>
+        <v>0.4278805304546197</v>
       </c>
       <c r="N9">
-        <v>0.463822734138129</v>
+        <v>0.3481828911995132</v>
       </c>
       <c r="O9">
-        <v>0.4339466946315914</v>
+        <v>0.3082901024609013</v>
+      </c>
+      <c r="P9">
+        <v>0.1123086244865952</v>
+      </c>
+      <c r="Q9">
+        <v>0.02262633492876084</v>
+      </c>
+      <c r="R9">
+        <v>0.1867897722355831</v>
+      </c>
+      <c r="S9">
+        <v>0.1676592500629348</v>
+      </c>
+      <c r="T9">
+        <v>-0.09705931825375212</v>
+      </c>
+      <c r="U9">
+        <v>0.1946328299799575</v>
+      </c>
+      <c r="V9">
+        <v>0.3526248905384967</v>
+      </c>
+      <c r="W9">
+        <v>0.6698937487803046</v>
+      </c>
+      <c r="X9">
+        <v>0.3772314991017066</v>
+      </c>
+      <c r="Y9">
+        <v>0.3824234340549245</v>
+      </c>
+      <c r="Z9">
+        <v>0.2269720470520724</v>
+      </c>
+      <c r="AA9">
+        <v>0.2437295678317433</v>
+      </c>
+      <c r="AB9">
+        <v>0.1935038534007847</v>
+      </c>
+      <c r="AC9">
+        <v>0.1436416668084396</v>
+      </c>
+      <c r="AD9">
+        <v>-0.07226017684737325</v>
+      </c>
+      <c r="AE9">
+        <v>-0.1277019925204898</v>
+      </c>
+      <c r="AF9">
+        <v>0.1140722829998859</v>
+      </c>
+      <c r="AG9">
+        <v>0.1039767890192577</v>
+      </c>
+      <c r="AH9">
+        <v>-0.1363008408864899</v>
+      </c>
+      <c r="AI9">
+        <v>0.05918521890150754</v>
+      </c>
+      <c r="AJ9">
+        <v>-0.003651052801459894</v>
+      </c>
+      <c r="AK9">
+        <v>0.1365878449398012</v>
+      </c>
+      <c r="AL9">
+        <v>-0.01551201163422501</v>
+      </c>
+      <c r="AM9">
+        <v>0.06788233774528735</v>
+      </c>
+      <c r="AN9">
+        <v>-0.02679805544922418</v>
+      </c>
+      <c r="AO9">
+        <v>0.03457475880420296</v>
+      </c>
+      <c r="AP9">
+        <v>0.01924018851979317</v>
+      </c>
+      <c r="AQ9">
+        <v>-0.05695537592186434</v>
+      </c>
+      <c r="AR9">
+        <v>-0.1262973616602129</v>
+      </c>
+      <c r="AS9">
+        <v>-0.1563243776459795</v>
+      </c>
+      <c r="AT9">
+        <v>0.1267552087458216</v>
+      </c>
+      <c r="AU9">
+        <v>0.1237058836392639</v>
+      </c>
+      <c r="AV9">
+        <v>0.1279067942292851</v>
+      </c>
+      <c r="AW9">
+        <v>0.07712040510787675</v>
+      </c>
+      <c r="AX9">
+        <v>-0.1415631579062142</v>
+      </c>
+      <c r="AY9">
+        <v>-0.04335907532569783</v>
+      </c>
+      <c r="AZ9">
+        <v>-0.08947298678461044</v>
+      </c>
+      <c r="BA9">
+        <v>-0.1196630420206922</v>
+      </c>
+      <c r="BB9">
+        <v>-0.1667770367012464</v>
+      </c>
+      <c r="BC9">
+        <v>-0.008465860032607866</v>
+      </c>
+      <c r="BD9">
+        <v>-0.1066457289891768</v>
+      </c>
+      <c r="BE9">
+        <v>-0.1499110908138623</v>
+      </c>
+      <c r="BF9">
+        <v>-0.1409058681825853</v>
+      </c>
+      <c r="BG9">
+        <v>-0.1408148603757969</v>
+      </c>
+      <c r="BH9">
+        <v>0.1641784897611351</v>
+      </c>
+      <c r="BI9">
+        <v>0.1253101163313143</v>
+      </c>
+      <c r="BJ9">
+        <v>0.2909186440622732</v>
+      </c>
+      <c r="BK9">
+        <v>0.1061815597454009</v>
+      </c>
+      <c r="BL9">
+        <v>-0.1065100098482559</v>
+      </c>
+      <c r="BM9">
+        <v>-0.1542405026934347</v>
+      </c>
+      <c r="BN9">
+        <v>-0.2712154439352073</v>
+      </c>
+      <c r="BO9">
+        <v>-0.2779356545008308</v>
+      </c>
+      <c r="BP9">
+        <v>-0.2145973388640529</v>
+      </c>
+      <c r="BQ9">
+        <v>0.007476805526540259</v>
+      </c>
+      <c r="BR9">
+        <v>-0.1997506809105195</v>
+      </c>
+      <c r="BS9">
+        <v>-0.164412728875427</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:71">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -763,22 +2443,190 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.5120557166007474</v>
+        <v>0.6912692865754779</v>
       </c>
       <c r="L10">
-        <v>0.4707169534276425</v>
+        <v>0.5895410254620919</v>
       </c>
       <c r="M10">
-        <v>0.5583744917618887</v>
+        <v>0.4516946726278654</v>
       </c>
       <c r="N10">
-        <v>0.4769256242439606</v>
+        <v>0.5043676467918171</v>
       </c>
       <c r="O10">
-        <v>0.3993745233782324</v>
+        <v>0.3993129877891954</v>
+      </c>
+      <c r="P10">
+        <v>0.2658619910506618</v>
+      </c>
+      <c r="Q10">
+        <v>0.2024462394067805</v>
+      </c>
+      <c r="R10">
+        <v>0.15471301611948</v>
+      </c>
+      <c r="S10">
+        <v>0.1774508665233693</v>
+      </c>
+      <c r="T10">
+        <v>-0.02901760000127977</v>
+      </c>
+      <c r="U10">
+        <v>0.160602137707498</v>
+      </c>
+      <c r="V10">
+        <v>0.2811751386261012</v>
+      </c>
+      <c r="W10">
+        <v>0.6954825547595487</v>
+      </c>
+      <c r="X10">
+        <v>0.545180538697648</v>
+      </c>
+      <c r="Y10">
+        <v>0.6300711131652147</v>
+      </c>
+      <c r="Z10">
+        <v>0.3778992774549469</v>
+      </c>
+      <c r="AA10">
+        <v>0.2814073203879744</v>
+      </c>
+      <c r="AB10">
+        <v>0.3880665344669171</v>
+      </c>
+      <c r="AC10">
+        <v>0.3108240560926216</v>
+      </c>
+      <c r="AD10">
+        <v>0.01494294702986454</v>
+      </c>
+      <c r="AE10">
+        <v>-0.05653164942995469</v>
+      </c>
+      <c r="AF10">
+        <v>0.002886455047135961</v>
+      </c>
+      <c r="AG10">
+        <v>0.02772889646721957</v>
+      </c>
+      <c r="AH10">
+        <v>-0.1852904040637718</v>
+      </c>
+      <c r="AI10">
+        <v>0.090678075931009</v>
+      </c>
+      <c r="AJ10">
+        <v>0.04773507549234066</v>
+      </c>
+      <c r="AK10">
+        <v>0.1662716561680223</v>
+      </c>
+      <c r="AL10">
+        <v>-0.01774139322790208</v>
+      </c>
+      <c r="AM10">
+        <v>0.21447339574152</v>
+      </c>
+      <c r="AN10">
+        <v>0.05076834343414194</v>
+      </c>
+      <c r="AO10">
+        <v>-0.01612303760927782</v>
+      </c>
+      <c r="AP10">
+        <v>0.1575809600265538</v>
+      </c>
+      <c r="AQ10">
+        <v>0.0352066991436028</v>
+      </c>
+      <c r="AR10">
+        <v>-0.1428948417875215</v>
+      </c>
+      <c r="AS10">
+        <v>-0.2324262270307829</v>
+      </c>
+      <c r="AT10">
+        <v>-0.05401895181622478</v>
+      </c>
+      <c r="AU10">
+        <v>-0.04760983332766695</v>
+      </c>
+      <c r="AV10">
+        <v>-0.0110585700710416</v>
+      </c>
+      <c r="AW10">
+        <v>0.1101963950037921</v>
+      </c>
+      <c r="AX10">
+        <v>-0.07011158415937163</v>
+      </c>
+      <c r="AY10">
+        <v>-0.01514987916920725</v>
+      </c>
+      <c r="AZ10">
+        <v>-0.01472070823312793</v>
+      </c>
+      <c r="BA10">
+        <v>-0.07643290181800047</v>
+      </c>
+      <c r="BB10">
+        <v>-0.1462837930797847</v>
+      </c>
+      <c r="BC10">
+        <v>-0.1166070205137644</v>
+      </c>
+      <c r="BD10">
+        <v>-0.0454391898877105</v>
+      </c>
+      <c r="BE10">
+        <v>-0.1831501429696912</v>
+      </c>
+      <c r="BF10">
+        <v>-0.1550962082536106</v>
+      </c>
+      <c r="BG10">
+        <v>-0.1616242744397635</v>
+      </c>
+      <c r="BH10">
+        <v>0.005854418751185121</v>
+      </c>
+      <c r="BI10">
+        <v>-0.02105010496509261</v>
+      </c>
+      <c r="BJ10">
+        <v>0.2246736469295749</v>
+      </c>
+      <c r="BK10">
+        <v>0.09814097831361532</v>
+      </c>
+      <c r="BL10">
+        <v>-0.1302259267810054</v>
+      </c>
+      <c r="BM10">
+        <v>-0.03768941136485337</v>
+      </c>
+      <c r="BN10">
+        <v>-0.1061851878753658</v>
+      </c>
+      <c r="BO10">
+        <v>-0.220344678343626</v>
+      </c>
+      <c r="BP10">
+        <v>-0.2286658889568658</v>
+      </c>
+      <c r="BQ10">
+        <v>-0.0655621827929864</v>
+      </c>
+      <c r="BR10">
+        <v>-0.1924694670327507</v>
+      </c>
+      <c r="BS10">
+        <v>-0.2142839214844892</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:71">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -786,19 +2634,187 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6308401933519846</v>
+        <v>0.8377802074550542</v>
       </c>
       <c r="M11">
-        <v>0.6843472090059467</v>
+        <v>0.6477095595290699</v>
       </c>
       <c r="N11">
-        <v>0.5890370020511676</v>
+        <v>0.8110051411867327</v>
       </c>
       <c r="O11">
-        <v>0.7509485662255411</v>
+        <v>0.7158566747197657</v>
+      </c>
+      <c r="P11">
+        <v>0.4489288999476727</v>
+      </c>
+      <c r="Q11">
+        <v>0.3711005171612615</v>
+      </c>
+      <c r="R11">
+        <v>0.2632529637059421</v>
+      </c>
+      <c r="S11">
+        <v>0.2344576844536693</v>
+      </c>
+      <c r="T11">
+        <v>-0.1137449029052714</v>
+      </c>
+      <c r="U11">
+        <v>0.259235033495947</v>
+      </c>
+      <c r="V11">
+        <v>0.2207722699722122</v>
+      </c>
+      <c r="W11">
+        <v>0.4525460999211236</v>
+      </c>
+      <c r="X11">
+        <v>0.3968228300347831</v>
+      </c>
+      <c r="Y11">
+        <v>0.7040618088778944</v>
+      </c>
+      <c r="Z11">
+        <v>0.5437613430908929</v>
+      </c>
+      <c r="AA11">
+        <v>0.4163327523452533</v>
+      </c>
+      <c r="AB11">
+        <v>0.6196819971516058</v>
+      </c>
+      <c r="AC11">
+        <v>0.4277687769533938</v>
+      </c>
+      <c r="AD11">
+        <v>0.1069842525498384</v>
+      </c>
+      <c r="AE11">
+        <v>-0.05918502058756949</v>
+      </c>
+      <c r="AF11">
+        <v>0.07246471590666732</v>
+      </c>
+      <c r="AG11">
+        <v>0.04823312707298351</v>
+      </c>
+      <c r="AH11">
+        <v>-0.2419775373115009</v>
+      </c>
+      <c r="AI11">
+        <v>0.2990753834849496</v>
+      </c>
+      <c r="AJ11">
+        <v>0.1138215525879015</v>
+      </c>
+      <c r="AK11">
+        <v>0.2465915908149501</v>
+      </c>
+      <c r="AL11">
+        <v>0.1757548818561835</v>
+      </c>
+      <c r="AM11">
+        <v>0.1965690765111938</v>
+      </c>
+      <c r="AN11">
+        <v>0.1192780329736375</v>
+      </c>
+      <c r="AO11">
+        <v>0.08803022469458799</v>
+      </c>
+      <c r="AP11">
+        <v>0.2013555810068909</v>
+      </c>
+      <c r="AQ11">
+        <v>-0.01947722495249087</v>
+      </c>
+      <c r="AR11">
+        <v>-0.1715164983725399</v>
+      </c>
+      <c r="AS11">
+        <v>-0.2383816006188876</v>
+      </c>
+      <c r="AT11">
+        <v>-0.03775437717113844</v>
+      </c>
+      <c r="AU11">
+        <v>-0.09365923317630474</v>
+      </c>
+      <c r="AV11">
+        <v>0.02411766447008042</v>
+      </c>
+      <c r="AW11">
+        <v>0.3125573214345947</v>
+      </c>
+      <c r="AX11">
+        <v>0.06656179873708788</v>
+      </c>
+      <c r="AY11">
+        <v>0.1456798060560511</v>
+      </c>
+      <c r="AZ11">
+        <v>0.08042200252544324</v>
+      </c>
+      <c r="BA11">
+        <v>-0.07581326094701929</v>
+      </c>
+      <c r="BB11">
+        <v>-0.156395640111864</v>
+      </c>
+      <c r="BC11">
+        <v>-0.07276131509413761</v>
+      </c>
+      <c r="BD11">
+        <v>-0.1338361876343443</v>
+      </c>
+      <c r="BE11">
+        <v>-0.2668296364470167</v>
+      </c>
+      <c r="BF11">
+        <v>-0.3069135719917975</v>
+      </c>
+      <c r="BG11">
+        <v>-0.2033673384968283</v>
+      </c>
+      <c r="BH11">
+        <v>-0.08299038312434305</v>
+      </c>
+      <c r="BI11">
+        <v>-0.1525477204785323</v>
+      </c>
+      <c r="BJ11">
+        <v>0.2711721346322105</v>
+      </c>
+      <c r="BK11">
+        <v>0.3008001870835635</v>
+      </c>
+      <c r="BL11">
+        <v>0.07102482492525945</v>
+      </c>
+      <c r="BM11">
+        <v>0.02843239483540279</v>
+      </c>
+      <c r="BN11">
+        <v>-0.1508311483613667</v>
+      </c>
+      <c r="BO11">
+        <v>-0.2528383579280488</v>
+      </c>
+      <c r="BP11">
+        <v>-0.3167798914613533</v>
+      </c>
+      <c r="BQ11">
+        <v>-0.1475348843522102</v>
+      </c>
+      <c r="BR11">
+        <v>-0.3537393212241484</v>
+      </c>
+      <c r="BS11">
+        <v>-0.3434774971508028</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:71">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -806,16 +2822,184 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9010450855058726</v>
+        <v>0.8493552455369616</v>
       </c>
       <c r="N12">
-        <v>0.9361795573349319</v>
+        <v>0.8432964978795747</v>
       </c>
       <c r="O12">
-        <v>0.8734633634869275</v>
+        <v>0.6534348641275048</v>
+      </c>
+      <c r="P12">
+        <v>0.4899954872512511</v>
+      </c>
+      <c r="Q12">
+        <v>0.5066445836311823</v>
+      </c>
+      <c r="R12">
+        <v>0.4361945588110585</v>
+      </c>
+      <c r="S12">
+        <v>0.3235940455431957</v>
+      </c>
+      <c r="T12">
+        <v>-0.08492797921831557</v>
+      </c>
+      <c r="U12">
+        <v>0.3570197426933421</v>
+      </c>
+      <c r="V12">
+        <v>0.3375487693443749</v>
+      </c>
+      <c r="W12">
+        <v>0.4858035611140881</v>
+      </c>
+      <c r="X12">
+        <v>0.498581327512703</v>
+      </c>
+      <c r="Y12">
+        <v>0.7516049667121355</v>
+      </c>
+      <c r="Z12">
+        <v>0.778760923480042</v>
+      </c>
+      <c r="AA12">
+        <v>0.6307368188667933</v>
+      </c>
+      <c r="AB12">
+        <v>0.7142948515757737</v>
+      </c>
+      <c r="AC12">
+        <v>0.4572915960740804</v>
+      </c>
+      <c r="AD12">
+        <v>0.1903648748251991</v>
+      </c>
+      <c r="AE12">
+        <v>0.1293214780220856</v>
+      </c>
+      <c r="AF12">
+        <v>0.2605357299712822</v>
+      </c>
+      <c r="AG12">
+        <v>0.1521128810579512</v>
+      </c>
+      <c r="AH12">
+        <v>-0.2022197818624298</v>
+      </c>
+      <c r="AI12">
+        <v>0.4025802905170896</v>
+      </c>
+      <c r="AJ12">
+        <v>0.2305950921053297</v>
+      </c>
+      <c r="AK12">
+        <v>0.3158007314200131</v>
+      </c>
+      <c r="AL12">
+        <v>0.2629667064332329</v>
+      </c>
+      <c r="AM12">
+        <v>0.4225537465806634</v>
+      </c>
+      <c r="AN12">
+        <v>0.3644941226882815</v>
+      </c>
+      <c r="AO12">
+        <v>0.3053331409586449</v>
+      </c>
+      <c r="AP12">
+        <v>0.3491345844666185</v>
+      </c>
+      <c r="AQ12">
+        <v>0.08670548922704446</v>
+      </c>
+      <c r="AR12">
+        <v>-0.07335505742344237</v>
+      </c>
+      <c r="AS12">
+        <v>-0.09330868249636685</v>
+      </c>
+      <c r="AT12">
+        <v>0.1358078279242391</v>
+      </c>
+      <c r="AU12">
+        <v>-0.003532595701509638</v>
+      </c>
+      <c r="AV12">
+        <v>-0.02538804793293391</v>
+      </c>
+      <c r="AW12">
+        <v>0.4699651740777088</v>
+      </c>
+      <c r="AX12">
+        <v>0.1935262955375875</v>
+      </c>
+      <c r="AY12">
+        <v>0.2241090384899718</v>
+      </c>
+      <c r="AZ12">
+        <v>0.1697372305309649</v>
+      </c>
+      <c r="BA12">
+        <v>0.1509017558130106</v>
+      </c>
+      <c r="BB12">
+        <v>0.07310160215225396</v>
+      </c>
+      <c r="BC12">
+        <v>0.1444036671986886</v>
+      </c>
+      <c r="BD12">
+        <v>0.04095850631999072</v>
+      </c>
+      <c r="BE12">
+        <v>-0.190283927247505</v>
+      </c>
+      <c r="BF12">
+        <v>-0.2288840801732799</v>
+      </c>
+      <c r="BG12">
+        <v>-0.1176069748680374</v>
+      </c>
+      <c r="BH12">
+        <v>0.08628509832496357</v>
+      </c>
+      <c r="BI12">
+        <v>-0.07017410807108837</v>
+      </c>
+      <c r="BJ12">
+        <v>0.2086022614290455</v>
+      </c>
+      <c r="BK12">
+        <v>0.4995334614272252</v>
+      </c>
+      <c r="BL12">
+        <v>0.2058257841709573</v>
+      </c>
+      <c r="BM12">
+        <v>0.2138637252127662</v>
+      </c>
+      <c r="BN12">
+        <v>0.07065123943379761</v>
+      </c>
+      <c r="BO12">
+        <v>-0.06494328897563852</v>
+      </c>
+      <c r="BP12">
+        <v>-0.1125942657048746</v>
+      </c>
+      <c r="BQ12">
+        <v>0.07965739835102895</v>
+      </c>
+      <c r="BR12">
+        <v>-0.194767458799459</v>
+      </c>
+      <c r="BS12">
+        <v>-0.3373036581261908</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:71">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -823,13 +3007,181 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.8650594688732988</v>
+        <v>0.7230924468209206</v>
       </c>
       <c r="O13">
-        <v>0.9389141571724675</v>
+        <v>0.6490730432095466</v>
+      </c>
+      <c r="P13">
+        <v>0.5575963351689726</v>
+      </c>
+      <c r="Q13">
+        <v>0.5349128066754423</v>
+      </c>
+      <c r="R13">
+        <v>0.6784371943490934</v>
+      </c>
+      <c r="S13">
+        <v>0.5626355884888529</v>
+      </c>
+      <c r="T13">
+        <v>0.07512832703330667</v>
+      </c>
+      <c r="U13">
+        <v>0.3210820446287148</v>
+      </c>
+      <c r="V13">
+        <v>0.3272715415174383</v>
+      </c>
+      <c r="W13">
+        <v>0.4043627703961917</v>
+      </c>
+      <c r="X13">
+        <v>0.3659927158033644</v>
+      </c>
+      <c r="Y13">
+        <v>0.5754716473962775</v>
+      </c>
+      <c r="Z13">
+        <v>0.6968433565982587</v>
+      </c>
+      <c r="AA13">
+        <v>0.7522847053734217</v>
+      </c>
+      <c r="AB13">
+        <v>0.6133525302075212</v>
+      </c>
+      <c r="AC13">
+        <v>0.4663130089036705</v>
+      </c>
+      <c r="AD13">
+        <v>0.26848795795124</v>
+      </c>
+      <c r="AE13">
+        <v>0.1954452695890244</v>
+      </c>
+      <c r="AF13">
+        <v>0.4861819423372112</v>
+      </c>
+      <c r="AG13">
+        <v>0.4164254257139081</v>
+      </c>
+      <c r="AH13">
+        <v>-0.04939543337363349</v>
+      </c>
+      <c r="AI13">
+        <v>0.3641630816223549</v>
+      </c>
+      <c r="AJ13">
+        <v>0.2555277520486365</v>
+      </c>
+      <c r="AK13">
+        <v>0.2308511001631422</v>
+      </c>
+      <c r="AL13">
+        <v>0.2205215899995818</v>
+      </c>
+      <c r="AM13">
+        <v>0.3602688956379309</v>
+      </c>
+      <c r="AN13">
+        <v>0.360948052685078</v>
+      </c>
+      <c r="AO13">
+        <v>0.3806937929918481</v>
+      </c>
+      <c r="AP13">
+        <v>0.3134910384851811</v>
+      </c>
+      <c r="AQ13">
+        <v>0.1475630010794189</v>
+      </c>
+      <c r="AR13">
+        <v>0.05483739728217532</v>
+      </c>
+      <c r="AS13">
+        <v>-0.002967089314656655</v>
+      </c>
+      <c r="AT13">
+        <v>0.348772030046419</v>
+      </c>
+      <c r="AU13">
+        <v>0.2738946774226341</v>
+      </c>
+      <c r="AV13">
+        <v>0.05397712227177784</v>
+      </c>
+      <c r="AW13">
+        <v>0.4673034894979824</v>
+      </c>
+      <c r="AX13">
+        <v>0.2533667970719738</v>
+      </c>
+      <c r="AY13">
+        <v>0.1791981281100106</v>
+      </c>
+      <c r="AZ13">
+        <v>0.1624994416223838</v>
+      </c>
+      <c r="BA13">
+        <v>0.1976702151081936</v>
+      </c>
+      <c r="BB13">
+        <v>0.1352133378232521</v>
+      </c>
+      <c r="BC13">
+        <v>0.2534073610126376</v>
+      </c>
+      <c r="BD13">
+        <v>0.09808585263868458</v>
+      </c>
+      <c r="BE13">
+        <v>-0.06811845410000503</v>
+      </c>
+      <c r="BF13">
+        <v>-0.04729778991898562</v>
+      </c>
+      <c r="BG13">
+        <v>-0.04649644901747139</v>
+      </c>
+      <c r="BH13">
+        <v>0.3000821394714498</v>
+      </c>
+      <c r="BI13">
+        <v>0.188651209812226</v>
+      </c>
+      <c r="BJ13">
+        <v>0.1934822911667492</v>
+      </c>
+      <c r="BK13">
+        <v>0.5246222153331903</v>
+      </c>
+      <c r="BL13">
+        <v>0.3440143365433445</v>
+      </c>
+      <c r="BM13">
+        <v>0.2037132721732191</v>
+      </c>
+      <c r="BN13">
+        <v>0.07291922936363049</v>
+      </c>
+      <c r="BO13">
+        <v>0.02822539296573846</v>
+      </c>
+      <c r="BP13">
+        <v>0.01401309863718787</v>
+      </c>
+      <c r="BQ13">
+        <v>0.2552126583642419</v>
+      </c>
+      <c r="BR13">
+        <v>-0.04726706457324829</v>
+      </c>
+      <c r="BS13">
+        <v>-0.1877073249803694</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:71">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -837,14 +3189,5418 @@
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.8815625817201412</v>
+        <v>0.8438040199282292</v>
+      </c>
+      <c r="P14">
+        <v>0.6484385187726597</v>
+      </c>
+      <c r="Q14">
+        <v>0.4293099163840943</v>
+      </c>
+      <c r="R14">
+        <v>0.4654920804240246</v>
+      </c>
+      <c r="S14">
+        <v>0.4683522665011263</v>
+      </c>
+      <c r="T14">
+        <v>0.03427535310271772</v>
+      </c>
+      <c r="U14">
+        <v>0.0768664019931995</v>
+      </c>
+      <c r="V14">
+        <v>0.2130971777338815</v>
+      </c>
+      <c r="W14">
+        <v>0.3673994023583501</v>
+      </c>
+      <c r="X14">
+        <v>0.4226820073206565</v>
+      </c>
+      <c r="Y14">
+        <v>0.630840269347854</v>
+      </c>
+      <c r="Z14">
+        <v>0.5844818981895075</v>
+      </c>
+      <c r="AA14">
+        <v>0.4689731669404747</v>
+      </c>
+      <c r="AB14">
+        <v>0.7754630739827566</v>
+      </c>
+      <c r="AC14">
+        <v>0.5751400321539939</v>
+      </c>
+      <c r="AD14">
+        <v>0.3002229869550805</v>
+      </c>
+      <c r="AE14">
+        <v>0.02174441691956682</v>
+      </c>
+      <c r="AF14">
+        <v>0.2301300874793966</v>
+      </c>
+      <c r="AG14">
+        <v>0.2743455042455252</v>
+      </c>
+      <c r="AH14">
+        <v>-0.07707254570515225</v>
+      </c>
+      <c r="AI14">
+        <v>0.1254277167799998</v>
+      </c>
+      <c r="AJ14">
+        <v>0.1524375520561945</v>
+      </c>
+      <c r="AK14">
+        <v>0.2502028022061384</v>
+      </c>
+      <c r="AL14">
+        <v>0.2608979393940289</v>
+      </c>
+      <c r="AM14">
+        <v>0.3157093240027909</v>
+      </c>
+      <c r="AN14">
+        <v>0.1894522915590804</v>
+      </c>
+      <c r="AO14">
+        <v>0.1129542533409803</v>
+      </c>
+      <c r="AP14">
+        <v>0.3519340423013673</v>
+      </c>
+      <c r="AQ14">
+        <v>0.1882100136241741</v>
+      </c>
+      <c r="AR14">
+        <v>0.01190795813295305</v>
+      </c>
+      <c r="AS14">
+        <v>-0.1758374069394685</v>
+      </c>
+      <c r="AT14">
+        <v>0.05062472354188451</v>
+      </c>
+      <c r="AU14">
+        <v>0.1059687220642319</v>
+      </c>
+      <c r="AV14">
+        <v>0.1058804074207548</v>
+      </c>
+      <c r="AW14">
+        <v>0.1670371196385963</v>
+      </c>
+      <c r="AX14">
+        <v>0.09155743144473717</v>
+      </c>
+      <c r="AY14">
+        <v>0.1683727440181791</v>
+      </c>
+      <c r="AZ14">
+        <v>0.1533202663374885</v>
+      </c>
+      <c r="BA14">
+        <v>0.09141823954725309</v>
+      </c>
+      <c r="BB14">
+        <v>-0.09581372046496976</v>
+      </c>
+      <c r="BC14">
+        <v>-0.08333636075659914</v>
+      </c>
+      <c r="BD14">
+        <v>0.03753479641811384</v>
+      </c>
+      <c r="BE14">
+        <v>-0.06696357185279012</v>
+      </c>
+      <c r="BF14">
+        <v>-0.1481263139280681</v>
+      </c>
+      <c r="BG14">
+        <v>-0.2085913377884098</v>
+      </c>
+      <c r="BH14">
+        <v>-0.0508195219269085</v>
+      </c>
+      <c r="BI14">
+        <v>0.02079917563359184</v>
+      </c>
+      <c r="BJ14">
+        <v>0.3186328849354645</v>
+      </c>
+      <c r="BK14">
+        <v>0.1859309030387977</v>
+      </c>
+      <c r="BL14">
+        <v>0.06262009997445646</v>
+      </c>
+      <c r="BM14">
+        <v>0.1169729351897352</v>
+      </c>
+      <c r="BN14">
+        <v>0.006999390810558564</v>
+      </c>
+      <c r="BO14">
+        <v>-0.1168041927006519</v>
+      </c>
+      <c r="BP14">
+        <v>-0.2960197181160548</v>
+      </c>
+      <c r="BQ14">
+        <v>-0.1761267380556387</v>
+      </c>
+      <c r="BR14">
+        <v>-0.2049459346939349</v>
+      </c>
+      <c r="BS14">
+        <v>-0.2238425939117492</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:71">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0.7829721906461614</v>
+      </c>
+      <c r="Q15">
+        <v>0.5103990972549347</v>
+      </c>
+      <c r="R15">
+        <v>0.5111424162695479</v>
+      </c>
+      <c r="S15">
+        <v>0.609779583175861</v>
+      </c>
+      <c r="T15">
+        <v>0.1317408312199192</v>
+      </c>
+      <c r="U15">
+        <v>-0.008246445840650995</v>
+      </c>
+      <c r="V15">
+        <v>0.1907611028898464</v>
+      </c>
+      <c r="W15">
+        <v>0.3076628787708303</v>
+      </c>
+      <c r="X15">
+        <v>0.3476314043010045</v>
+      </c>
+      <c r="Y15">
+        <v>0.5789939783506038</v>
+      </c>
+      <c r="Z15">
+        <v>0.4939847211900572</v>
+      </c>
+      <c r="AA15">
+        <v>0.4444706209373349</v>
+      </c>
+      <c r="AB15">
+        <v>0.7268560024657041</v>
+      </c>
+      <c r="AC15">
+        <v>0.7170749145080444</v>
+      </c>
+      <c r="AD15">
+        <v>0.4798704164168826</v>
+      </c>
+      <c r="AE15">
+        <v>0.1129974880993887</v>
+      </c>
+      <c r="AF15">
+        <v>0.2717538063658568</v>
+      </c>
+      <c r="AG15">
+        <v>0.4242213667490257</v>
+      </c>
+      <c r="AH15">
+        <v>-0.03788173636634369</v>
+      </c>
+      <c r="AI15">
+        <v>0.04884999731834203</v>
+      </c>
+      <c r="AJ15">
+        <v>0.1345001003243104</v>
+      </c>
+      <c r="AK15">
+        <v>0.2478815081014953</v>
+      </c>
+      <c r="AL15">
+        <v>0.3308461629155325</v>
+      </c>
+      <c r="AM15">
+        <v>0.3201114491302041</v>
+      </c>
+      <c r="AN15">
+        <v>0.1766117037788862</v>
+      </c>
+      <c r="AO15">
+        <v>0.105593768793028</v>
+      </c>
+      <c r="AP15">
+        <v>0.3901059142527251</v>
+      </c>
+      <c r="AQ15">
+        <v>0.2845559479134686</v>
+      </c>
+      <c r="AR15">
+        <v>0.1566829541385042</v>
+      </c>
+      <c r="AS15">
+        <v>-0.1360150413866462</v>
+      </c>
+      <c r="AT15">
+        <v>0.08029546984048311</v>
+      </c>
+      <c r="AU15">
+        <v>0.2366069412466077</v>
+      </c>
+      <c r="AV15">
+        <v>0.1565169017704932</v>
+      </c>
+      <c r="AW15">
+        <v>0.09555183682946844</v>
+      </c>
+      <c r="AX15">
+        <v>0.08472012855772421</v>
+      </c>
+      <c r="AY15">
+        <v>0.2033978019835261</v>
+      </c>
+      <c r="AZ15">
+        <v>0.2490644830259096</v>
+      </c>
+      <c r="BA15">
+        <v>0.1840539557040189</v>
+      </c>
+      <c r="BB15">
+        <v>-0.0649012390981657</v>
+      </c>
+      <c r="BC15">
+        <v>-0.08078416446873113</v>
+      </c>
+      <c r="BD15">
+        <v>0.1213867200906651</v>
+      </c>
+      <c r="BE15">
+        <v>0.08904265872982339</v>
+      </c>
+      <c r="BF15">
+        <v>-0.06089662225364072</v>
+      </c>
+      <c r="BG15">
+        <v>-0.2225002587921751</v>
+      </c>
+      <c r="BH15">
+        <v>-0.07099076254146983</v>
+      </c>
+      <c r="BI15">
+        <v>0.07599011755443132</v>
+      </c>
+      <c r="BJ15">
+        <v>0.304768054799948</v>
+      </c>
+      <c r="BK15">
+        <v>0.1146252493004805</v>
+      </c>
+      <c r="BL15">
+        <v>0.06534709841181129</v>
+      </c>
+      <c r="BM15">
+        <v>0.1429574433871939</v>
+      </c>
+      <c r="BN15">
+        <v>0.05360456175836859</v>
+      </c>
+      <c r="BO15">
+        <v>-8.39724017974295e-06</v>
+      </c>
+      <c r="BP15">
+        <v>-0.2361702114542168</v>
+      </c>
+      <c r="BQ15">
+        <v>-0.1813530754906038</v>
+      </c>
+      <c r="BR15">
+        <v>-0.09422406764664538</v>
+      </c>
+      <c r="BS15">
+        <v>-0.05154170201306338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0.7473053124879625</v>
+      </c>
+      <c r="R16">
+        <v>0.7309763631101343</v>
+      </c>
+      <c r="S16">
+        <v>0.804400763505283</v>
+      </c>
+      <c r="T16">
+        <v>0.3242252930711778</v>
+      </c>
+      <c r="U16">
+        <v>-0.007097730870538738</v>
+      </c>
+      <c r="V16">
+        <v>0.2058374595156032</v>
+      </c>
+      <c r="W16">
+        <v>0.2805143114679886</v>
+      </c>
+      <c r="X16">
+        <v>0.3610836485600644</v>
+      </c>
+      <c r="Y16">
+        <v>0.6227505758387112</v>
+      </c>
+      <c r="Z16">
+        <v>0.5780386090462634</v>
+      </c>
+      <c r="AA16">
+        <v>0.6166086445074431</v>
+      </c>
+      <c r="AB16">
+        <v>0.7965869370789114</v>
+      </c>
+      <c r="AC16">
+        <v>0.8542910106237983</v>
+      </c>
+      <c r="AD16">
+        <v>0.7792161566953346</v>
+      </c>
+      <c r="AE16">
+        <v>0.5133119571195808</v>
+      </c>
+      <c r="AF16">
+        <v>0.5628414150724249</v>
+      </c>
+      <c r="AG16">
+        <v>0.6549164287203221</v>
+      </c>
+      <c r="AH16">
+        <v>0.1395046020028393</v>
+      </c>
+      <c r="AI16">
+        <v>0.09136961503861135</v>
+      </c>
+      <c r="AJ16">
+        <v>0.2454093589942918</v>
+      </c>
+      <c r="AK16">
+        <v>0.2873329962107622</v>
+      </c>
+      <c r="AL16">
+        <v>0.3147183448470499</v>
+      </c>
+      <c r="AM16">
+        <v>0.5431577270621029</v>
+      </c>
+      <c r="AN16">
+        <v>0.4205778984059153</v>
+      </c>
+      <c r="AO16">
+        <v>0.4137070722433277</v>
+      </c>
+      <c r="AP16">
+        <v>0.6384250849629555</v>
+      </c>
+      <c r="AQ16">
+        <v>0.6352219253593995</v>
+      </c>
+      <c r="AR16">
+        <v>0.3713573646712391</v>
+      </c>
+      <c r="AS16">
+        <v>0.09816752964497823</v>
+      </c>
+      <c r="AT16">
+        <v>0.3010269636167868</v>
+      </c>
+      <c r="AU16">
+        <v>0.4137686763326941</v>
+      </c>
+      <c r="AV16">
+        <v>0.01648548087363549</v>
+      </c>
+      <c r="AW16">
+        <v>0.14799058633476</v>
+      </c>
+      <c r="AX16">
+        <v>0.1782641157177078</v>
+      </c>
+      <c r="AY16">
+        <v>0.2155633315388647</v>
+      </c>
+      <c r="AZ16">
+        <v>0.2750756076942017</v>
+      </c>
+      <c r="BA16">
+        <v>0.3326506990308167</v>
+      </c>
+      <c r="BB16">
+        <v>0.1621961541054533</v>
+      </c>
+      <c r="BC16">
+        <v>0.1376144161241624</v>
+      </c>
+      <c r="BD16">
+        <v>0.3160676277193764</v>
+      </c>
+      <c r="BE16">
+        <v>0.2883887007843488</v>
+      </c>
+      <c r="BF16">
+        <v>0.08184163802932652</v>
+      </c>
+      <c r="BG16">
+        <v>-0.1465895166746952</v>
+      </c>
+      <c r="BH16">
+        <v>0.07580980168116179</v>
+      </c>
+      <c r="BI16">
+        <v>0.2459506936011642</v>
+      </c>
+      <c r="BJ16">
+        <v>0.07311243300205165</v>
+      </c>
+      <c r="BK16">
+        <v>0.1949351718777658</v>
+      </c>
+      <c r="BL16">
+        <v>0.1273213283741355</v>
+      </c>
+      <c r="BM16">
+        <v>0.2185816727410469</v>
+      </c>
+      <c r="BN16">
+        <v>0.2106718296095511</v>
+      </c>
+      <c r="BO16">
+        <v>0.1198011010945054</v>
+      </c>
+      <c r="BP16">
+        <v>-0.07908058536408565</v>
+      </c>
+      <c r="BQ16">
+        <v>-0.07263666957886633</v>
+      </c>
+      <c r="BR16">
+        <v>0.01503460657828927</v>
+      </c>
+      <c r="BS16">
+        <v>0.007761396729791293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:71">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0.6042092580815892</v>
+      </c>
+      <c r="S17">
+        <v>0.5404426502993739</v>
+      </c>
+      <c r="T17">
+        <v>0.2360721760324932</v>
+      </c>
+      <c r="U17">
+        <v>0.249680887670804</v>
+      </c>
+      <c r="V17">
+        <v>0.1561164051927158</v>
+      </c>
+      <c r="W17">
+        <v>0.2135664807518351</v>
+      </c>
+      <c r="X17">
+        <v>0.2915551025350395</v>
+      </c>
+      <c r="Y17">
+        <v>0.6185461665443669</v>
+      </c>
+      <c r="Z17">
+        <v>0.6696948222286262</v>
+      </c>
+      <c r="AA17">
+        <v>0.66255211276784</v>
+      </c>
+      <c r="AB17">
+        <v>0.6778675657484688</v>
+      </c>
+      <c r="AC17">
+        <v>0.6612284506826446</v>
+      </c>
+      <c r="AD17">
+        <v>0.5613442838457017</v>
+      </c>
+      <c r="AE17">
+        <v>0.6356976293507657</v>
+      </c>
+      <c r="AF17">
+        <v>0.4600247339488421</v>
+      </c>
+      <c r="AG17">
+        <v>0.4099487378205729</v>
+      </c>
+      <c r="AH17">
+        <v>-0.05818551355527329</v>
+      </c>
+      <c r="AI17">
+        <v>0.3850366969878461</v>
+      </c>
+      <c r="AJ17">
+        <v>0.2781977631680618</v>
+      </c>
+      <c r="AK17">
+        <v>0.2739991781155184</v>
+      </c>
+      <c r="AL17">
+        <v>0.2605477820828592</v>
+      </c>
+      <c r="AM17">
+        <v>0.4872229200479208</v>
+      </c>
+      <c r="AN17">
+        <v>0.5017484491697299</v>
+      </c>
+      <c r="AO17">
+        <v>0.4515084565986933</v>
+      </c>
+      <c r="AP17">
+        <v>0.5052959516422085</v>
+      </c>
+      <c r="AQ17">
+        <v>0.3929016898423741</v>
+      </c>
+      <c r="AR17">
+        <v>0.2037417935650999</v>
+      </c>
+      <c r="AS17">
+        <v>0.1012331033622852</v>
+      </c>
+      <c r="AT17">
+        <v>0.2615142757742179</v>
+      </c>
+      <c r="AU17">
+        <v>0.2065360178031591</v>
+      </c>
+      <c r="AV17">
+        <v>-0.2640554518303309</v>
+      </c>
+      <c r="AW17">
+        <v>0.4309721294448417</v>
+      </c>
+      <c r="AX17">
+        <v>0.3114458947350944</v>
+      </c>
+      <c r="AY17">
+        <v>0.3006781428443044</v>
+      </c>
+      <c r="AZ17">
+        <v>0.3078043527436076</v>
+      </c>
+      <c r="BA17">
+        <v>0.3129003392587925</v>
+      </c>
+      <c r="BB17">
+        <v>0.2812683233433015</v>
+      </c>
+      <c r="BC17">
+        <v>0.2187343087723798</v>
+      </c>
+      <c r="BD17">
+        <v>0.2051475196860301</v>
+      </c>
+      <c r="BE17">
+        <v>0.06923647439345071</v>
+      </c>
+      <c r="BF17">
+        <v>-0.005993329855252643</v>
+      </c>
+      <c r="BG17">
+        <v>-0.003603695556574392</v>
+      </c>
+      <c r="BH17">
+        <v>0.1688201145907341</v>
+      </c>
+      <c r="BI17">
+        <v>0.08782349143993841</v>
+      </c>
+      <c r="BJ17">
+        <v>-0.1063987997381005</v>
+      </c>
+      <c r="BK17">
+        <v>0.4496545278630337</v>
+      </c>
+      <c r="BL17">
+        <v>0.289189607078097</v>
+      </c>
+      <c r="BM17">
+        <v>0.4160629362036922</v>
+      </c>
+      <c r="BN17">
+        <v>0.3524860810434655</v>
+      </c>
+      <c r="BO17">
+        <v>0.2467685623888999</v>
+      </c>
+      <c r="BP17">
+        <v>0.1578998446982422</v>
+      </c>
+      <c r="BQ17">
+        <v>0.1648570107953343</v>
+      </c>
+      <c r="BR17">
+        <v>0.0483228203711745</v>
+      </c>
+      <c r="BS17">
+        <v>-0.05455915061484647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:71">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0.8667192738241349</v>
+      </c>
+      <c r="T18">
+        <v>0.3908652305358229</v>
+      </c>
+      <c r="U18">
+        <v>0.1950280055361766</v>
+      </c>
+      <c r="V18">
+        <v>0.3408291099742947</v>
+      </c>
+      <c r="W18">
+        <v>0.258221276788032</v>
+      </c>
+      <c r="X18">
+        <v>0.2238640289599077</v>
+      </c>
+      <c r="Y18">
+        <v>0.3955058407646257</v>
+      </c>
+      <c r="Z18">
+        <v>0.5370529095562245</v>
+      </c>
+      <c r="AA18">
+        <v>0.7572857406039358</v>
+      </c>
+      <c r="AB18">
+        <v>0.6004305445976336</v>
+      </c>
+      <c r="AC18">
+        <v>0.6339073382785148</v>
+      </c>
+      <c r="AD18">
+        <v>0.6766492447394434</v>
+      </c>
+      <c r="AE18">
+        <v>0.5123977763835126</v>
+      </c>
+      <c r="AF18">
+        <v>0.9024314461110992</v>
+      </c>
+      <c r="AG18">
+        <v>0.8215689277845428</v>
+      </c>
+      <c r="AH18">
+        <v>0.2888723679585695</v>
+      </c>
+      <c r="AI18">
+        <v>0.2756090091409141</v>
+      </c>
+      <c r="AJ18">
+        <v>0.3610312281190929</v>
+      </c>
+      <c r="AK18">
+        <v>0.2491231258165077</v>
+      </c>
+      <c r="AL18">
+        <v>0.2204233644372927</v>
+      </c>
+      <c r="AM18">
+        <v>0.3926868493694176</v>
+      </c>
+      <c r="AN18">
+        <v>0.4817306129112692</v>
+      </c>
+      <c r="AO18">
+        <v>0.6439442762718278</v>
+      </c>
+      <c r="AP18">
+        <v>0.5408474262473703</v>
+      </c>
+      <c r="AQ18">
+        <v>0.5463829374050267</v>
+      </c>
+      <c r="AR18">
+        <v>0.4641497691637733</v>
+      </c>
+      <c r="AS18">
+        <v>0.2618816484120519</v>
+      </c>
+      <c r="AT18">
+        <v>0.7114553834932672</v>
+      </c>
+      <c r="AU18">
+        <v>0.6888002512021323</v>
+      </c>
+      <c r="AV18">
+        <v>0.2036574465238614</v>
+      </c>
+      <c r="AW18">
+        <v>0.3456151384724692</v>
+      </c>
+      <c r="AX18">
+        <v>0.3627213335489031</v>
+      </c>
+      <c r="AY18">
+        <v>0.2002896743695412</v>
+      </c>
+      <c r="AZ18">
+        <v>0.217212450356433</v>
+      </c>
+      <c r="BA18">
+        <v>0.3324296821289893</v>
+      </c>
+      <c r="BB18">
+        <v>0.3399311320221903</v>
+      </c>
+      <c r="BC18">
+        <v>0.458763456546363</v>
+      </c>
+      <c r="BD18">
+        <v>0.3748026102182772</v>
+      </c>
+      <c r="BE18">
+        <v>0.3241375537145554</v>
+      </c>
+      <c r="BF18">
+        <v>0.2673669343501486</v>
+      </c>
+      <c r="BG18">
+        <v>0.08679334614092593</v>
+      </c>
+      <c r="BH18">
+        <v>0.5577979889670204</v>
+      </c>
+      <c r="BI18">
+        <v>0.578075454429145</v>
+      </c>
+      <c r="BJ18">
+        <v>0.2061646680001848</v>
+      </c>
+      <c r="BK18">
+        <v>0.3553894553673594</v>
+      </c>
+      <c r="BL18">
+        <v>0.3060358620326969</v>
+      </c>
+      <c r="BM18">
+        <v>0.156350910373804</v>
+      </c>
+      <c r="BN18">
+        <v>0.1662774010342374</v>
+      </c>
+      <c r="BO18">
+        <v>0.2288113430263915</v>
+      </c>
+      <c r="BP18">
+        <v>0.1787915216747844</v>
+      </c>
+      <c r="BQ18">
+        <v>0.3158829097248135</v>
+      </c>
+      <c r="BR18">
+        <v>0.209517328988167</v>
+      </c>
+      <c r="BS18">
+        <v>0.1357985002751312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:71">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0.4510550889554805</v>
+      </c>
+      <c r="U19">
+        <v>-0.05719317355150315</v>
+      </c>
+      <c r="V19">
+        <v>0.1720936350579194</v>
+      </c>
+      <c r="W19">
+        <v>0.2117005831538819</v>
+      </c>
+      <c r="X19">
+        <v>0.22800534214914</v>
+      </c>
+      <c r="Y19">
+        <v>0.3528714035305239</v>
+      </c>
+      <c r="Z19">
+        <v>0.3606239791476061</v>
+      </c>
+      <c r="AA19">
+        <v>0.549008842340305</v>
+      </c>
+      <c r="AB19">
+        <v>0.5516737968500711</v>
+      </c>
+      <c r="AC19">
+        <v>0.6742799600414404</v>
+      </c>
+      <c r="AD19">
+        <v>0.7121234940939842</v>
+      </c>
+      <c r="AE19">
+        <v>0.409128804427811</v>
+      </c>
+      <c r="AF19">
+        <v>0.7345247263497078</v>
+      </c>
+      <c r="AG19">
+        <v>0.8713519391761988</v>
+      </c>
+      <c r="AH19">
+        <v>0.3230669964036976</v>
+      </c>
+      <c r="AI19">
+        <v>0.01128097258655859</v>
+      </c>
+      <c r="AJ19">
+        <v>0.1843102650530568</v>
+      </c>
+      <c r="AK19">
+        <v>0.191218641092182</v>
+      </c>
+      <c r="AL19">
+        <v>0.2194082940040102</v>
+      </c>
+      <c r="AM19">
+        <v>0.3761247541355832</v>
+      </c>
+      <c r="AN19">
+        <v>0.2921216034719484</v>
+      </c>
+      <c r="AO19">
+        <v>0.4186176370205778</v>
+      </c>
+      <c r="AP19">
+        <v>0.4872508332497734</v>
+      </c>
+      <c r="AQ19">
+        <v>0.5677495802448115</v>
+      </c>
+      <c r="AR19">
+        <v>0.4970627154421338</v>
+      </c>
+      <c r="AS19">
+        <v>0.1491553467875132</v>
+      </c>
+      <c r="AT19">
+        <v>0.5482969478790047</v>
+      </c>
+      <c r="AU19">
+        <v>0.6640608254809003</v>
+      </c>
+      <c r="AV19">
+        <v>0.2016233999402101</v>
+      </c>
+      <c r="AW19">
+        <v>0.07620401692258663</v>
+      </c>
+      <c r="AX19">
+        <v>0.1977398321677724</v>
+      </c>
+      <c r="AY19">
+        <v>0.1505184153209824</v>
+      </c>
+      <c r="AZ19">
+        <v>0.2121758112638888</v>
+      </c>
+      <c r="BA19">
+        <v>0.3311240515746987</v>
+      </c>
+      <c r="BB19">
+        <v>0.1950096298665953</v>
+      </c>
+      <c r="BC19">
+        <v>0.2787187089989451</v>
+      </c>
+      <c r="BD19">
+        <v>0.3468983463653873</v>
+      </c>
+      <c r="BE19">
+        <v>0.3965039846660223</v>
+      </c>
+      <c r="BF19">
+        <v>0.3374798767516031</v>
+      </c>
+      <c r="BG19">
+        <v>0.006735230418982279</v>
+      </c>
+      <c r="BH19">
+        <v>0.4159017898993163</v>
+      </c>
+      <c r="BI19">
+        <v>0.5592069520623445</v>
+      </c>
+      <c r="BJ19">
+        <v>0.211797015684334</v>
+      </c>
+      <c r="BK19">
+        <v>0.09616504065769037</v>
+      </c>
+      <c r="BL19">
+        <v>0.173262747915541</v>
+      </c>
+      <c r="BM19">
+        <v>0.134112572923135</v>
+      </c>
+      <c r="BN19">
+        <v>0.1514859783343397</v>
+      </c>
+      <c r="BO19">
+        <v>0.2313214351904911</v>
+      </c>
+      <c r="BP19">
+        <v>0.09586422661452906</v>
+      </c>
+      <c r="BQ19">
+        <v>0.1851726004494157</v>
+      </c>
+      <c r="BR19">
+        <v>0.2265334543388972</v>
+      </c>
+      <c r="BS19">
+        <v>0.2781937023959258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:71">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0.1271290868958862</v>
+      </c>
+      <c r="V20">
+        <v>0.1049190250894509</v>
+      </c>
+      <c r="W20">
+        <v>0.0135296262231493</v>
+      </c>
+      <c r="X20">
+        <v>0.0831993974728359</v>
+      </c>
+      <c r="Y20">
+        <v>0.1162999737159847</v>
+      </c>
+      <c r="Z20">
+        <v>0.07293274367895483</v>
+      </c>
+      <c r="AA20">
+        <v>0.1996320547903691</v>
+      </c>
+      <c r="AB20">
+        <v>0.1730900313734307</v>
+      </c>
+      <c r="AC20">
+        <v>0.3698429095211766</v>
+      </c>
+      <c r="AD20">
+        <v>0.4106800279186827</v>
+      </c>
+      <c r="AE20">
+        <v>0.2391316991722319</v>
+      </c>
+      <c r="AF20">
+        <v>0.3195821655630711</v>
+      </c>
+      <c r="AG20">
+        <v>0.4555117982143005</v>
+      </c>
+      <c r="AH20">
+        <v>0.5652813464003741</v>
+      </c>
+      <c r="AI20">
+        <v>0.08690143762421436</v>
+      </c>
+      <c r="AJ20">
+        <v>0.03374317117573823</v>
+      </c>
+      <c r="AK20">
+        <v>-0.05219709641540204</v>
+      </c>
+      <c r="AL20">
+        <v>-0.01241866064751608</v>
+      </c>
+      <c r="AM20">
+        <v>0.1129463406091792</v>
+      </c>
+      <c r="AN20">
+        <v>0.07208257150571806</v>
+      </c>
+      <c r="AO20">
+        <v>0.1178892759723946</v>
+      </c>
+      <c r="AP20">
+        <v>0.1612323895380127</v>
+      </c>
+      <c r="AQ20">
+        <v>0.3145058848785225</v>
+      </c>
+      <c r="AR20">
+        <v>0.3905959487770003</v>
+      </c>
+      <c r="AS20">
+        <v>0.1264896155434999</v>
+      </c>
+      <c r="AT20">
+        <v>0.2584841428607771</v>
+      </c>
+      <c r="AU20">
+        <v>0.432359315796642</v>
+      </c>
+      <c r="AV20">
+        <v>0.07122697838503597</v>
+      </c>
+      <c r="AW20">
+        <v>-0.1203994844698783</v>
+      </c>
+      <c r="AX20">
+        <v>-0.1629115610603351</v>
+      </c>
+      <c r="AY20">
+        <v>-0.2357312800559108</v>
+      </c>
+      <c r="AZ20">
+        <v>-0.1497401888093047</v>
+      </c>
+      <c r="BA20">
+        <v>0.009137248999420455</v>
+      </c>
+      <c r="BB20">
+        <v>-0.03977398790211618</v>
+      </c>
+      <c r="BC20">
+        <v>-0.06063552549790665</v>
+      </c>
+      <c r="BD20">
+        <v>0.1026748050620534</v>
+      </c>
+      <c r="BE20">
+        <v>0.1846103420691239</v>
+      </c>
+      <c r="BF20">
+        <v>0.3781412572510079</v>
+      </c>
+      <c r="BG20">
+        <v>0.2048720064504719</v>
+      </c>
+      <c r="BH20">
+        <v>0.3026318722261475</v>
+      </c>
+      <c r="BI20">
+        <v>0.4532262852238695</v>
+      </c>
+      <c r="BJ20">
+        <v>0.2473274863586828</v>
+      </c>
+      <c r="BK20">
+        <v>-0.1572195650698413</v>
+      </c>
+      <c r="BL20">
+        <v>-0.2128025984185002</v>
+      </c>
+      <c r="BM20">
+        <v>-0.2275321268650786</v>
+      </c>
+      <c r="BN20">
+        <v>-0.1092927922851552</v>
+      </c>
+      <c r="BO20">
+        <v>0.08489868457289414</v>
+      </c>
+      <c r="BP20">
+        <v>-0.004339841332632003</v>
+      </c>
+      <c r="BQ20">
+        <v>-0.01623637233283908</v>
+      </c>
+      <c r="BR20">
+        <v>0.1731344279088336</v>
+      </c>
+      <c r="BS20">
+        <v>0.3156157702674421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:71">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0.6062667760535855</v>
+      </c>
+      <c r="W21">
+        <v>0.3741610805923408</v>
+      </c>
+      <c r="X21">
+        <v>0.2434252564849775</v>
+      </c>
+      <c r="Y21">
+        <v>0.2230957717038366</v>
+      </c>
+      <c r="Z21">
+        <v>0.3673242567228005</v>
+      </c>
+      <c r="AA21">
+        <v>0.3890188678644492</v>
+      </c>
+      <c r="AB21">
+        <v>0.04589873724333947</v>
+      </c>
+      <c r="AC21">
+        <v>-0.081379842221557</v>
+      </c>
+      <c r="AD21">
+        <v>-0.09028183638925401</v>
+      </c>
+      <c r="AE21">
+        <v>0.1685645296521744</v>
+      </c>
+      <c r="AF21">
+        <v>0.2439103506112958</v>
+      </c>
+      <c r="AG21">
+        <v>-0.05178126920372233</v>
+      </c>
+      <c r="AH21">
+        <v>-0.03600866376207649</v>
+      </c>
+      <c r="AI21">
+        <v>0.8191758102923774</v>
+      </c>
+      <c r="AJ21">
+        <v>0.4839716322977524</v>
+      </c>
+      <c r="AK21">
+        <v>0.2867074278109007</v>
+      </c>
+      <c r="AL21">
+        <v>0.1549172646305544</v>
+      </c>
+      <c r="AM21">
+        <v>0.1288313250291957</v>
+      </c>
+      <c r="AN21">
+        <v>0.3129065063021859</v>
+      </c>
+      <c r="AO21">
+        <v>0.3961676801137459</v>
+      </c>
+      <c r="AP21">
+        <v>0.001407961704104924</v>
+      </c>
+      <c r="AQ21">
+        <v>-0.1480904954088574</v>
+      </c>
+      <c r="AR21">
+        <v>-0.0825537335542177</v>
+      </c>
+      <c r="AS21">
+        <v>0.1916156945997426</v>
+      </c>
+      <c r="AT21">
+        <v>0.3406575892124316</v>
+      </c>
+      <c r="AU21">
+        <v>0.05928244818963552</v>
+      </c>
+      <c r="AV21">
+        <v>0.03445804956670286</v>
+      </c>
+      <c r="AW21">
+        <v>0.5960993840018676</v>
+      </c>
+      <c r="AX21">
+        <v>0.2230909400708619</v>
+      </c>
+      <c r="AY21">
+        <v>0.1413154131277755</v>
+      </c>
+      <c r="AZ21">
+        <v>0.05239888608753056</v>
+      </c>
+      <c r="BA21">
+        <v>0.08541321891966516</v>
+      </c>
+      <c r="BB21">
+        <v>0.2214895329078135</v>
+      </c>
+      <c r="BC21">
+        <v>0.3550785397001994</v>
+      </c>
+      <c r="BD21">
+        <v>-0.04204956372441469</v>
+      </c>
+      <c r="BE21">
+        <v>-0.1061091701604239</v>
+      </c>
+      <c r="BF21">
+        <v>-0.005612220234024082</v>
+      </c>
+      <c r="BG21">
+        <v>0.290134397954908</v>
+      </c>
+      <c r="BH21">
+        <v>0.3885438606954719</v>
+      </c>
+      <c r="BI21">
+        <v>0.1824871602335283</v>
+      </c>
+      <c r="BJ21">
+        <v>0.1943858606165868</v>
+      </c>
+      <c r="BK21">
+        <v>0.5918947974111562</v>
+      </c>
+      <c r="BL21">
+        <v>0.1560961903146051</v>
+      </c>
+      <c r="BM21">
+        <v>0.1268837594954953</v>
+      </c>
+      <c r="BN21">
+        <v>-0.01058637538533077</v>
+      </c>
+      <c r="BO21">
+        <v>0.08647385186298931</v>
+      </c>
+      <c r="BP21">
+        <v>0.1682500992028265</v>
+      </c>
+      <c r="BQ21">
+        <v>0.3318939927508283</v>
+      </c>
+      <c r="BR21">
+        <v>-0.07971328169852103</v>
+      </c>
+      <c r="BS21">
+        <v>-0.06527379063508254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:71">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0.6356818245522093</v>
+      </c>
+      <c r="X22">
+        <v>0.5106795839964593</v>
+      </c>
+      <c r="Y22">
+        <v>0.367602853840222</v>
+      </c>
+      <c r="Z22">
+        <v>0.4690186616424424</v>
+      </c>
+      <c r="AA22">
+        <v>0.4449231897223703</v>
+      </c>
+      <c r="AB22">
+        <v>0.2833986936157276</v>
+      </c>
+      <c r="AC22">
+        <v>0.2190103058848133</v>
+      </c>
+      <c r="AD22">
+        <v>0.1329145909300167</v>
+      </c>
+      <c r="AE22">
+        <v>0.132113400756678</v>
+      </c>
+      <c r="AF22">
+        <v>0.3651420092440281</v>
+      </c>
+      <c r="AG22">
+        <v>0.1775198551309943</v>
+      </c>
+      <c r="AH22">
+        <v>-0.02882618892092247</v>
+      </c>
+      <c r="AI22">
+        <v>0.4402458329029331</v>
+      </c>
+      <c r="AJ22">
+        <v>0.6382860054980305</v>
+      </c>
+      <c r="AK22">
+        <v>0.4655608643132973</v>
+      </c>
+      <c r="AL22">
+        <v>0.4128749377247775</v>
+      </c>
+      <c r="AM22">
+        <v>0.3834930990687905</v>
+      </c>
+      <c r="AN22">
+        <v>0.441022346651508</v>
+      </c>
+      <c r="AO22">
+        <v>0.4664751724286257</v>
+      </c>
+      <c r="AP22">
+        <v>0.3150588170070737</v>
+      </c>
+      <c r="AQ22">
+        <v>0.2095035747507262</v>
+      </c>
+      <c r="AR22">
+        <v>0.1102935340414476</v>
+      </c>
+      <c r="AS22">
+        <v>0.1481482837949879</v>
+      </c>
+      <c r="AT22">
+        <v>0.3477573599110569</v>
+      </c>
+      <c r="AU22">
+        <v>0.2333783118010619</v>
+      </c>
+      <c r="AV22">
+        <v>0.0350738656808413</v>
+      </c>
+      <c r="AW22">
+        <v>0.2728194771372815</v>
+      </c>
+      <c r="AX22">
+        <v>0.1237019211431805</v>
+      </c>
+      <c r="AY22">
+        <v>0.1435422312582342</v>
+      </c>
+      <c r="AZ22">
+        <v>0.1471715809162879</v>
+      </c>
+      <c r="BA22">
+        <v>0.275976210561449</v>
+      </c>
+      <c r="BB22">
+        <v>0.2750055146751778</v>
+      </c>
+      <c r="BC22">
+        <v>0.3479707505060215</v>
+      </c>
+      <c r="BD22">
+        <v>0.255699189745654</v>
+      </c>
+      <c r="BE22">
+        <v>0.1204680397704084</v>
+      </c>
+      <c r="BF22">
+        <v>0.01962852786052553</v>
+      </c>
+      <c r="BG22">
+        <v>0.07843355208621909</v>
+      </c>
+      <c r="BH22">
+        <v>0.2327259449897195</v>
+      </c>
+      <c r="BI22">
+        <v>0.2112918581883471</v>
+      </c>
+      <c r="BJ22">
+        <v>0.2007336751987697</v>
+      </c>
+      <c r="BK22">
+        <v>0.3238345453790885</v>
+      </c>
+      <c r="BL22">
+        <v>0.01333275022748297</v>
+      </c>
+      <c r="BM22">
+        <v>-0.002058631665444082</v>
+      </c>
+      <c r="BN22">
+        <v>-0.02890299955061844</v>
+      </c>
+      <c r="BO22">
+        <v>0.08054429851015321</v>
+      </c>
+      <c r="BP22">
+        <v>0.06444896324784638</v>
+      </c>
+      <c r="BQ22">
+        <v>0.1399472506564595</v>
+      </c>
+      <c r="BR22">
+        <v>0.08168049358203032</v>
+      </c>
+      <c r="BS22">
+        <v>-0.04762142269061023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:71">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0.8433286406675851</v>
+      </c>
+      <c r="Y23">
+        <v>0.5717689758541935</v>
+      </c>
+      <c r="Z23">
+        <v>0.4876650404640321</v>
+      </c>
+      <c r="AA23">
+        <v>0.4658067188944719</v>
+      </c>
+      <c r="AB23">
+        <v>0.3464738650766913</v>
+      </c>
+      <c r="AC23">
+        <v>0.2817990272896349</v>
+      </c>
+      <c r="AD23">
+        <v>0.07132259720175589</v>
+      </c>
+      <c r="AE23">
+        <v>0.04670852694626188</v>
+      </c>
+      <c r="AF23">
+        <v>0.1535919184935161</v>
+      </c>
+      <c r="AG23">
+        <v>0.1067235299520632</v>
+      </c>
+      <c r="AH23">
+        <v>-0.1630542023416286</v>
+      </c>
+      <c r="AI23">
+        <v>0.2773639178921112</v>
+      </c>
+      <c r="AJ23">
+        <v>0.3911373323425982</v>
+      </c>
+      <c r="AK23">
+        <v>0.6482992733722652</v>
+      </c>
+      <c r="AL23">
+        <v>0.3823724764840747</v>
+      </c>
+      <c r="AM23">
+        <v>0.4079060397245431</v>
+      </c>
+      <c r="AN23">
+        <v>0.2654864187232077</v>
+      </c>
+      <c r="AO23">
+        <v>0.29243647132022</v>
+      </c>
+      <c r="AP23">
+        <v>0.1825696853704734</v>
+      </c>
+      <c r="AQ23">
+        <v>0.1316536525244609</v>
+      </c>
+      <c r="AR23">
+        <v>-0.1395956979572983</v>
+      </c>
+      <c r="AS23">
+        <v>-0.1329414881324132</v>
+      </c>
+      <c r="AT23">
+        <v>0.06416946361146623</v>
+      </c>
+      <c r="AU23">
+        <v>0.023124868889215</v>
+      </c>
+      <c r="AV23">
+        <v>-0.1456283848712824</v>
+      </c>
+      <c r="AW23">
+        <v>0.1580856189705998</v>
+      </c>
+      <c r="AX23">
+        <v>0.03461742721461313</v>
+      </c>
+      <c r="AY23">
+        <v>0.1254679164707203</v>
+      </c>
+      <c r="AZ23">
+        <v>0.009198505700672672</v>
+      </c>
+      <c r="BA23">
+        <v>0.1169190695744396</v>
+      </c>
+      <c r="BB23">
+        <v>-0.003106888864953952</v>
+      </c>
+      <c r="BC23">
+        <v>0.05769000836800812</v>
+      </c>
+      <c r="BD23">
+        <v>-0.007000438383602555</v>
+      </c>
+      <c r="BE23">
+        <v>-0.1068689127078971</v>
+      </c>
+      <c r="BF23">
+        <v>-0.2089543104490816</v>
+      </c>
+      <c r="BG23">
+        <v>-0.1878443919846272</v>
+      </c>
+      <c r="BH23">
+        <v>0.04784208585374034</v>
+      </c>
+      <c r="BI23">
+        <v>0.03071525193059385</v>
+      </c>
+      <c r="BJ23">
+        <v>0.07147249756092272</v>
+      </c>
+      <c r="BK23">
+        <v>0.1808954375485113</v>
+      </c>
+      <c r="BL23">
+        <v>-0.1160270202084061</v>
+      </c>
+      <c r="BM23">
+        <v>-0.05536506169834858</v>
+      </c>
+      <c r="BN23">
+        <v>-0.1134677761929305</v>
+      </c>
+      <c r="BO23">
+        <v>-0.1280885590195407</v>
+      </c>
+      <c r="BP23">
+        <v>-0.1861728989286562</v>
+      </c>
+      <c r="BQ23">
+        <v>-0.04297701800808038</v>
+      </c>
+      <c r="BR23">
+        <v>-0.1698651902743967</v>
+      </c>
+      <c r="BS23">
+        <v>-0.259100160394578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:71">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0.694635088129676</v>
+      </c>
+      <c r="Z24">
+        <v>0.6012949031528333</v>
+      </c>
+      <c r="AA24">
+        <v>0.4631161543115963</v>
+      </c>
+      <c r="AB24">
+        <v>0.5018776892417548</v>
+      </c>
+      <c r="AC24">
+        <v>0.384174383624426</v>
+      </c>
+      <c r="AD24">
+        <v>0.24174278527729</v>
+      </c>
+      <c r="AE24">
+        <v>0.2185971805973261</v>
+      </c>
+      <c r="AF24">
+        <v>0.1317409910517606</v>
+      </c>
+      <c r="AG24">
+        <v>0.1391939595590824</v>
+      </c>
+      <c r="AH24">
+        <v>-0.07053865546665711</v>
+      </c>
+      <c r="AI24">
+        <v>0.2093832955538379</v>
+      </c>
+      <c r="AJ24">
+        <v>0.299398587487863</v>
+      </c>
+      <c r="AK24">
+        <v>0.6872526559094667</v>
+      </c>
+      <c r="AL24">
+        <v>0.5480836399544095</v>
+      </c>
+      <c r="AM24">
+        <v>0.6469694719645952</v>
+      </c>
+      <c r="AN24">
+        <v>0.3979612464276746</v>
+      </c>
+      <c r="AO24">
+        <v>0.3037835371510135</v>
+      </c>
+      <c r="AP24">
+        <v>0.3819239777689208</v>
+      </c>
+      <c r="AQ24">
+        <v>0.3040311035592606</v>
+      </c>
+      <c r="AR24">
+        <v>-0.02721167705832686</v>
+      </c>
+      <c r="AS24">
+        <v>-0.05928046070468563</v>
+      </c>
+      <c r="AT24">
+        <v>-0.03475921103793719</v>
+      </c>
+      <c r="AU24">
+        <v>-0.02861132395597552</v>
+      </c>
+      <c r="AV24">
+        <v>-0.1909284999572383</v>
+      </c>
+      <c r="AW24">
+        <v>0.1503917352679365</v>
+      </c>
+      <c r="AX24">
+        <v>0.06882031415849335</v>
+      </c>
+      <c r="AY24">
+        <v>0.1581495278749478</v>
+      </c>
+      <c r="AZ24">
+        <v>-0.002858583528978728</v>
+      </c>
+      <c r="BA24">
+        <v>0.246235241681917</v>
+      </c>
+      <c r="BB24">
+        <v>0.06525763185507358</v>
+      </c>
+      <c r="BC24">
+        <v>-0.00285103383331763</v>
+      </c>
+      <c r="BD24">
+        <v>0.1417854573932818</v>
+      </c>
+      <c r="BE24">
+        <v>0.004038965112091663</v>
+      </c>
+      <c r="BF24">
+        <v>-0.1973378189403604</v>
+      </c>
+      <c r="BG24">
+        <v>-0.2535336296744247</v>
+      </c>
+      <c r="BH24">
+        <v>-0.1151729115049447</v>
+      </c>
+      <c r="BI24">
+        <v>-0.1180946803584546</v>
+      </c>
+      <c r="BJ24">
+        <v>-0.0487168882094696</v>
+      </c>
+      <c r="BK24">
+        <v>0.172909619314214</v>
+      </c>
+      <c r="BL24">
+        <v>-0.05557346973136271</v>
+      </c>
+      <c r="BM24">
+        <v>-0.02418948811749932</v>
+      </c>
+      <c r="BN24">
+        <v>-0.03039534546975881</v>
+      </c>
+      <c r="BO24">
+        <v>-0.08219370422693976</v>
+      </c>
+      <c r="BP24">
+        <v>-0.1588823620900996</v>
+      </c>
+      <c r="BQ24">
+        <v>-0.1421352777874899</v>
+      </c>
+      <c r="BR24">
+        <v>-0.08548906786312883</v>
+      </c>
+      <c r="BS24">
+        <v>-0.2539359773534692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:71">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>0.8382395493400179</v>
+      </c>
+      <c r="AA25">
+        <v>0.6503375618158996</v>
+      </c>
+      <c r="AB25">
+        <v>0.8140798688478543</v>
+      </c>
+      <c r="AC25">
+        <v>0.7123693486063769</v>
+      </c>
+      <c r="AD25">
+        <v>0.4331106744340613</v>
+      </c>
+      <c r="AE25">
+        <v>0.3807209497466933</v>
+      </c>
+      <c r="AF25">
+        <v>0.2633464025038906</v>
+      </c>
+      <c r="AG25">
+        <v>0.2135801163828689</v>
+      </c>
+      <c r="AH25">
+        <v>-0.1462854283420019</v>
+      </c>
+      <c r="AI25">
+        <v>0.2981666351753873</v>
+      </c>
+      <c r="AJ25">
+        <v>0.2493891498043169</v>
+      </c>
+      <c r="AK25">
+        <v>0.4522113919547802</v>
+      </c>
+      <c r="AL25">
+        <v>0.399672842109066</v>
+      </c>
+      <c r="AM25">
+        <v>0.710549606557464</v>
+      </c>
+      <c r="AN25">
+        <v>0.55758894280989</v>
+      </c>
+      <c r="AO25">
+        <v>0.4347661151525124</v>
+      </c>
+      <c r="AP25">
+        <v>0.6195835923388563</v>
+      </c>
+      <c r="AQ25">
+        <v>0.423118068269295</v>
+      </c>
+      <c r="AR25">
+        <v>0.08009225648232544</v>
+      </c>
+      <c r="AS25">
+        <v>-0.06150639902680337</v>
+      </c>
+      <c r="AT25">
+        <v>0.0622066323982137</v>
+      </c>
+      <c r="AU25">
+        <v>0.02034950194313201</v>
+      </c>
+      <c r="AV25">
+        <v>-0.2465772842377217</v>
+      </c>
+      <c r="AW25">
+        <v>0.3410660133445541</v>
+      </c>
+      <c r="AX25">
+        <v>0.1404054993346538</v>
+      </c>
+      <c r="AY25">
+        <v>0.2483611130125834</v>
+      </c>
+      <c r="AZ25">
+        <v>0.1906885575285131</v>
+      </c>
+      <c r="BA25">
+        <v>0.2192982116643401</v>
+      </c>
+      <c r="BB25">
+        <v>0.1334730554412531</v>
+      </c>
+      <c r="BC25">
+        <v>0.1081504484996768</v>
+      </c>
+      <c r="BD25">
+        <v>0.1913923840743163</v>
+      </c>
+      <c r="BE25">
+        <v>-0.04024435296248605</v>
+      </c>
+      <c r="BF25">
+        <v>-0.2081809449948244</v>
+      </c>
+      <c r="BG25">
+        <v>-0.2503217467521194</v>
+      </c>
+      <c r="BH25">
+        <v>-0.0696004891168807</v>
+      </c>
+      <c r="BI25">
+        <v>-0.1367421332942964</v>
+      </c>
+      <c r="BJ25">
+        <v>-0.00275116766064818</v>
+      </c>
+      <c r="BK25">
+        <v>0.3564915806713539</v>
+      </c>
+      <c r="BL25">
+        <v>0.08759196204696744</v>
+      </c>
+      <c r="BM25">
+        <v>0.1491420701475377</v>
+      </c>
+      <c r="BN25">
+        <v>0.07637088370587909</v>
+      </c>
+      <c r="BO25">
+        <v>-0.07481834882698078</v>
+      </c>
+      <c r="BP25">
+        <v>-0.1621803697703603</v>
+      </c>
+      <c r="BQ25">
+        <v>-0.08190076222716132</v>
+      </c>
+      <c r="BR25">
+        <v>-0.1620525815431706</v>
+      </c>
+      <c r="BS25">
+        <v>-0.3181020018040587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:71">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>0.8603568046313425</v>
+      </c>
+      <c r="AB26">
+        <v>0.8488233083783568</v>
+      </c>
+      <c r="AC26">
+        <v>0.6455853254003258</v>
+      </c>
+      <c r="AD26">
+        <v>0.4638998513426919</v>
+      </c>
+      <c r="AE26">
+        <v>0.5054506292459089</v>
+      </c>
+      <c r="AF26">
+        <v>0.4565691470188095</v>
+      </c>
+      <c r="AG26">
+        <v>0.3035567516277654</v>
+      </c>
+      <c r="AH26">
+        <v>-0.1290321370842324</v>
+      </c>
+      <c r="AI26">
+        <v>0.4168084188218728</v>
+      </c>
+      <c r="AJ26">
+        <v>0.3946649375903423</v>
+      </c>
+      <c r="AK26">
+        <v>0.496547176863934</v>
+      </c>
+      <c r="AL26">
+        <v>0.4985981329485086</v>
+      </c>
+      <c r="AM26">
+        <v>0.7416464853868676</v>
+      </c>
+      <c r="AN26">
+        <v>0.7875811371678599</v>
+      </c>
+      <c r="AO26">
+        <v>0.6605102595799769</v>
+      </c>
+      <c r="AP26">
+        <v>0.710853734658773</v>
+      </c>
+      <c r="AQ26">
+        <v>0.4465732049463197</v>
+      </c>
+      <c r="AR26">
+        <v>0.1599283729423291</v>
+      </c>
+      <c r="AS26">
+        <v>0.1196612258915927</v>
+      </c>
+      <c r="AT26">
+        <v>0.2761125469202018</v>
+      </c>
+      <c r="AU26">
+        <v>0.1434063416400171</v>
+      </c>
+      <c r="AV26">
+        <v>-0.2084145153015564</v>
+      </c>
+      <c r="AW26">
+        <v>0.4596514038252439</v>
+      </c>
+      <c r="AX26">
+        <v>0.2810112413661511</v>
+      </c>
+      <c r="AY26">
+        <v>0.3276637295643678</v>
+      </c>
+      <c r="AZ26">
+        <v>0.2856530972104465</v>
+      </c>
+      <c r="BA26">
+        <v>0.4393401858158668</v>
+      </c>
+      <c r="BB26">
+        <v>0.3782315977824429</v>
+      </c>
+      <c r="BC26">
+        <v>0.3409479740941148</v>
+      </c>
+      <c r="BD26">
+        <v>0.3333309624976823</v>
+      </c>
+      <c r="BE26">
+        <v>0.06463553171449607</v>
+      </c>
+      <c r="BF26">
+        <v>-0.108260316700176</v>
+      </c>
+      <c r="BG26">
+        <v>-0.1032259245399564</v>
+      </c>
+      <c r="BH26">
+        <v>0.1272367921236669</v>
+      </c>
+      <c r="BI26">
+        <v>-0.02581029350138887</v>
+      </c>
+      <c r="BJ26">
+        <v>-0.05528745118492988</v>
+      </c>
+      <c r="BK26">
+        <v>0.5239824514191004</v>
+      </c>
+      <c r="BL26">
+        <v>0.2354175595339216</v>
+      </c>
+      <c r="BM26">
+        <v>0.242342029105099</v>
+      </c>
+      <c r="BN26">
+        <v>0.174424306439263</v>
+      </c>
+      <c r="BO26">
+        <v>0.1552373726026015</v>
+      </c>
+      <c r="BP26">
+        <v>0.06670527246308856</v>
+      </c>
+      <c r="BQ26">
+        <v>0.1476568777432417</v>
+      </c>
+      <c r="BR26">
+        <v>0.007631207743149613</v>
+      </c>
+      <c r="BS26">
+        <v>-0.2467748694201847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:71">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>0.7249330233402635</v>
+      </c>
+      <c r="AC27">
+        <v>0.6264042979491216</v>
+      </c>
+      <c r="AD27">
+        <v>0.5118237854380913</v>
+      </c>
+      <c r="AE27">
+        <v>0.5263348454644771</v>
+      </c>
+      <c r="AF27">
+        <v>0.6841699035520706</v>
+      </c>
+      <c r="AG27">
+        <v>0.5196541422744881</v>
+      </c>
+      <c r="AH27">
+        <v>0.007988379785102279</v>
+      </c>
+      <c r="AI27">
+        <v>0.4034324567593521</v>
+      </c>
+      <c r="AJ27">
+        <v>0.401455313490221</v>
+      </c>
+      <c r="AK27">
+        <v>0.4068024819935914</v>
+      </c>
+      <c r="AL27">
+        <v>0.3670466939479974</v>
+      </c>
+      <c r="AM27">
+        <v>0.5646777229822526</v>
+      </c>
+      <c r="AN27">
+        <v>0.7085185565785096</v>
+      </c>
+      <c r="AO27">
+        <v>0.7784104804565748</v>
+      </c>
+      <c r="AP27">
+        <v>0.6029892838420318</v>
+      </c>
+      <c r="AQ27">
+        <v>0.4452071340607026</v>
+      </c>
+      <c r="AR27">
+        <v>0.2205086890320868</v>
+      </c>
+      <c r="AS27">
+        <v>0.1778049888184622</v>
+      </c>
+      <c r="AT27">
+        <v>0.4910046262600538</v>
+      </c>
+      <c r="AU27">
+        <v>0.395050990535682</v>
+      </c>
+      <c r="AV27">
+        <v>-0.0636199384975384</v>
+      </c>
+      <c r="AW27">
+        <v>0.4423778351886024</v>
+      </c>
+      <c r="AX27">
+        <v>0.3158617316953374</v>
+      </c>
+      <c r="AY27">
+        <v>0.2443577291637481</v>
+      </c>
+      <c r="AZ27">
+        <v>0.2494104407387425</v>
+      </c>
+      <c r="BA27">
+        <v>0.3816880689771171</v>
+      </c>
+      <c r="BB27">
+        <v>0.3748630584549351</v>
+      </c>
+      <c r="BC27">
+        <v>0.4171562785296562</v>
+      </c>
+      <c r="BD27">
+        <v>0.2891315945072115</v>
+      </c>
+      <c r="BE27">
+        <v>0.1131626724875576</v>
+      </c>
+      <c r="BF27">
+        <v>0.003276377035498539</v>
+      </c>
+      <c r="BG27">
+        <v>-0.02050212351054311</v>
+      </c>
+      <c r="BH27">
+        <v>0.3282344432663387</v>
+      </c>
+      <c r="BI27">
+        <v>0.2411938135183687</v>
+      </c>
+      <c r="BJ27">
+        <v>0.01006878860385381</v>
+      </c>
+      <c r="BK27">
+        <v>0.5381491648121377</v>
+      </c>
+      <c r="BL27">
+        <v>0.2997876914766808</v>
+      </c>
+      <c r="BM27">
+        <v>0.1998935815232324</v>
+      </c>
+      <c r="BN27">
+        <v>0.1645330051890354</v>
+      </c>
+      <c r="BO27">
+        <v>0.1977631296223149</v>
+      </c>
+      <c r="BP27">
+        <v>0.1218207466534392</v>
+      </c>
+      <c r="BQ27">
+        <v>0.2479419048269991</v>
+      </c>
+      <c r="BR27">
+        <v>0.04996026242113533</v>
+      </c>
+      <c r="BS27">
+        <v>-0.1466394637672049</v>
+      </c>
+    </row>
+    <row r="28" spans="1:71">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>0.8362660180251758</v>
+      </c>
+      <c r="AD28">
+        <v>0.6280820613901538</v>
+      </c>
+      <c r="AE28">
+        <v>0.4440373758755229</v>
+      </c>
+      <c r="AF28">
+        <v>0.4579452075283002</v>
+      </c>
+      <c r="AG28">
+        <v>0.4405245186212092</v>
+      </c>
+      <c r="AH28">
+        <v>-0.008707689617179458</v>
+      </c>
+      <c r="AI28">
+        <v>0.1352837530581072</v>
+      </c>
+      <c r="AJ28">
+        <v>0.2427779116635079</v>
+      </c>
+      <c r="AK28">
+        <v>0.3528689465246866</v>
+      </c>
+      <c r="AL28">
+        <v>0.425122239518292</v>
+      </c>
+      <c r="AM28">
+        <v>0.6440235329177867</v>
+      </c>
+      <c r="AN28">
+        <v>0.60246341022977</v>
+      </c>
+      <c r="AO28">
+        <v>0.4879194277733461</v>
+      </c>
+      <c r="AP28">
+        <v>0.7727170333201997</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5688830435267646</v>
+      </c>
+      <c r="AR28">
+        <v>0.2645579031299774</v>
+      </c>
+      <c r="AS28">
+        <v>0.01883767519950909</v>
+      </c>
+      <c r="AT28">
+        <v>0.2097179024417014</v>
+      </c>
+      <c r="AU28">
+        <v>0.2390523852816611</v>
+      </c>
+      <c r="AV28">
+        <v>-0.08318310419018095</v>
+      </c>
+      <c r="AW28">
+        <v>0.187410203018123</v>
+      </c>
+      <c r="AX28">
+        <v>0.1772486837695276</v>
+      </c>
+      <c r="AY28">
+        <v>0.2464926544695081</v>
+      </c>
+      <c r="AZ28">
+        <v>0.2765918515397646</v>
+      </c>
+      <c r="BA28">
+        <v>0.3460948101452054</v>
+      </c>
+      <c r="BB28">
+        <v>0.2050914379902825</v>
+      </c>
+      <c r="BC28">
+        <v>0.1304748784532157</v>
+      </c>
+      <c r="BD28">
+        <v>0.3378067557241031</v>
+      </c>
+      <c r="BE28">
+        <v>0.1598660215339985</v>
+      </c>
+      <c r="BF28">
+        <v>-0.03670020737224437</v>
+      </c>
+      <c r="BG28">
+        <v>-0.1942604617522874</v>
+      </c>
+      <c r="BH28">
+        <v>0.003332265316715943</v>
+      </c>
+      <c r="BI28">
+        <v>0.05284266387797297</v>
+      </c>
+      <c r="BJ28">
+        <v>0.06990281044197165</v>
+      </c>
+      <c r="BK28">
+        <v>0.2306614918968443</v>
+      </c>
+      <c r="BL28">
+        <v>0.1100024746902129</v>
+      </c>
+      <c r="BM28">
+        <v>0.165643940730006</v>
+      </c>
+      <c r="BN28">
+        <v>0.1429692873859043</v>
+      </c>
+      <c r="BO28">
+        <v>0.08868337481526603</v>
+      </c>
+      <c r="BP28">
+        <v>-0.1061205515232852</v>
+      </c>
+      <c r="BQ28">
+        <v>-0.1026740249707404</v>
+      </c>
+      <c r="BR28">
+        <v>-0.0006242692437109424</v>
+      </c>
+      <c r="BS28">
+        <v>-0.1346188057384732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:71">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>0.7753509181497412</v>
+      </c>
+      <c r="AE29">
+        <v>0.5268555101893126</v>
+      </c>
+      <c r="AF29">
+        <v>0.4928504772848523</v>
+      </c>
+      <c r="AG29">
+        <v>0.5929354112331138</v>
+      </c>
+      <c r="AH29">
+        <v>0.1050383253781046</v>
+      </c>
+      <c r="AI29">
+        <v>0.02049432456397924</v>
+      </c>
+      <c r="AJ29">
+        <v>0.186437444666885</v>
+      </c>
+      <c r="AK29">
+        <v>0.2810878337257712</v>
+      </c>
+      <c r="AL29">
+        <v>0.3458249119981568</v>
+      </c>
+      <c r="AM29">
+        <v>0.5946635006549948</v>
+      </c>
+      <c r="AN29">
+        <v>0.5005270572496563</v>
+      </c>
+      <c r="AO29">
+        <v>0.4355778270216025</v>
+      </c>
+      <c r="AP29">
+        <v>0.7222343661370207</v>
+      </c>
+      <c r="AQ29">
+        <v>0.716854958181753</v>
+      </c>
+      <c r="AR29">
+        <v>0.4576658216389939</v>
+      </c>
+      <c r="AS29">
+        <v>0.1136695473251991</v>
+      </c>
+      <c r="AT29">
+        <v>0.2403512077431509</v>
+      </c>
+      <c r="AU29">
+        <v>0.3962235076489287</v>
+      </c>
+      <c r="AV29">
+        <v>-0.03867913139416761</v>
+      </c>
+      <c r="AW29">
+        <v>0.08378142456590977</v>
+      </c>
+      <c r="AX29">
+        <v>0.1329390898644144</v>
+      </c>
+      <c r="AY29">
+        <v>0.2341751290330418</v>
+      </c>
+      <c r="AZ29">
+        <v>0.3362718180127097</v>
+      </c>
+      <c r="BA29">
+        <v>0.3453706666147769</v>
+      </c>
+      <c r="BB29">
+        <v>0.1833145495647628</v>
+      </c>
+      <c r="BC29">
+        <v>0.1009567428942478</v>
+      </c>
+      <c r="BD29">
+        <v>0.3803165350959593</v>
+      </c>
+      <c r="BE29">
+        <v>0.2639753825695189</v>
+      </c>
+      <c r="BF29">
+        <v>0.1197433676956475</v>
+      </c>
+      <c r="BG29">
+        <v>-0.1539644076659389</v>
+      </c>
+      <c r="BH29">
+        <v>0.02835782158578166</v>
+      </c>
+      <c r="BI29">
+        <v>0.1913403615462943</v>
+      </c>
+      <c r="BJ29">
+        <v>0.130309282754478</v>
+      </c>
+      <c r="BK29">
+        <v>0.1326006979084285</v>
+      </c>
+      <c r="BL29">
+        <v>0.08057865930353168</v>
+      </c>
+      <c r="BM29">
+        <v>0.1884335517325012</v>
+      </c>
+      <c r="BN29">
+        <v>0.2344033393858285</v>
+      </c>
+      <c r="BO29">
+        <v>0.1778335161622774</v>
+      </c>
+      <c r="BP29">
+        <v>-0.07667773352625494</v>
+      </c>
+      <c r="BQ29">
+        <v>-0.1099204859378212</v>
+      </c>
+      <c r="BR29">
+        <v>0.09303719995337699</v>
+      </c>
+      <c r="BS29">
+        <v>0.04026004434549713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:71">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>0.7577949801224989</v>
+      </c>
+      <c r="AF30">
+        <v>0.7160109854653079</v>
+      </c>
+      <c r="AG30">
+        <v>0.8014894565566865</v>
+      </c>
+      <c r="AH30">
+        <v>0.3139945586214734</v>
+      </c>
+      <c r="AI30">
+        <v>-0.007129684076034115</v>
+      </c>
+      <c r="AJ30">
+        <v>0.1753290047703363</v>
+      </c>
+      <c r="AK30">
+        <v>0.2524525774717708</v>
+      </c>
+      <c r="AL30">
+        <v>0.3536667161327223</v>
+      </c>
+      <c r="AM30">
+        <v>0.6305748071641365</v>
+      </c>
+      <c r="AN30">
+        <v>0.5671717233498005</v>
+      </c>
+      <c r="AO30">
+        <v>0.5745337816068802</v>
+      </c>
+      <c r="AP30">
+        <v>0.7868388193422122</v>
+      </c>
+      <c r="AQ30">
+        <v>0.8530203456930606</v>
+      </c>
+      <c r="AR30">
+        <v>0.7740841946544724</v>
+      </c>
+      <c r="AS30">
+        <v>0.5186778013222032</v>
+      </c>
+      <c r="AT30">
+        <v>0.545409745601942</v>
+      </c>
+      <c r="AU30">
+        <v>0.650459303834278</v>
+      </c>
+      <c r="AV30">
+        <v>0.1440771752799804</v>
+      </c>
+      <c r="AW30">
+        <v>0.0959448956744629</v>
+      </c>
+      <c r="AX30">
+        <v>0.2226427475710418</v>
+      </c>
+      <c r="AY30">
+        <v>0.2692784290299109</v>
+      </c>
+      <c r="AZ30">
+        <v>0.3088962617033851</v>
+      </c>
+      <c r="BA30">
+        <v>0.5573709245371414</v>
+      </c>
+      <c r="BB30">
+        <v>0.4188135060088723</v>
+      </c>
+      <c r="BC30">
+        <v>0.3921077626505861</v>
+      </c>
+      <c r="BD30">
+        <v>0.6339794479967378</v>
+      </c>
+      <c r="BE30">
+        <v>0.6284388571883663</v>
+      </c>
+      <c r="BF30">
+        <v>0.3545412419626494</v>
+      </c>
+      <c r="BG30">
+        <v>0.08905068165655292</v>
+      </c>
+      <c r="BH30">
+        <v>0.2732529973794516</v>
+      </c>
+      <c r="BI30">
+        <v>0.3943192071614051</v>
+      </c>
+      <c r="BJ30">
+        <v>-0.0004301720797576715</v>
+      </c>
+      <c r="BK30">
+        <v>0.1535652682063089</v>
+      </c>
+      <c r="BL30">
+        <v>0.1588814999942854</v>
+      </c>
+      <c r="BM30">
+        <v>0.1950847463257134</v>
+      </c>
+      <c r="BN30">
+        <v>0.2595877216276013</v>
+      </c>
+      <c r="BO30">
+        <v>0.3256709062086091</v>
+      </c>
+      <c r="BP30">
+        <v>0.1556051924067947</v>
+      </c>
+      <c r="BQ30">
+        <v>0.1152606491305766</v>
+      </c>
+      <c r="BR30">
+        <v>0.3029262562793339</v>
+      </c>
+      <c r="BS30">
+        <v>0.2661494877000928</v>
+      </c>
+    </row>
+    <row r="31" spans="1:71">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>0.637956469561401</v>
+      </c>
+      <c r="AG31">
+        <v>0.5619367112972177</v>
+      </c>
+      <c r="AH31">
+        <v>0.2295734932514296</v>
+      </c>
+      <c r="AI31">
+        <v>0.2522934936841834</v>
+      </c>
+      <c r="AJ31">
+        <v>0.1701204116410292</v>
+      </c>
+      <c r="AK31">
+        <v>0.2357970791350236</v>
+      </c>
+      <c r="AL31">
+        <v>0.2978179840872409</v>
+      </c>
+      <c r="AM31">
+        <v>0.6193752500390812</v>
+      </c>
+      <c r="AN31">
+        <v>0.6684035715686453</v>
+      </c>
+      <c r="AO31">
+        <v>0.6483862100667923</v>
+      </c>
+      <c r="AP31">
+        <v>0.6906760307609094</v>
+      </c>
+      <c r="AQ31">
+        <v>0.6670730931624965</v>
+      </c>
+      <c r="AR31">
+        <v>0.573110231023865</v>
+      </c>
+      <c r="AS31">
+        <v>0.6339161488294892</v>
+      </c>
+      <c r="AT31">
+        <v>0.4953597703902014</v>
+      </c>
+      <c r="AU31">
+        <v>0.4471723762646675</v>
+      </c>
+      <c r="AV31">
+        <v>-0.06171069303342214</v>
+      </c>
+      <c r="AW31">
+        <v>0.3814383580790781</v>
+      </c>
+      <c r="AX31">
+        <v>0.2872403614463007</v>
+      </c>
+      <c r="AY31">
+        <v>0.286452403887554</v>
+      </c>
+      <c r="AZ31">
+        <v>0.2663805936573637</v>
+      </c>
+      <c r="BA31">
+        <v>0.4884485093076238</v>
+      </c>
+      <c r="BB31">
+        <v>0.504682838682829</v>
+      </c>
+      <c r="BC31">
+        <v>0.4586447593698885</v>
+      </c>
+      <c r="BD31">
+        <v>0.5110307924494637</v>
+      </c>
+      <c r="BE31">
+        <v>0.3987214973687355</v>
+      </c>
+      <c r="BF31">
+        <v>0.2098742612895234</v>
+      </c>
+      <c r="BG31">
+        <v>0.1027084038803222</v>
+      </c>
+      <c r="BH31">
+        <v>0.2906133199837528</v>
+      </c>
+      <c r="BI31">
+        <v>0.2330049499603741</v>
+      </c>
+      <c r="BJ31">
+        <v>-0.2648221275734982</v>
+      </c>
+      <c r="BK31">
+        <v>0.4255701488371632</v>
+      </c>
+      <c r="BL31">
+        <v>0.3210384457257952</v>
+      </c>
+      <c r="BM31">
+        <v>0.3141167861918985</v>
+      </c>
+      <c r="BN31">
+        <v>0.3184958099800151</v>
+      </c>
+      <c r="BO31">
+        <v>0.3183599482009805</v>
+      </c>
+      <c r="BP31">
+        <v>0.2838102309115886</v>
+      </c>
+      <c r="BQ31">
+        <v>0.231633550630599</v>
+      </c>
+      <c r="BR31">
+        <v>0.2069106639255953</v>
+      </c>
+      <c r="BS31">
+        <v>0.06850270012171036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:71">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>0.8472956363332321</v>
+      </c>
+      <c r="AH32">
+        <v>0.3468426347716153</v>
+      </c>
+      <c r="AI32">
+        <v>0.2509485414587883</v>
+      </c>
+      <c r="AJ32">
+        <v>0.3545413539276089</v>
+      </c>
+      <c r="AK32">
+        <v>0.2162642852356854</v>
+      </c>
+      <c r="AL32">
+        <v>0.2243008433630577</v>
+      </c>
+      <c r="AM32">
+        <v>0.4219420536438311</v>
+      </c>
+      <c r="AN32">
+        <v>0.5648188646085456</v>
+      </c>
+      <c r="AO32">
+        <v>0.7670543917328008</v>
+      </c>
+      <c r="AP32">
+        <v>0.5965887292295069</v>
+      </c>
+      <c r="AQ32">
+        <v>0.6355070503258352</v>
+      </c>
+      <c r="AR32">
+        <v>0.6452085622047505</v>
+      </c>
+      <c r="AS32">
+        <v>0.5231610676468244</v>
+      </c>
+      <c r="AT32">
+        <v>0.8960623275500267</v>
+      </c>
+      <c r="AU32">
+        <v>0.8011899832378144</v>
+      </c>
+      <c r="AV32">
+        <v>0.2924803169230947</v>
+      </c>
+      <c r="AW32">
+        <v>0.3437467982817004</v>
+      </c>
+      <c r="AX32">
+        <v>0.3741095033940933</v>
+      </c>
+      <c r="AY32">
+        <v>0.2343016657914901</v>
+      </c>
+      <c r="AZ32">
+        <v>0.2372259246689711</v>
+      </c>
+      <c r="BA32">
+        <v>0.4411514901948792</v>
+      </c>
+      <c r="BB32">
+        <v>0.5053931418725368</v>
+      </c>
+      <c r="BC32">
+        <v>0.6535092403390729</v>
+      </c>
+      <c r="BD32">
+        <v>0.5311343968266323</v>
+      </c>
+      <c r="BE32">
+        <v>0.5209168810813679</v>
+      </c>
+      <c r="BF32">
+        <v>0.4140862391193274</v>
+      </c>
+      <c r="BG32">
+        <v>0.2429582135004651</v>
+      </c>
+      <c r="BH32">
+        <v>0.6821496789755396</v>
+      </c>
+      <c r="BI32">
+        <v>0.6515727297977515</v>
+      </c>
+      <c r="BJ32">
+        <v>0.1599387505104342</v>
+      </c>
+      <c r="BK32">
+        <v>0.4184172005983288</v>
+      </c>
+      <c r="BL32">
+        <v>0.3707982080216015</v>
+      </c>
+      <c r="BM32">
+        <v>0.1841359605712545</v>
+      </c>
+      <c r="BN32">
+        <v>0.1968765178141172</v>
+      </c>
+      <c r="BO32">
+        <v>0.3301177346271649</v>
+      </c>
+      <c r="BP32">
+        <v>0.3323313210533288</v>
+      </c>
+      <c r="BQ32">
+        <v>0.4380075926852456</v>
+      </c>
+      <c r="BR32">
+        <v>0.3341044011320906</v>
+      </c>
+      <c r="BS32">
+        <v>0.2465373534862562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:71">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>0.4382273649101339</v>
+      </c>
+      <c r="AI33">
+        <v>-0.04961366645601312</v>
+      </c>
+      <c r="AJ33">
+        <v>0.138953951725108</v>
+      </c>
+      <c r="AK33">
+        <v>0.1610319041693852</v>
+      </c>
+      <c r="AL33">
+        <v>0.2180770262130423</v>
+      </c>
+      <c r="AM33">
+        <v>0.3674100984632948</v>
+      </c>
+      <c r="AN33">
+        <v>0.3571279948104337</v>
+      </c>
+      <c r="AO33">
+        <v>0.5143574928960783</v>
+      </c>
+      <c r="AP33">
+        <v>0.5362144617662182</v>
+      </c>
+      <c r="AQ33">
+        <v>0.6752229319155704</v>
+      </c>
+      <c r="AR33">
+        <v>0.7001361491963899</v>
+      </c>
+      <c r="AS33">
+        <v>0.4203961887766452</v>
+      </c>
+      <c r="AT33">
+        <v>0.7110108506900253</v>
+      </c>
+      <c r="AU33">
+        <v>0.8655030745326094</v>
+      </c>
+      <c r="AV33">
+        <v>0.3356597099929644</v>
+      </c>
+      <c r="AW33">
+        <v>0.02973076734252649</v>
+      </c>
+      <c r="AX33">
+        <v>0.1594421539876971</v>
+      </c>
+      <c r="AY33">
+        <v>0.1627801780016916</v>
+      </c>
+      <c r="AZ33">
+        <v>0.2156832926032481</v>
+      </c>
+      <c r="BA33">
+        <v>0.4037764849945533</v>
+      </c>
+      <c r="BB33">
+        <v>0.2947200268300649</v>
+      </c>
+      <c r="BC33">
+        <v>0.3960596283625878</v>
+      </c>
+      <c r="BD33">
+        <v>0.4799845567630851</v>
+      </c>
+      <c r="BE33">
+        <v>0.5564173789679724</v>
+      </c>
+      <c r="BF33">
+        <v>0.4725525509949908</v>
+      </c>
+      <c r="BG33">
+        <v>0.1357073829322106</v>
+      </c>
+      <c r="BH33">
+        <v>0.5155217841984978</v>
+      </c>
+      <c r="BI33">
+        <v>0.6416281312860594</v>
+      </c>
+      <c r="BJ33">
+        <v>0.1778447555080371</v>
+      </c>
+      <c r="BK33">
+        <v>0.09797335170423492</v>
+      </c>
+      <c r="BL33">
+        <v>0.1738644649905006</v>
+      </c>
+      <c r="BM33">
+        <v>0.1188657822568142</v>
+      </c>
+      <c r="BN33">
+        <v>0.1872033053271221</v>
+      </c>
+      <c r="BO33">
+        <v>0.3236863808679876</v>
+      </c>
+      <c r="BP33">
+        <v>0.1864300958411909</v>
+      </c>
+      <c r="BQ33">
+        <v>0.2486143184987729</v>
+      </c>
+      <c r="BR33">
+        <v>0.3263017414844065</v>
+      </c>
+      <c r="BS33">
+        <v>0.3611215061394945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:71">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>0.07272896917815828</v>
+      </c>
+      <c r="AJ34">
+        <v>0.03433289339425556</v>
+      </c>
+      <c r="AK34">
+        <v>-0.03033851006612599</v>
+      </c>
+      <c r="AL34">
+        <v>0.06351085847084767</v>
+      </c>
+      <c r="AM34">
+        <v>0.1092224723481099</v>
+      </c>
+      <c r="AN34">
+        <v>0.04039399422314464</v>
+      </c>
+      <c r="AO34">
+        <v>0.1308216429157165</v>
+      </c>
+      <c r="AP34">
+        <v>0.1436106240448077</v>
+      </c>
+      <c r="AQ34">
+        <v>0.3552715341057117</v>
+      </c>
+      <c r="AR34">
+        <v>0.4044407756994798</v>
+      </c>
+      <c r="AS34">
+        <v>0.2406882844989443</v>
+      </c>
+      <c r="AT34">
+        <v>0.2797060510683722</v>
+      </c>
+      <c r="AU34">
+        <v>0.4384061891610211</v>
+      </c>
+      <c r="AV34">
+        <v>0.5708215204290548</v>
+      </c>
+      <c r="AW34">
+        <v>0.04539475437326635</v>
+      </c>
+      <c r="AX34">
+        <v>-0.01723619078671938</v>
+      </c>
+      <c r="AY34">
+        <v>-0.08386830923620282</v>
+      </c>
+      <c r="AZ34">
+        <v>-0.03527890414553242</v>
+      </c>
+      <c r="BA34">
+        <v>0.105104221091947</v>
+      </c>
+      <c r="BB34">
+        <v>0.05361784879647198</v>
+      </c>
+      <c r="BC34">
+        <v>0.07171775880475614</v>
+      </c>
+      <c r="BD34">
+        <v>0.1507467693028258</v>
+      </c>
+      <c r="BE34">
+        <v>0.3078001167372242</v>
+      </c>
+      <c r="BF34">
+        <v>0.3876053335918984</v>
+      </c>
+      <c r="BG34">
+        <v>0.1227519434072423</v>
+      </c>
+      <c r="BH34">
+        <v>0.2315157400425542</v>
+      </c>
+      <c r="BI34">
+        <v>0.4205845728874639</v>
+      </c>
+      <c r="BJ34">
+        <v>0.07038466765471446</v>
+      </c>
+      <c r="BK34">
+        <v>-0.1501045126378786</v>
+      </c>
+      <c r="BL34">
+        <v>-0.2021040217335587</v>
+      </c>
+      <c r="BM34">
+        <v>-0.2697961015731409</v>
+      </c>
+      <c r="BN34">
+        <v>-0.1736145703531326</v>
+      </c>
+      <c r="BO34">
+        <v>-0.005641203713128211</v>
+      </c>
+      <c r="BP34">
+        <v>-0.04554741869848667</v>
+      </c>
+      <c r="BQ34">
+        <v>-0.08854246688937593</v>
+      </c>
+      <c r="BR34">
+        <v>0.1017088320194309</v>
+      </c>
+      <c r="BS34">
+        <v>0.18999864139885</v>
+      </c>
+    </row>
+    <row r="35" spans="1:71">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AJ35">
+        <v>0.6591977573214459</v>
+      </c>
+      <c r="AK35">
+        <v>0.4119290484685734</v>
+      </c>
+      <c r="AL35">
+        <v>0.2592957871538333</v>
+      </c>
+      <c r="AM35">
+        <v>0.2286043157297626</v>
+      </c>
+      <c r="AN35">
+        <v>0.4034934753544382</v>
+      </c>
+      <c r="AO35">
+        <v>0.4584901163921019</v>
+      </c>
+      <c r="AP35">
+        <v>0.08203957240148289</v>
+      </c>
+      <c r="AQ35">
+        <v>-0.06298064032519277</v>
+      </c>
+      <c r="AR35">
+        <v>-0.09792657504616148</v>
+      </c>
+      <c r="AS35">
+        <v>0.1528218920051969</v>
+      </c>
+      <c r="AT35">
+        <v>0.2927227006993842</v>
+      </c>
+      <c r="AU35">
+        <v>-0.02676822595526418</v>
+      </c>
+      <c r="AV35">
+        <v>-0.05258978357975667</v>
+      </c>
+      <c r="AW35">
+        <v>0.8374337163179886</v>
+      </c>
+      <c r="AX35">
+        <v>0.5335674231093031</v>
+      </c>
+      <c r="AY35">
+        <v>0.3150996068507412</v>
+      </c>
+      <c r="AZ35">
+        <v>0.1897744027053561</v>
+      </c>
+      <c r="BA35">
+        <v>0.1511020782636183</v>
+      </c>
+      <c r="BB35">
+        <v>0.3299514209924053</v>
+      </c>
+      <c r="BC35">
+        <v>0.4424049161154174</v>
+      </c>
+      <c r="BD35">
+        <v>0.006216045304918665</v>
+      </c>
+      <c r="BE35">
+        <v>-0.1495237759767238</v>
+      </c>
+      <c r="BF35">
+        <v>-0.1001095593302977</v>
+      </c>
+      <c r="BG35">
+        <v>0.1748212548800259</v>
+      </c>
+      <c r="BH35">
+        <v>0.3654713669304051</v>
+      </c>
+      <c r="BI35">
+        <v>0.07400841944037892</v>
+      </c>
+      <c r="BJ35">
+        <v>0.0109381686292612</v>
+      </c>
+      <c r="BK35">
+        <v>0.6359114536676331</v>
+      </c>
+      <c r="BL35">
+        <v>0.2820093576519737</v>
+      </c>
+      <c r="BM35">
+        <v>0.1823297857575105</v>
+      </c>
+      <c r="BN35">
+        <v>0.0771052764860075</v>
+      </c>
+      <c r="BO35">
+        <v>0.1002975441192639</v>
+      </c>
+      <c r="BP35">
+        <v>0.2119389705088346</v>
+      </c>
+      <c r="BQ35">
+        <v>0.368302540387994</v>
+      </c>
+      <c r="BR35">
+        <v>-0.06277963423963215</v>
+      </c>
+      <c r="BS35">
+        <v>-0.1505090652685565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:71">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>0.6283869063340577</v>
+      </c>
+      <c r="AL36">
+        <v>0.5029580368840965</v>
+      </c>
+      <c r="AM36">
+        <v>0.369642647820034</v>
+      </c>
+      <c r="AN36">
+        <v>0.4978611687436563</v>
+      </c>
+      <c r="AO36">
+        <v>0.5034630858799575</v>
+      </c>
+      <c r="AP36">
+        <v>0.2891600133044103</v>
+      </c>
+      <c r="AQ36">
+        <v>0.2106096714520482</v>
+      </c>
+      <c r="AR36">
+        <v>0.08829133636861218</v>
+      </c>
+      <c r="AS36">
+        <v>0.1181771334184172</v>
+      </c>
+      <c r="AT36">
+        <v>0.3689995592400724</v>
+      </c>
+      <c r="AU36">
+        <v>0.1528398469081608</v>
+      </c>
+      <c r="AV36">
+        <v>-0.04413605001116132</v>
+      </c>
+      <c r="AW36">
+        <v>0.5132101827729919</v>
+      </c>
+      <c r="AX36">
+        <v>0.6653891710730584</v>
+      </c>
+      <c r="AY36">
+        <v>0.4651962117936274</v>
+      </c>
+      <c r="AZ36">
+        <v>0.4294455228649194</v>
+      </c>
+      <c r="BA36">
+        <v>0.4051326184751372</v>
+      </c>
+      <c r="BB36">
+        <v>0.4503139214560757</v>
+      </c>
+      <c r="BC36">
+        <v>0.4959703517207927</v>
+      </c>
+      <c r="BD36">
+        <v>0.2895531525505567</v>
+      </c>
+      <c r="BE36">
+        <v>0.170313189515078</v>
+      </c>
+      <c r="BF36">
+        <v>0.05365216141274565</v>
+      </c>
+      <c r="BG36">
+        <v>0.121372611510258</v>
+      </c>
+      <c r="BH36">
+        <v>0.3230351981691038</v>
+      </c>
+      <c r="BI36">
+        <v>0.1959397269390626</v>
+      </c>
+      <c r="BJ36">
+        <v>-0.009789234693418932</v>
+      </c>
+      <c r="BK36">
+        <v>0.3644318705173986</v>
+      </c>
+      <c r="BL36">
+        <v>0.1789399170621138</v>
+      </c>
+      <c r="BM36">
+        <v>0.1645043458070005</v>
+      </c>
+      <c r="BN36">
+        <v>0.1483950796132004</v>
+      </c>
+      <c r="BO36">
+        <v>0.271054456642028</v>
+      </c>
+      <c r="BP36">
+        <v>0.2532614832255591</v>
+      </c>
+      <c r="BQ36">
+        <v>0.3363421305379619</v>
+      </c>
+      <c r="BR36">
+        <v>0.1976548564331607</v>
+      </c>
+      <c r="BS36">
+        <v>0.02962164414240273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:71">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>0.8587901245377043</v>
+      </c>
+      <c r="AM37">
+        <v>0.6018137312905794</v>
+      </c>
+      <c r="AN37">
+        <v>0.5090804813820135</v>
+      </c>
+      <c r="AO37">
+        <v>0.4721066977995481</v>
+      </c>
+      <c r="AP37">
+        <v>0.3330924453979787</v>
+      </c>
+      <c r="AQ37">
+        <v>0.2736381357280879</v>
+      </c>
+      <c r="AR37">
+        <v>0.01896458468652938</v>
+      </c>
+      <c r="AS37">
+        <v>0.04655770467366897</v>
+      </c>
+      <c r="AT37">
+        <v>0.09651389307882263</v>
+      </c>
+      <c r="AU37">
+        <v>0.02849698594578466</v>
+      </c>
+      <c r="AV37">
+        <v>-0.1688709206614072</v>
+      </c>
+      <c r="AW37">
+        <v>0.3331119357667487</v>
+      </c>
+      <c r="AX37">
+        <v>0.3951452421958956</v>
+      </c>
+      <c r="AY37">
+        <v>0.6439670914266841</v>
+      </c>
+      <c r="AZ37">
+        <v>0.3979500511500985</v>
+      </c>
+      <c r="BA37">
+        <v>0.4533433524527636</v>
+      </c>
+      <c r="BB37">
+        <v>0.2813903078602019</v>
+      </c>
+      <c r="BC37">
+        <v>0.2923129250190802</v>
+      </c>
+      <c r="BD37">
+        <v>0.163179763776114</v>
+      </c>
+      <c r="BE37">
+        <v>0.09518035542144532</v>
+      </c>
+      <c r="BF37">
+        <v>-0.2109413784994038</v>
+      </c>
+      <c r="BG37">
+        <v>-0.1616691324409352</v>
+      </c>
+      <c r="BH37">
+        <v>-0.01753118679569476</v>
+      </c>
+      <c r="BI37">
+        <v>-0.07174197884297345</v>
+      </c>
+      <c r="BJ37">
+        <v>-0.1964075199187515</v>
+      </c>
+      <c r="BK37">
+        <v>0.2209567468719552</v>
+      </c>
+      <c r="BL37">
+        <v>0.03241680646786353</v>
+      </c>
+      <c r="BM37">
+        <v>0.1034048182377206</v>
+      </c>
+      <c r="BN37">
+        <v>-0.0196720269743495</v>
+      </c>
+      <c r="BO37">
+        <v>0.1076545981417977</v>
+      </c>
+      <c r="BP37">
+        <v>-0.01967817306069673</v>
+      </c>
+      <c r="BQ37">
+        <v>0.0199639220374353</v>
+      </c>
+      <c r="BR37">
+        <v>-0.05537547094245827</v>
+      </c>
+      <c r="BS37">
+        <v>-0.1909821669014225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:71">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
+        <v>0.69942532578189</v>
+      </c>
+      <c r="AN38">
+        <v>0.6040994543324382</v>
+      </c>
+      <c r="AO38">
+        <v>0.4606710445539092</v>
+      </c>
+      <c r="AP38">
+        <v>0.5028311080109431</v>
+      </c>
+      <c r="AQ38">
+        <v>0.3823721755358009</v>
+      </c>
+      <c r="AR38">
+        <v>0.2286655946832067</v>
+      </c>
+      <c r="AS38">
+        <v>0.2168511706783184</v>
+      </c>
+      <c r="AT38">
+        <v>0.12725321825682</v>
+      </c>
+      <c r="AU38">
+        <v>0.1277246224820544</v>
+      </c>
+      <c r="AV38">
+        <v>-0.07364326873384427</v>
+      </c>
+      <c r="AW38">
+        <v>0.2311774454463309</v>
+      </c>
+      <c r="AX38">
+        <v>0.3054141480203357</v>
+      </c>
+      <c r="AY38">
+        <v>0.6891168050977977</v>
+      </c>
+      <c r="AZ38">
+        <v>0.5518711183805521</v>
+      </c>
+      <c r="BA38">
+        <v>0.6589033814399397</v>
+      </c>
+      <c r="BB38">
+        <v>0.4033949371096894</v>
+      </c>
+      <c r="BC38">
+        <v>0.30893589876447</v>
+      </c>
+      <c r="BD38">
+        <v>0.3772517935832699</v>
+      </c>
+      <c r="BE38">
+        <v>0.2939723848967367</v>
+      </c>
+      <c r="BF38">
+        <v>-0.04799201117893256</v>
+      </c>
+      <c r="BG38">
+        <v>-0.066883471147303</v>
+      </c>
+      <c r="BH38">
+        <v>-0.05558314703209019</v>
+      </c>
+      <c r="BI38">
+        <v>-0.05364728342134675</v>
+      </c>
+      <c r="BJ38">
+        <v>-0.2072543131548567</v>
+      </c>
+      <c r="BK38">
+        <v>0.1762782169479749</v>
+      </c>
+      <c r="BL38">
+        <v>0.07867903756416289</v>
+      </c>
+      <c r="BM38">
+        <v>0.1592391547779039</v>
+      </c>
+      <c r="BN38">
+        <v>-0.006248773469958981</v>
+      </c>
+      <c r="BO38">
+        <v>0.2459058650166372</v>
+      </c>
+      <c r="BP38">
+        <v>0.06130460944909687</v>
+      </c>
+      <c r="BQ38">
+        <v>-0.009013179045615383</v>
+      </c>
+      <c r="BR38">
+        <v>0.1262408255747146</v>
+      </c>
+      <c r="BS38">
+        <v>-0.02478553390819965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:71">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>0.83394736212892</v>
+      </c>
+      <c r="AO39">
+        <v>0.6370067401113513</v>
+      </c>
+      <c r="AP39">
+        <v>0.8260740658377539</v>
+      </c>
+      <c r="AQ39">
+        <v>0.7173643310176391</v>
+      </c>
+      <c r="AR39">
+        <v>0.4409794785852011</v>
+      </c>
+      <c r="AS39">
+        <v>0.378955124541356</v>
+      </c>
+      <c r="AT39">
+        <v>0.2889427233736773</v>
+      </c>
+      <c r="AU39">
+        <v>0.2369194134729087</v>
+      </c>
+      <c r="AV39">
+        <v>-0.1495822724314511</v>
+      </c>
+      <c r="AW39">
+        <v>0.3001076237122701</v>
+      </c>
+      <c r="AX39">
+        <v>0.2593237582428732</v>
+      </c>
+      <c r="AY39">
+        <v>0.464113136295271</v>
+      </c>
+      <c r="AZ39">
+        <v>0.4042546938471981</v>
+      </c>
+      <c r="BA39">
+        <v>0.7120586877401127</v>
+      </c>
+      <c r="BB39">
+        <v>0.5601802726698317</v>
+      </c>
+      <c r="BC39">
+        <v>0.4418397013450513</v>
+      </c>
+      <c r="BD39">
+        <v>0.6245929065797352</v>
+      </c>
+      <c r="BE39">
+        <v>0.4275778462011501</v>
+      </c>
+      <c r="BF39">
+        <v>0.08203449985993659</v>
+      </c>
+      <c r="BG39">
+        <v>-0.06111409907857619</v>
+      </c>
+      <c r="BH39">
+        <v>0.07736421393175559</v>
+      </c>
+      <c r="BI39">
+        <v>0.03187704362241781</v>
+      </c>
+      <c r="BJ39">
+        <v>-0.2486463758319653</v>
+      </c>
+      <c r="BK39">
+        <v>0.34129829701713</v>
+      </c>
+      <c r="BL39">
+        <v>0.1530681384820412</v>
+      </c>
+      <c r="BM39">
+        <v>0.260637405625829</v>
+      </c>
+      <c r="BN39">
+        <v>0.1995423425998894</v>
+      </c>
+      <c r="BO39">
+        <v>0.2241777948228665</v>
+      </c>
+      <c r="BP39">
+        <v>0.1352378562818909</v>
+      </c>
+      <c r="BQ39">
+        <v>0.1182211799127983</v>
+      </c>
+      <c r="BR39">
+        <v>0.1913901117458902</v>
+      </c>
+      <c r="BS39">
+        <v>-0.04452411166492432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:71">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>0.8612241405901682</v>
+      </c>
+      <c r="AP40">
+        <v>0.8536047932735699</v>
+      </c>
+      <c r="AQ40">
+        <v>0.6406166192728266</v>
+      </c>
+      <c r="AR40">
+        <v>0.4484822429514092</v>
+      </c>
+      <c r="AS40">
+        <v>0.4929219754264945</v>
+      </c>
+      <c r="AT40">
+        <v>0.4831729982007722</v>
+      </c>
+      <c r="AU40">
+        <v>0.3147584456729893</v>
+      </c>
+      <c r="AV40">
+        <v>-0.1364380778943405</v>
+      </c>
+      <c r="AW40">
+        <v>0.4508079140628272</v>
+      </c>
+      <c r="AX40">
+        <v>0.4232960523084632</v>
+      </c>
+      <c r="AY40">
+        <v>0.5082176542941874</v>
+      </c>
+      <c r="AZ40">
+        <v>0.5100024442066795</v>
+      </c>
+      <c r="BA40">
+        <v>0.7480524112441808</v>
+      </c>
+      <c r="BB40">
+        <v>0.7893556558647987</v>
+      </c>
+      <c r="BC40">
+        <v>0.6755275247860913</v>
+      </c>
+      <c r="BD40">
+        <v>0.7003644066002702</v>
+      </c>
+      <c r="BE40">
+        <v>0.4319264779278049</v>
+      </c>
+      <c r="BF40">
+        <v>0.1393303507208863</v>
+      </c>
+      <c r="BG40">
+        <v>0.1106913708735521</v>
+      </c>
+      <c r="BH40">
+        <v>0.2865720819072909</v>
+      </c>
+      <c r="BI40">
+        <v>0.142788358086714</v>
+      </c>
+      <c r="BJ40">
+        <v>-0.2240858642601578</v>
+      </c>
+      <c r="BK40">
+        <v>0.492404422647005</v>
+      </c>
+      <c r="BL40">
+        <v>0.3095011396322599</v>
+      </c>
+      <c r="BM40">
+        <v>0.3441045370723068</v>
+      </c>
+      <c r="BN40">
+        <v>0.292396949172102</v>
+      </c>
+      <c r="BO40">
+        <v>0.4402992511279964</v>
+      </c>
+      <c r="BP40">
+        <v>0.3709664903294016</v>
+      </c>
+      <c r="BQ40">
+        <v>0.3480647305940111</v>
+      </c>
+      <c r="BR40">
+        <v>0.3105970876384122</v>
+      </c>
+      <c r="BS40">
+        <v>0.02658291124733179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:71">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO41">
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>0.7133068634879076</v>
+      </c>
+      <c r="AQ41">
+        <v>0.600876504164739</v>
+      </c>
+      <c r="AR41">
+        <v>0.4611223924724733</v>
+      </c>
+      <c r="AS41">
+        <v>0.4930194018769095</v>
+      </c>
+      <c r="AT41">
+        <v>0.6922450442665731</v>
+      </c>
+      <c r="AU41">
+        <v>0.5069861151099845</v>
+      </c>
+      <c r="AV41">
+        <v>-0.008784725224739855</v>
+      </c>
+      <c r="AW41">
+        <v>0.4718606992787439</v>
+      </c>
+      <c r="AX41">
+        <v>0.4478414014855044</v>
+      </c>
+      <c r="AY41">
+        <v>0.4137593362807226</v>
+      </c>
+      <c r="AZ41">
+        <v>0.3862547793575054</v>
+      </c>
+      <c r="BA41">
+        <v>0.5735350740982857</v>
+      </c>
+      <c r="BB41">
+        <v>0.702569891811378</v>
+      </c>
+      <c r="BC41">
+        <v>0.787378548209565</v>
+      </c>
+      <c r="BD41">
+        <v>0.5686099912985355</v>
+      </c>
+      <c r="BE41">
+        <v>0.4022827429732494</v>
+      </c>
+      <c r="BF41">
+        <v>0.1692856360335087</v>
+      </c>
+      <c r="BG41">
+        <v>0.1535882391244426</v>
+      </c>
+      <c r="BH41">
+        <v>0.4787932960940073</v>
+      </c>
+      <c r="BI41">
+        <v>0.372265859480769</v>
+      </c>
+      <c r="BJ41">
+        <v>-0.09740751172732408</v>
+      </c>
+      <c r="BK41">
+        <v>0.5094511274710849</v>
+      </c>
+      <c r="BL41">
+        <v>0.35694338653005</v>
+      </c>
+      <c r="BM41">
+        <v>0.2632985975668059</v>
+      </c>
+      <c r="BN41">
+        <v>0.2498472658196844</v>
+      </c>
+      <c r="BO41">
+        <v>0.3739336677267613</v>
+      </c>
+      <c r="BP41">
+        <v>0.3515401639940599</v>
+      </c>
+      <c r="BQ41">
+        <v>0.4090113373174579</v>
+      </c>
+      <c r="BR41">
+        <v>0.237511787892803</v>
+      </c>
+      <c r="BS41">
+        <v>0.03461914900735258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:71">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>0.8346009570302582</v>
+      </c>
+      <c r="AR42">
+        <v>0.6096394810755645</v>
+      </c>
+      <c r="AS42">
+        <v>0.4441868602929325</v>
+      </c>
+      <c r="AT42">
+        <v>0.4485449014773402</v>
+      </c>
+      <c r="AU42">
+        <v>0.4243402440927304</v>
+      </c>
+      <c r="AV42">
+        <v>-0.01173985242558877</v>
+      </c>
+      <c r="AW42">
+        <v>0.1734412566988452</v>
+      </c>
+      <c r="AX42">
+        <v>0.2501909697137947</v>
+      </c>
+      <c r="AY42">
+        <v>0.3475683129417335</v>
+      </c>
+      <c r="AZ42">
+        <v>0.4329338944334672</v>
+      </c>
+      <c r="BA42">
+        <v>0.6673934928047202</v>
+      </c>
+      <c r="BB42">
+        <v>0.6110467153206928</v>
+      </c>
+      <c r="BC42">
+        <v>0.488804389221933</v>
+      </c>
+      <c r="BD42">
+        <v>0.766717680090673</v>
+      </c>
+      <c r="BE42">
+        <v>0.5532710408009162</v>
+      </c>
+      <c r="BF42">
+        <v>0.2335409177919944</v>
+      </c>
+      <c r="BG42">
+        <v>0.005263540704150157</v>
+      </c>
+      <c r="BH42">
+        <v>0.179770107145355</v>
+      </c>
+      <c r="BI42">
+        <v>0.2061906851169889</v>
+      </c>
+      <c r="BJ42">
+        <v>-0.1106976380796915</v>
+      </c>
+      <c r="BK42">
+        <v>0.2264996283273281</v>
+      </c>
+      <c r="BL42">
+        <v>0.1827470461800404</v>
+      </c>
+      <c r="BM42">
+        <v>0.2406542754702096</v>
+      </c>
+      <c r="BN42">
+        <v>0.2678078413610939</v>
+      </c>
+      <c r="BO42">
+        <v>0.3436293327358743</v>
+      </c>
+      <c r="BP42">
+        <v>0.197952426500418</v>
+      </c>
+      <c r="BQ42">
+        <v>0.1152142797350863</v>
+      </c>
+      <c r="BR42">
+        <v>0.3132936106239229</v>
+      </c>
+      <c r="BS42">
+        <v>0.113898133736552</v>
+      </c>
+    </row>
+    <row r="43" spans="1:71">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ43">
+        <v>1</v>
+      </c>
+      <c r="AR43">
+        <v>0.7728125917592272</v>
+      </c>
+      <c r="AS43">
+        <v>0.5276101277669447</v>
+      </c>
+      <c r="AT43">
+        <v>0.4932712565819271</v>
+      </c>
+      <c r="AU43">
+        <v>0.6022753921647697</v>
+      </c>
+      <c r="AV43">
+        <v>0.1047489017406189</v>
+      </c>
+      <c r="AW43">
+        <v>0.03723133024640997</v>
+      </c>
+      <c r="AX43">
+        <v>0.1827613598758069</v>
+      </c>
+      <c r="AY43">
+        <v>0.2754668367936962</v>
+      </c>
+      <c r="AZ43">
+        <v>0.3460973954916576</v>
+      </c>
+      <c r="BA43">
+        <v>0.6052965913971223</v>
+      </c>
+      <c r="BB43">
+        <v>0.5017509243945101</v>
+      </c>
+      <c r="BC43">
+        <v>0.4280332824896247</v>
+      </c>
+      <c r="BD43">
+        <v>0.7199628109664052</v>
+      </c>
+      <c r="BE43">
+        <v>0.7126250750747408</v>
+      </c>
+      <c r="BF43">
+        <v>0.4476742882124303</v>
+      </c>
+      <c r="BG43">
+        <v>0.1071107400611811</v>
+      </c>
+      <c r="BH43">
+        <v>0.2290746964897857</v>
+      </c>
+      <c r="BI43">
+        <v>0.3942391632878739</v>
+      </c>
+      <c r="BJ43">
+        <v>-0.05232386751320296</v>
+      </c>
+      <c r="BK43">
+        <v>0.09962145541040437</v>
+      </c>
+      <c r="BL43">
+        <v>0.1302019871336086</v>
+      </c>
+      <c r="BM43">
+        <v>0.228003124616364</v>
+      </c>
+      <c r="BN43">
+        <v>0.3310693980541208</v>
+      </c>
+      <c r="BO43">
+        <v>0.3429172877847417</v>
+      </c>
+      <c r="BP43">
+        <v>0.1793214665401792</v>
+      </c>
+      <c r="BQ43">
+        <v>0.09093010402049781</v>
+      </c>
+      <c r="BR43">
+        <v>0.3696732680986869</v>
+      </c>
+      <c r="BS43">
+        <v>0.2437315111964908</v>
+      </c>
+    </row>
+    <row r="44" spans="1:71">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR44">
+        <v>1</v>
+      </c>
+      <c r="AS44">
+        <v>0.7706623930152828</v>
+      </c>
+      <c r="AT44">
+        <v>0.6913726455772236</v>
+      </c>
+      <c r="AU44">
+        <v>0.7946718238613844</v>
+      </c>
+      <c r="AV44">
+        <v>0.3247178808038758</v>
+      </c>
+      <c r="AW44">
+        <v>-0.006736956425860719</v>
+      </c>
+      <c r="AX44">
+        <v>0.140634827008875</v>
+      </c>
+      <c r="AY44">
+        <v>0.2244119955990027</v>
+      </c>
+      <c r="AZ44">
+        <v>0.3435450548871455</v>
+      </c>
+      <c r="BA44">
+        <v>0.6491482832661793</v>
+      </c>
+      <c r="BB44">
+        <v>0.5645680263488906</v>
+      </c>
+      <c r="BC44">
+        <v>0.5417751324761387</v>
+      </c>
+      <c r="BD44">
+        <v>0.7845237039606624</v>
+      </c>
+      <c r="BE44">
+        <v>0.8504925341197475</v>
+      </c>
+      <c r="BF44">
+        <v>0.7665259684313488</v>
+      </c>
+      <c r="BG44">
+        <v>0.5151767187688964</v>
+      </c>
+      <c r="BH44">
+        <v>0.5200525170094352</v>
+      </c>
+      <c r="BI44">
+        <v>0.6358598557790422</v>
+      </c>
+      <c r="BJ44">
+        <v>0.126948154594776</v>
+      </c>
+      <c r="BK44">
+        <v>0.09710770192748627</v>
+      </c>
+      <c r="BL44">
+        <v>0.1911214930770743</v>
+      </c>
+      <c r="BM44">
+        <v>0.2391115109518786</v>
+      </c>
+      <c r="BN44">
+        <v>0.2869443072440067</v>
+      </c>
+      <c r="BO44">
+        <v>0.5508310062940824</v>
+      </c>
+      <c r="BP44">
+        <v>0.4147601933052318</v>
+      </c>
+      <c r="BQ44">
+        <v>0.3673208127335985</v>
+      </c>
+      <c r="BR44">
+        <v>0.6263926913314665</v>
+      </c>
+      <c r="BS44">
+        <v>0.6128790490836065</v>
+      </c>
+    </row>
+    <row r="45" spans="1:71">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS45">
+        <v>1</v>
+      </c>
+      <c r="AT45">
+        <v>0.6604228735602634</v>
+      </c>
+      <c r="AU45">
+        <v>0.5935157122754794</v>
+      </c>
+      <c r="AV45">
+        <v>0.2302374571052837</v>
+      </c>
+      <c r="AW45">
+        <v>0.2354037330154106</v>
+      </c>
+      <c r="AX45">
+        <v>0.1599839810200545</v>
+      </c>
+      <c r="AY45">
+        <v>0.2348728782255328</v>
+      </c>
+      <c r="AZ45">
+        <v>0.2927552682745631</v>
+      </c>
+      <c r="BA45">
+        <v>0.6162401999588752</v>
+      </c>
+      <c r="BB45">
+        <v>0.6623213892471492</v>
+      </c>
+      <c r="BC45">
+        <v>0.6327858715171316</v>
+      </c>
+      <c r="BD45">
+        <v>0.6939621215046667</v>
+      </c>
+      <c r="BE45">
+        <v>0.6737592895403588</v>
+      </c>
+      <c r="BF45">
+        <v>0.5849664649208134</v>
+      </c>
+      <c r="BG45">
+        <v>0.6362621343895983</v>
+      </c>
+      <c r="BH45">
+        <v>0.5231452646493737</v>
+      </c>
+      <c r="BI45">
+        <v>0.4764565075777003</v>
+      </c>
+      <c r="BJ45">
+        <v>-0.06008876792948053</v>
+      </c>
+      <c r="BK45">
+        <v>0.3597811715624983</v>
+      </c>
+      <c r="BL45">
+        <v>0.27797777995049</v>
+      </c>
+      <c r="BM45">
+        <v>0.2852402209293349</v>
+      </c>
+      <c r="BN45">
+        <v>0.2673155207831517</v>
+      </c>
+      <c r="BO45">
+        <v>0.4880932550380614</v>
+      </c>
+      <c r="BP45">
+        <v>0.5057076909407247</v>
+      </c>
+      <c r="BQ45">
+        <v>0.4639949675584171</v>
+      </c>
+      <c r="BR45">
+        <v>0.5162849208800626</v>
+      </c>
+      <c r="BS45">
+        <v>0.4063715344948136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:71">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT46">
+        <v>1</v>
+      </c>
+      <c r="AU46">
+        <v>0.8289622861020902</v>
+      </c>
+      <c r="AV46">
+        <v>0.3582601374864138</v>
+      </c>
+      <c r="AW46">
+        <v>0.3163981194115958</v>
+      </c>
+      <c r="AX46">
+        <v>0.3614332841359438</v>
+      </c>
+      <c r="AY46">
+        <v>0.1955403079953775</v>
+      </c>
+      <c r="AZ46">
+        <v>0.2392303526792036</v>
+      </c>
+      <c r="BA46">
+        <v>0.4758970698587754</v>
+      </c>
+      <c r="BB46">
+        <v>0.5935930083856864</v>
+      </c>
+      <c r="BC46">
+        <v>0.7774627752878779</v>
+      </c>
+      <c r="BD46">
+        <v>0.5929993333897844</v>
+      </c>
+      <c r="BE46">
+        <v>0.6181721777540532</v>
+      </c>
+      <c r="BF46">
+        <v>0.607533753849376</v>
+      </c>
+      <c r="BG46">
+        <v>0.5166624133125681</v>
+      </c>
+      <c r="BH46">
+        <v>0.8825715192030797</v>
+      </c>
+      <c r="BI46">
+        <v>0.773941300777738</v>
+      </c>
+      <c r="BJ46">
+        <v>0.2536008161539798</v>
+      </c>
+      <c r="BK46">
+        <v>0.4151121461586197</v>
+      </c>
+      <c r="BL46">
+        <v>0.3774644617749748</v>
+      </c>
+      <c r="BM46">
+        <v>0.213758818050596</v>
+      </c>
+      <c r="BN46">
+        <v>0.2144932131381019</v>
+      </c>
+      <c r="BO46">
+        <v>0.4436499721530309</v>
+      </c>
+      <c r="BP46">
+        <v>0.5068039106298338</v>
+      </c>
+      <c r="BQ46">
+        <v>0.6414886409149364</v>
+      </c>
+      <c r="BR46">
+        <v>0.5003702784500865</v>
+      </c>
+      <c r="BS46">
+        <v>0.4552812106979763</v>
+      </c>
+    </row>
+    <row r="47" spans="1:71">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU47">
+        <v>1</v>
+      </c>
+      <c r="AV47">
+        <v>0.4664754286425187</v>
+      </c>
+      <c r="AW47">
+        <v>-0.007408525054533288</v>
+      </c>
+      <c r="AX47">
+        <v>0.11971435704249</v>
+      </c>
+      <c r="AY47">
+        <v>0.1254054273461936</v>
+      </c>
+      <c r="AZ47">
+        <v>0.2237113217758178</v>
+      </c>
+      <c r="BA47">
+        <v>0.419932430762938</v>
+      </c>
+      <c r="BB47">
+        <v>0.3754999170371758</v>
+      </c>
+      <c r="BC47">
+        <v>0.5057477498544192</v>
+      </c>
+      <c r="BD47">
+        <v>0.5359944881324764</v>
+      </c>
+      <c r="BE47">
+        <v>0.6709288299241316</v>
+      </c>
+      <c r="BF47">
+        <v>0.679003935545334</v>
+      </c>
+      <c r="BG47">
+        <v>0.4172344510551199</v>
+      </c>
+      <c r="BH47">
+        <v>0.6777724440101416</v>
+      </c>
+      <c r="BI47">
+        <v>0.8485446207018529</v>
+      </c>
+      <c r="BJ47">
+        <v>0.307437945133708</v>
+      </c>
+      <c r="BK47">
+        <v>0.0793114904967266</v>
+      </c>
+      <c r="BL47">
+        <v>0.1382906650210324</v>
+      </c>
+      <c r="BM47">
+        <v>0.1250732462689212</v>
+      </c>
+      <c r="BN47">
+        <v>0.1849487070831905</v>
+      </c>
+      <c r="BO47">
+        <v>0.4049860015293432</v>
+      </c>
+      <c r="BP47">
+        <v>0.2909214520022299</v>
+      </c>
+      <c r="BQ47">
+        <v>0.3656952448809165</v>
+      </c>
+      <c r="BR47">
+        <v>0.4583980399946974</v>
+      </c>
+      <c r="BS47">
+        <v>0.5106834753457828</v>
+      </c>
+    </row>
+    <row r="48" spans="1:71">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV48">
+        <v>1</v>
+      </c>
+      <c r="AW48">
+        <v>0.05133587105229154</v>
+      </c>
+      <c r="AX48">
+        <v>0.02060747695803829</v>
+      </c>
+      <c r="AY48">
+        <v>-0.03395894119567548</v>
+      </c>
+      <c r="AZ48">
+        <v>0.05618823999330679</v>
+      </c>
+      <c r="BA48">
+        <v>0.1019425816059206</v>
+      </c>
+      <c r="BB48">
+        <v>0.03439905109642798</v>
+      </c>
+      <c r="BC48">
+        <v>0.1185209393483348</v>
+      </c>
+      <c r="BD48">
+        <v>0.1456785362009653</v>
+      </c>
+      <c r="BE48">
+        <v>0.3625722979352685</v>
+      </c>
+      <c r="BF48">
+        <v>0.4192602955530221</v>
+      </c>
+      <c r="BG48">
+        <v>0.2440754802900382</v>
+      </c>
+      <c r="BH48">
+        <v>0.2991803524118199</v>
+      </c>
+      <c r="BI48">
+        <v>0.4722372069079556</v>
+      </c>
+      <c r="BJ48">
+        <v>0.5802996538189645</v>
+      </c>
+      <c r="BK48">
+        <v>0.02494846440856165</v>
+      </c>
+      <c r="BL48">
+        <v>-0.0268047006563743</v>
+      </c>
+      <c r="BM48">
+        <v>-0.08826205541369671</v>
+      </c>
+      <c r="BN48">
+        <v>-0.03659549310410596</v>
+      </c>
+      <c r="BO48">
+        <v>0.1035764870149364</v>
+      </c>
+      <c r="BP48">
+        <v>0.05480061738307537</v>
+      </c>
+      <c r="BQ48">
+        <v>0.07232997701928348</v>
+      </c>
+      <c r="BR48">
+        <v>0.1588239220406067</v>
+      </c>
+      <c r="BS48">
+        <v>0.323933155722155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:71">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW49">
+        <v>1</v>
+      </c>
+      <c r="AX49">
+        <v>0.7003714816867217</v>
+      </c>
+      <c r="AY49">
+        <v>0.4440759415586034</v>
+      </c>
+      <c r="AZ49">
+        <v>0.288897776011501</v>
+      </c>
+      <c r="BA49">
+        <v>0.2408845488289013</v>
+      </c>
+      <c r="BB49">
+        <v>0.417785850137614</v>
+      </c>
+      <c r="BC49">
+        <v>0.5060130160232597</v>
+      </c>
+      <c r="BD49">
+        <v>0.08903322445280196</v>
+      </c>
+      <c r="BE49">
+        <v>-0.06059850387663911</v>
+      </c>
+      <c r="BF49">
+        <v>-0.1026461049012509</v>
+      </c>
+      <c r="BG49">
+        <v>0.1450200233608001</v>
+      </c>
+      <c r="BH49">
+        <v>0.3392201752652792</v>
+      </c>
+      <c r="BI49">
+        <v>0.007021563655984465</v>
+      </c>
+      <c r="BJ49">
+        <v>-0.0629366479681748</v>
+      </c>
+      <c r="BK49">
+        <v>0.8507919927176385</v>
+      </c>
+      <c r="BL49">
+        <v>0.5766051758496528</v>
+      </c>
+      <c r="BM49">
+        <v>0.3561086875728863</v>
+      </c>
+      <c r="BN49">
+        <v>0.2160851625621333</v>
+      </c>
+      <c r="BO49">
+        <v>0.1668330897604886</v>
+      </c>
+      <c r="BP49">
+        <v>0.3220970020863004</v>
+      </c>
+      <c r="BQ49">
+        <v>0.4655808482530083</v>
+      </c>
+      <c r="BR49">
+        <v>-0.006747337731935056</v>
+      </c>
+      <c r="BS49">
+        <v>-0.177031644249574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:71">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX50">
+        <v>1</v>
+      </c>
+      <c r="AY50">
+        <v>0.6279142085688788</v>
+      </c>
+      <c r="AZ50">
+        <v>0.5156763655166874</v>
+      </c>
+      <c r="BA50">
+        <v>0.3919650286303191</v>
+      </c>
+      <c r="BB50">
+        <v>0.5072958902533704</v>
+      </c>
+      <c r="BC50">
+        <v>0.5261470359486642</v>
+      </c>
+      <c r="BD50">
+        <v>0.273425047584874</v>
+      </c>
+      <c r="BE50">
+        <v>0.1821241224477191</v>
+      </c>
+      <c r="BF50">
+        <v>0.04492515504477303</v>
+      </c>
+      <c r="BG50">
+        <v>0.09961633486949568</v>
+      </c>
+      <c r="BH50">
+        <v>0.3555700789600991</v>
+      </c>
+      <c r="BI50">
+        <v>0.1240060427403945</v>
+      </c>
+      <c r="BJ50">
+        <v>-0.07734572183346181</v>
+      </c>
+      <c r="BK50">
+        <v>0.5676432013562948</v>
+      </c>
+      <c r="BL50">
+        <v>0.6805060103150525</v>
+      </c>
+      <c r="BM50">
+        <v>0.4721016120345943</v>
+      </c>
+      <c r="BN50">
+        <v>0.4239350681581855</v>
+      </c>
+      <c r="BO50">
+        <v>0.4000507742827518</v>
+      </c>
+      <c r="BP50">
+        <v>0.4313923955219404</v>
+      </c>
+      <c r="BQ50">
+        <v>0.4876564948044932</v>
+      </c>
+      <c r="BR50">
+        <v>0.2464235041906696</v>
+      </c>
+      <c r="BS50">
+        <v>0.09933235684335627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:71">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY51">
+        <v>1</v>
+      </c>
+      <c r="AZ51">
+        <v>0.8660533322233976</v>
+      </c>
+      <c r="BA51">
+        <v>0.6270090340837937</v>
+      </c>
+      <c r="BB51">
+        <v>0.5190504366514332</v>
+      </c>
+      <c r="BC51">
+        <v>0.4749729618408183</v>
+      </c>
+      <c r="BD51">
+        <v>0.3223701305200312</v>
+      </c>
+      <c r="BE51">
+        <v>0.2525338517733562</v>
+      </c>
+      <c r="BF51">
+        <v>-0.02016409469346593</v>
+      </c>
+      <c r="BG51">
+        <v>0.03209077139435169</v>
+      </c>
+      <c r="BH51">
+        <v>0.05719915107266517</v>
+      </c>
+      <c r="BI51">
+        <v>-0.02185276793533939</v>
+      </c>
+      <c r="BJ51">
+        <v>-0.1994508660371912</v>
+      </c>
+      <c r="BK51">
+        <v>0.3717058337263095</v>
+      </c>
+      <c r="BL51">
+        <v>0.3993256798673162</v>
+      </c>
+      <c r="BM51">
+        <v>0.6412888899302311</v>
+      </c>
+      <c r="BN51">
+        <v>0.3901259592317428</v>
+      </c>
+      <c r="BO51">
+        <v>0.4514177196610725</v>
+      </c>
+      <c r="BP51">
+        <v>0.2741251886166086</v>
+      </c>
+      <c r="BQ51">
+        <v>0.2791409175648513</v>
+      </c>
+      <c r="BR51">
+        <v>0.134440617542536</v>
+      </c>
+      <c r="BS51">
+        <v>0.04411815191925094</v>
+      </c>
+    </row>
+    <row r="52" spans="1:71">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ52">
+        <v>1</v>
+      </c>
+      <c r="BA52">
+        <v>0.7081081398400957</v>
+      </c>
+      <c r="BB52">
+        <v>0.6095763898456339</v>
+      </c>
+      <c r="BC52">
+        <v>0.4742345928208928</v>
+      </c>
+      <c r="BD52">
+        <v>0.4987229273578285</v>
+      </c>
+      <c r="BE52">
+        <v>0.3731037187892862</v>
+      </c>
+      <c r="BF52">
+        <v>0.2134235370257923</v>
+      </c>
+      <c r="BG52">
+        <v>0.2094761339432386</v>
+      </c>
+      <c r="BH52">
+        <v>0.1288210398478137</v>
+      </c>
+      <c r="BI52">
+        <v>0.1249233886137359</v>
+      </c>
+      <c r="BJ52">
+        <v>-0.08804982802628372</v>
+      </c>
+      <c r="BK52">
+        <v>0.263174832085782</v>
+      </c>
+      <c r="BL52">
+        <v>0.3231232424516552</v>
+      </c>
+      <c r="BM52">
+        <v>0.6984605116563296</v>
+      </c>
+      <c r="BN52">
+        <v>0.5562087303268571</v>
+      </c>
+      <c r="BO52">
+        <v>0.6589325668731428</v>
+      </c>
+      <c r="BP52">
+        <v>0.3989907217600105</v>
+      </c>
+      <c r="BQ52">
+        <v>0.3141799322755608</v>
+      </c>
+      <c r="BR52">
+        <v>0.3611680567744545</v>
+      </c>
+      <c r="BS52">
+        <v>0.264750003859533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:71">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA53">
+        <v>1</v>
+      </c>
+      <c r="BB53">
+        <v>0.8395543016017297</v>
+      </c>
+      <c r="BC53">
+        <v>0.6549808419120735</v>
+      </c>
+      <c r="BD53">
+        <v>0.8373304643164718</v>
+      </c>
+      <c r="BE53">
+        <v>0.7298781197343263</v>
+      </c>
+      <c r="BF53">
+        <v>0.4564775553594879</v>
+      </c>
+      <c r="BG53">
+        <v>0.3831099731673171</v>
+      </c>
+      <c r="BH53">
+        <v>0.3373143887825021</v>
+      </c>
+      <c r="BI53">
+        <v>0.2824586546101718</v>
+      </c>
+      <c r="BJ53">
+        <v>-0.1469813341428203</v>
+      </c>
+      <c r="BK53">
+        <v>0.3082684969912026</v>
+      </c>
+      <c r="BL53">
+        <v>0.2844015588410839</v>
+      </c>
+      <c r="BM53">
+        <v>0.490788007293078</v>
+      </c>
+      <c r="BN53">
+        <v>0.424880236655268</v>
+      </c>
+      <c r="BO53">
+        <v>0.722846304542294</v>
+      </c>
+      <c r="BP53">
+        <v>0.5655814189867796</v>
+      </c>
+      <c r="BQ53">
+        <v>0.4686992489909046</v>
+      </c>
+      <c r="BR53">
+        <v>0.6312546679275359</v>
+      </c>
+      <c r="BS53">
+        <v>0.4322786872482442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:71">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB54">
+        <v>1</v>
+      </c>
+      <c r="BC54">
+        <v>0.8631438756377404</v>
+      </c>
+      <c r="BD54">
+        <v>0.8520420867663624</v>
+      </c>
+      <c r="BE54">
+        <v>0.6364670950090608</v>
+      </c>
+      <c r="BF54">
+        <v>0.4420367666173757</v>
+      </c>
+      <c r="BG54">
+        <v>0.4873594781597189</v>
+      </c>
+      <c r="BH54">
+        <v>0.5079631058514972</v>
+      </c>
+      <c r="BI54">
+        <v>0.3294582738162249</v>
+      </c>
+      <c r="BJ54">
+        <v>-0.1466230142445082</v>
+      </c>
+      <c r="BK54">
+        <v>0.4639220143746996</v>
+      </c>
+      <c r="BL54">
+        <v>0.4354973596707599</v>
+      </c>
+      <c r="BM54">
+        <v>0.5194034386551378</v>
+      </c>
+      <c r="BN54">
+        <v>0.5165585934735114</v>
+      </c>
+      <c r="BO54">
+        <v>0.7493790979055329</v>
+      </c>
+      <c r="BP54">
+        <v>0.78558297252948</v>
+      </c>
+      <c r="BQ54">
+        <v>0.6859812431880991</v>
+      </c>
+      <c r="BR54">
+        <v>0.6900967385161951</v>
+      </c>
+      <c r="BS54">
+        <v>0.4122041149119782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:71">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC55">
+        <v>1</v>
+      </c>
+      <c r="BD55">
+        <v>0.6945393148451423</v>
+      </c>
+      <c r="BE55">
+        <v>0.5720272833868237</v>
+      </c>
+      <c r="BF55">
+        <v>0.4206203036906562</v>
+      </c>
+      <c r="BG55">
+        <v>0.4709153835797948</v>
+      </c>
+      <c r="BH55">
+        <v>0.6905412951095345</v>
+      </c>
+      <c r="BI55">
+        <v>0.4922888693398101</v>
+      </c>
+      <c r="BJ55">
+        <v>-0.04037756305329683</v>
+      </c>
+      <c r="BK55">
+        <v>0.5214727592010882</v>
+      </c>
+      <c r="BL55">
+        <v>0.4676828843313641</v>
+      </c>
+      <c r="BM55">
+        <v>0.4196353213736523</v>
+      </c>
+      <c r="BN55">
+        <v>0.3821714301659683</v>
+      </c>
+      <c r="BO55">
+        <v>0.5676845766289148</v>
+      </c>
+      <c r="BP55">
+        <v>0.6848424737363139</v>
+      </c>
+      <c r="BQ55">
+        <v>0.7792910021927103</v>
+      </c>
+      <c r="BR55">
+        <v>0.5287585763416905</v>
+      </c>
+      <c r="BS55">
+        <v>0.3377841131723505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:71">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD56">
+        <v>1</v>
+      </c>
+      <c r="BE56">
+        <v>0.8322056707186997</v>
+      </c>
+      <c r="BF56">
+        <v>0.6027839840664627</v>
+      </c>
+      <c r="BG56">
+        <v>0.4397300942497824</v>
+      </c>
+      <c r="BH56">
+        <v>0.4429591610941601</v>
+      </c>
+      <c r="BI56">
+        <v>0.4183807751877555</v>
+      </c>
+      <c r="BJ56">
+        <v>-0.02522274470629427</v>
+      </c>
+      <c r="BK56">
+        <v>0.1791454620145411</v>
+      </c>
+      <c r="BL56">
+        <v>0.2376428201750812</v>
+      </c>
+      <c r="BM56">
+        <v>0.3360351808063843</v>
+      </c>
+      <c r="BN56">
+        <v>0.4250234000080101</v>
+      </c>
+      <c r="BO56">
+        <v>0.6647053853692845</v>
+      </c>
+      <c r="BP56">
+        <v>0.6091248385011642</v>
+      </c>
+      <c r="BQ56">
+        <v>0.4808001441437418</v>
+      </c>
+      <c r="BR56">
+        <v>0.761159478550906</v>
+      </c>
+      <c r="BS56">
+        <v>0.5388316085320733</v>
+      </c>
+    </row>
+    <row r="57" spans="1:71">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE57">
+        <v>1</v>
+      </c>
+      <c r="BF57">
+        <v>0.7682236099334286</v>
+      </c>
+      <c r="BG57">
+        <v>0.5239702386432639</v>
+      </c>
+      <c r="BH57">
+        <v>0.4770670207164903</v>
+      </c>
+      <c r="BI57">
+        <v>0.596402141184752</v>
+      </c>
+      <c r="BJ57">
+        <v>0.09117977404483345</v>
+      </c>
+      <c r="BK57">
+        <v>0.03882892315756566</v>
+      </c>
+      <c r="BL57">
+        <v>0.1580279978595799</v>
+      </c>
+      <c r="BM57">
+        <v>0.2525082849943469</v>
+      </c>
+      <c r="BN57">
+        <v>0.3299905452683952</v>
+      </c>
+      <c r="BO57">
+        <v>0.5994698243921498</v>
+      </c>
+      <c r="BP57">
+        <v>0.4985981226474349</v>
+      </c>
+      <c r="BQ57">
+        <v>0.4105618504245936</v>
+      </c>
+      <c r="BR57">
+        <v>0.7147997641305717</v>
+      </c>
+      <c r="BS57">
+        <v>0.7021533857923824</v>
+      </c>
+    </row>
+    <row r="58" spans="1:71">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF58">
+        <v>1</v>
+      </c>
+      <c r="BG58">
+        <v>0.7723395729479012</v>
+      </c>
+      <c r="BH58">
+        <v>0.6694056936645145</v>
+      </c>
+      <c r="BI58">
+        <v>0.7853524519396623</v>
+      </c>
+      <c r="BJ58">
+        <v>0.3116610064986634</v>
+      </c>
+      <c r="BK58">
+        <v>-0.009998517067857234</v>
+      </c>
+      <c r="BL58">
+        <v>0.1007242159581498</v>
+      </c>
+      <c r="BM58">
+        <v>0.1865437557606847</v>
+      </c>
+      <c r="BN58">
+        <v>0.3179952282618812</v>
+      </c>
+      <c r="BO58">
+        <v>0.6422306384370792</v>
+      </c>
+      <c r="BP58">
+        <v>0.5627595026479242</v>
+      </c>
+      <c r="BQ58">
+        <v>0.516516810662905</v>
+      </c>
+      <c r="BR58">
+        <v>0.7813158429835535</v>
+      </c>
+      <c r="BS58">
+        <v>0.8427278313122398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:71">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG59">
+        <v>1</v>
+      </c>
+      <c r="BH59">
+        <v>0.6712650303983568</v>
+      </c>
+      <c r="BI59">
+        <v>0.6044112045121972</v>
+      </c>
+      <c r="BJ59">
+        <v>0.2240097539729781</v>
+      </c>
+      <c r="BK59">
+        <v>0.2262746039422667</v>
+      </c>
+      <c r="BL59">
+        <v>0.1429974125903441</v>
+      </c>
+      <c r="BM59">
+        <v>0.2204305131243323</v>
+      </c>
+      <c r="BN59">
+        <v>0.2828548084039004</v>
+      </c>
+      <c r="BO59">
+        <v>0.6115647442218018</v>
+      </c>
+      <c r="BP59">
+        <v>0.6605201283309009</v>
+      </c>
+      <c r="BQ59">
+        <v>0.6271807118956132</v>
+      </c>
+      <c r="BR59">
+        <v>0.6916432759301805</v>
+      </c>
+      <c r="BS59">
+        <v>0.6695579781227236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:71">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH60">
+        <v>1</v>
+      </c>
+      <c r="BI60">
+        <v>0.8074660864619587</v>
+      </c>
+      <c r="BJ60">
+        <v>0.3312857136986343</v>
+      </c>
+      <c r="BK60">
+        <v>0.3702666554754725</v>
+      </c>
+      <c r="BL60">
+        <v>0.3480044473884205</v>
+      </c>
+      <c r="BM60">
+        <v>0.1599933792542912</v>
+      </c>
+      <c r="BN60">
+        <v>0.2100957329861033</v>
+      </c>
+      <c r="BO60">
+        <v>0.4812763784067453</v>
+      </c>
+      <c r="BP60">
+        <v>0.6070672910231262</v>
+      </c>
+      <c r="BQ60">
+        <v>0.7739624395398814</v>
+      </c>
+      <c r="BR60">
+        <v>0.5783266483565311</v>
+      </c>
+      <c r="BS60">
+        <v>0.576175981343211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:71">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI61">
+        <v>1</v>
+      </c>
+      <c r="BJ61">
+        <v>0.4499179304825751</v>
+      </c>
+      <c r="BK61">
+        <v>0.03354438085523625</v>
+      </c>
+      <c r="BL61">
+        <v>0.08841031432736422</v>
+      </c>
+      <c r="BM61">
+        <v>0.07878129403243106</v>
+      </c>
+      <c r="BN61">
+        <v>0.1900127470171224</v>
+      </c>
+      <c r="BO61">
+        <v>0.4220276504090334</v>
+      </c>
+      <c r="BP61">
+        <v>0.377965082238065</v>
+      </c>
+      <c r="BQ61">
+        <v>0.4810199650733809</v>
+      </c>
+      <c r="BR61">
+        <v>0.5219792779338309</v>
+      </c>
+      <c r="BS61">
+        <v>0.6392437782794913</v>
+      </c>
+    </row>
+    <row r="62" spans="1:71">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ62">
+        <v>1</v>
+      </c>
+      <c r="BK62">
+        <v>0.03980983271547831</v>
+      </c>
+      <c r="BL62">
+        <v>-0.01120934374362166</v>
+      </c>
+      <c r="BM62">
+        <v>-0.06548924241161162</v>
+      </c>
+      <c r="BN62">
+        <v>0.03287609350031887</v>
+      </c>
+      <c r="BO62">
+        <v>0.08904916509680788</v>
+      </c>
+      <c r="BP62">
+        <v>0.02644271970805936</v>
+      </c>
+      <c r="BQ62">
+        <v>0.09151777201886502</v>
+      </c>
+      <c r="BR62">
+        <v>0.1352704427436324</v>
+      </c>
+      <c r="BS62">
+        <v>0.3524099269909063</v>
+      </c>
+    </row>
+    <row r="63" spans="1:71">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK63">
+        <v>1</v>
+      </c>
+      <c r="BL63">
+        <v>0.7367031731839098</v>
+      </c>
+      <c r="BM63">
+        <v>0.4837915493439605</v>
+      </c>
+      <c r="BN63">
+        <v>0.3148607668696071</v>
+      </c>
+      <c r="BO63">
+        <v>0.2547003670634111</v>
+      </c>
+      <c r="BP63">
+        <v>0.4083743272067668</v>
+      </c>
+      <c r="BQ63">
+        <v>0.5317053687938917</v>
+      </c>
+      <c r="BR63">
+        <v>0.07594604598333936</v>
+      </c>
+      <c r="BS63">
+        <v>-0.08699827392840583</v>
+      </c>
+    </row>
+    <row r="64" spans="1:71">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL64">
+        <v>1</v>
+      </c>
+      <c r="BM64">
+        <v>0.6308076741562842</v>
+      </c>
+      <c r="BN64">
+        <v>0.5102859045360993</v>
+      </c>
+      <c r="BO64">
+        <v>0.3891675840165822</v>
+      </c>
+      <c r="BP64">
+        <v>0.4925552699799396</v>
+      </c>
+      <c r="BQ64">
+        <v>0.5194148865931452</v>
+      </c>
+      <c r="BR64">
+        <v>0.2369946739898539</v>
+      </c>
+      <c r="BS64">
+        <v>0.119642475608491</v>
+      </c>
+    </row>
+    <row r="65" spans="1:71">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM65">
+        <v>1</v>
+      </c>
+      <c r="BN65">
+        <v>0.8628108766140259</v>
+      </c>
+      <c r="BO65">
+        <v>0.6257687839232765</v>
+      </c>
+      <c r="BP65">
+        <v>0.5123312425460101</v>
+      </c>
+      <c r="BQ65">
+        <v>0.4643011765751275</v>
+      </c>
+      <c r="BR65">
+        <v>0.2926598405464275</v>
+      </c>
+      <c r="BS65">
+        <v>0.1989906497310449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:71">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN66">
+        <v>1</v>
+      </c>
+      <c r="BO66">
+        <v>0.7078487487716419</v>
+      </c>
+      <c r="BP66">
+        <v>0.6066634627566841</v>
+      </c>
+      <c r="BQ66">
+        <v>0.464073325013372</v>
+      </c>
+      <c r="BR66">
+        <v>0.4802188553234534</v>
+      </c>
+      <c r="BS66">
+        <v>0.336918673150211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:71">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO67">
+        <v>1</v>
+      </c>
+      <c r="BP67">
+        <v>0.8377774933329797</v>
+      </c>
+      <c r="BQ67">
+        <v>0.6555745280772434</v>
+      </c>
+      <c r="BR67">
+        <v>0.8293541420385836</v>
+      </c>
+      <c r="BS67">
+        <v>0.7129830945287234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:71">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP68">
+        <v>1</v>
+      </c>
+      <c r="BQ68">
+        <v>0.8655896535474386</v>
+      </c>
+      <c r="BR68">
+        <v>0.8504599956621653</v>
+      </c>
+      <c r="BS68">
+        <v>0.6300402708547492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:71">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ69">
+        <v>1</v>
+      </c>
+      <c r="BR69">
+        <v>0.6776190651712709</v>
+      </c>
+      <c r="BS69">
+        <v>0.5342192882228533</v>
+      </c>
+    </row>
+    <row r="70" spans="1:71">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR70">
+        <v>1</v>
+      </c>
+      <c r="BS70">
+        <v>0.8287189537211118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:71">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS71">
         <v>1</v>
       </c>
     </row>
